--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2128 +418,2338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.363283833199995</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>34.74698336881789</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.003678178491386519</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.003930707792658921</v>
+      </c>
+      <c r="E2">
         <v>1.421742238202096</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.127397580797081</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>7.618474931960215</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.1827415422539622</v>
+      </c>
+      <c r="I2">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="J2">
         <v>2.451605287879938</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>12.34718683282032</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>4.414323495331063</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>26.88677111970811</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N2" t="n">
-        <v>92.87211463956014</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>98.20547854557643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.354109648588958</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>34.51315440940457</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0033437986285332</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.00357337072059902</v>
+      </c>
+      <c r="E3">
         <v>1.292492943820088</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2.380061559460503</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>16.08344707858267</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1827415422539622</v>
+      </c>
+      <c r="I3">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="J3">
         <v>1.984632852093283</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>9.995341721806925</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>3.794769320547754</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>23.11318920817015</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.04379891551735053</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.6922027430107043</v>
       </c>
-      <c r="N3" t="n">
-        <v>95.25054419963149</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>100.5838851484386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.434842473166079</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>36.57084925224171</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.006687597257066399</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.00714674144119804</v>
+      </c>
+      <c r="E4">
         <v>2.584985887640175</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.878995967995134</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>12.69745821993369</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.2284269278174527</v>
+      </c>
+      <c r="I4">
+        <v>6.437962293076318</v>
+      </c>
+      <c r="J4">
         <v>1.797843877778621</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>9.05460367740157</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>3.484992233156102</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>21.22639825240114</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.1021974695404845</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>1.615139733691643</v>
       </c>
-      <c r="N4" t="n">
-        <v>92.4549946422034</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>99.12184300728133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.884377519106857</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>48.02846826349389</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.00234065903997324</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.002501359504419314</v>
+      </c>
+      <c r="E5">
         <v>0.9047450606740609</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3.069026747725387</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>20.73918175922503</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.3197976989444338</v>
+      </c>
+      <c r="I5">
+        <v>9.013147210306851</v>
+      </c>
+      <c r="J5">
         <v>1.867889743146619</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>9.407380444053578</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>2.013551068045747</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>12.26414121249844</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.04379891551735053</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.6922027430107043</v>
       </c>
-      <c r="N5" t="n">
-        <v>100.9171041355376</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>110.2502097452534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.43849826961345</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>62.15173741205781</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.0016718993142666</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.00178668536029951</v>
+      </c>
+      <c r="E6">
         <v>0.6462464719100438</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.630594355193187</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>17.77644150790717</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.3807115463624212</v>
+      </c>
+      <c r="I6">
+        <v>10.7299371551272</v>
+      </c>
+      <c r="J6">
         <v>1.564357659885293</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>7.878681121894872</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>2.168439611741573</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>13.20753669038294</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.04379891551735053</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.6922027430107043</v>
       </c>
-      <c r="N6" t="n">
-        <v>111.2002066584287</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>122.3109701459643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2.067861211327584</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>52.70504745176011</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.0016718993142666</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.00178668536029951</v>
+      </c>
+      <c r="E7">
         <v>0.6462464719100438</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.565829973329278</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>10.58121518327808</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.472082317489402</v>
+      </c>
+      <c r="I7">
+        <v>13.30512207235773</v>
+      </c>
+      <c r="J7">
         <v>1.097385224098639</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>5.526836010881476</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>2.013551068045747</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>12.26414121249844</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.0729981925289175</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>1.153671238351173</v>
       </c>
-      <c r="N7" t="n">
-        <v>89.69645513732377</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>103.4737743132169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.464199863921395</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>37.31910192236428</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.004012558354239838</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.004288044864718823</v>
+      </c>
+      <c r="E8">
         <v>1.550991532584105</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.06476438186391</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>7.195226324629091</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.2893407752354401</v>
+      </c>
+      <c r="I8">
+        <v>8.154752237896671</v>
+      </c>
+      <c r="J8">
         <v>0.6304127883119839</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>3.174990899868082</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>3.330103689460275</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>20.28300277451665</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N8" t="n">
-        <v>76.50747450822605</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>84.95184300786863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.9100791134148012</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>23.19583277380036</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E9">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1.127397580797081</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>7.618474931960215</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.4416253937804084</v>
+      </c>
+      <c r="I9">
+        <v>12.44672709994755</v>
+      </c>
+      <c r="J9">
         <v>0.6537614101013167</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>3.292583155418753</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>3.562436505004014</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>21.69809599134339</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N9" t="n">
-        <v>63.08149739348512</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>75.96998763046832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.7394392796495264</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>18.8466141287128</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.003678178491386519</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.003930707792658921</v>
+      </c>
+      <c r="E10">
         <v>1.421742238202096</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.5010655914653692</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>3.385988858648984</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.1218276948359748</v>
+      </c>
+      <c r="I10">
+        <v>3.433579889640703</v>
+      </c>
+      <c r="J10">
         <v>0.3969265704186565</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>1.999068344361385</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>2.168439611741573</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>13.20753669038294</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>42.67049949207471</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>46.22615960585266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.4862317843849244</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>12.39293484890543</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.00100313958855996</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.001072011216179706</v>
+      </c>
+      <c r="E11">
         <v>0.3877478831460263</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.1878995967995135</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.269745821993369</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.197970004108459</v>
+      </c>
+      <c r="I11">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="J11">
         <v>0.2801834614719929</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>1.411107066608037</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>2.323328155437401</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>14.15093216826743</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>32.89111392660269</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>38.6687201230049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.2752255383310891</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>7.014868782399303</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E12">
         <v>1.163243649438078</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.1252663978663423</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.8464972146622459</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.1218276948359748</v>
+      </c>
+      <c r="I12">
+        <v>3.433579889640703</v>
+      </c>
+      <c r="J12">
         <v>0.1400917307359965</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>0.7055535333040184</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>0.6969984466312206</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>4.245279650480229</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N12" t="n">
-        <v>15.46136824879022</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>19.01698244814976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.1669701599208607</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4.255687061322244</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.00133751945141328</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.001429348288239608</v>
+      </c>
+      <c r="E13">
         <v>0.516997177528035</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.1252663978663423</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.8464972146622459</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.07614230927248422</v>
+      </c>
+      <c r="I13">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="J13">
         <v>0.1400917307359965</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.7055535333040184</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.6195541747833069</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>3.773581911537981</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>11.15153688111244</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>13.37375845024719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.09724635687698482</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2.478586969781088</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E14">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.1878995967995135</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1.269745821993369</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.06091384741798739</v>
+      </c>
+      <c r="I14">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="J14">
         <v>0.2101375961039947</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>1.058330299956028</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>1.161664077718701</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>7.075466084133715</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>14.31657884883257</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>16.09442038432615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.04587092305518152</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.169144797066551</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.0016718993142666</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.00178668536029951</v>
+      </c>
+      <c r="E15">
         <v>0.6462464719100438</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.1878995967995135</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1.269745821993369</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.01522846185449685</v>
+      </c>
+      <c r="I15">
+        <v>0.4291974862050879</v>
+      </c>
+      <c r="J15">
         <v>0.2101375961039947</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>1.058330299956028</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.5421099029353933</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>3.301884172595734</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>8.433041481730076</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>8.877582215835695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.02568771691090165</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.6547210863572686</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.00100313958855996</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.001072011216179706</v>
+      </c>
+      <c r="E16">
         <v>0.3877478831460263</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.06263319893317115</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.423248607331123</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16">
         <v>0.07004586536799823</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.3527767666520092</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.9293312621749601</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>5.660372867306971</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>8.567568393768989</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>8.567637265396609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1247689107100938</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3.180073848021018</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.1252663978663423</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.8464972146622459</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.06091384741798739</v>
+      </c>
+      <c r="I17">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="J17">
         <v>0.1867889743146618</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.940738044405358</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>1.936106796197834</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>11.79244347355619</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>19.13268365973375</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>20.91038745197208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.3009132552419907</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>7.669589868756574</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.00133751945141328</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.001429348288239608</v>
+      </c>
+      <c r="E18">
         <v>0.516997177528035</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.2505327957326846</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1.692994429324492</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.1827415422539622</v>
+      </c>
+      <c r="I18">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="J18">
         <v>0.6070641665226512</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>3.057398644317413</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>4.336879223483146</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>26.41507338076588</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>44.84878046112428</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>50.18198366667612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.9504455257033613</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>24.22468019521892</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.00100313958855996</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.001072011216179706</v>
+      </c>
+      <c r="E19">
         <v>0.3877478831460263</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.6263319893317114</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>4.23248607331123</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.6395953978888675</v>
+      </c>
+      <c r="I19">
+        <v>18.0262944206137</v>
+      </c>
+      <c r="J19">
         <v>1.214128333045302</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>6.114797288634826</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>6.195541747833071</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>37.7358191153798</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19">
         <v>0.04379891551735053</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19">
         <v>0.6922027430107043</v>
       </c>
-      <c r="N19" t="n">
-        <v>82.41898294972088</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>101.0849416398511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1.919239420628795</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>48.91701830926447</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E20">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>2.066895564794648</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>13.96720404192706</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.5329961649073895</v>
+      </c>
+      <c r="I20">
+        <v>15.02191201717808</v>
+      </c>
+      <c r="J20">
         <v>2.007981473882615</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>10.1129339773576</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>4.491767767178974</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>27.35846885865036</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20">
         <v>0.08759783103470106</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20">
         <v>1.384405486021409</v>
       </c>
-      <c r="N20" t="n">
-        <v>113.0910147762098</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>128.6460607015505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2.108227623616143</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>53.73389487317867</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.003678178491386519</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.003930707792658921</v>
+      </c>
+      <c r="E21">
         <v>1.421742238202096</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>1.252663978663423</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>8.464972146622459</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.395940008216918</v>
+      </c>
+      <c r="I21">
+        <v>11.15913464133229</v>
+      </c>
+      <c r="J21">
         <v>1.751146634199955</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>8.81941916630023</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>4.181990679787321</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>25.47167790288137</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.08759783103470106</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>1.384405486021409</v>
       </c>
-      <c r="N21" t="n">
-        <v>108.6814167389992</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>120.2367439178496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1.647683556142121</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>41.9956811106305</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.00234065903997324</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.002501359504419314</v>
+      </c>
+      <c r="E22">
         <v>0.9047450606740609</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1.753729570128792</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>11.85096100527145</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.395940008216918</v>
+      </c>
+      <c r="I22">
+        <v>11.15913464133229</v>
+      </c>
+      <c r="J22">
         <v>2.054678717461281</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>10.34811848845894</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>5.266210485658108</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>32.07544624807284</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.0729981925289175</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>1.153671238351173</v>
       </c>
-      <c r="N22" t="n">
-        <v>109.1262643324182</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>120.6814996824318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.161451771757197</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>29.60274626172506</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.005684457668506439</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.006074730225018334</v>
+      </c>
+      <c r="E23">
         <v>2.197238004494149</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1.440563575462936</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>9.734717968615827</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.1522846185449684</v>
+      </c>
+      <c r="I23">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="J23">
         <v>2.521651153247936</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>12.69996359947233</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>5.188766213810193</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>31.60374850913059</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.08759783103470106</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>1.384405486021409</v>
       </c>
-      <c r="N23" t="n">
-        <v>97.62853483244082</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>102.0731845855932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.183469814823683</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>30.16393576431701</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E24">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1.691096371195621</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>11.42771239794032</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.2284269278174527</v>
+      </c>
+      <c r="I24">
+        <v>6.437962293076318</v>
+      </c>
+      <c r="J24">
         <v>2.334862178933274</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>11.75922555506697</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>4.646656310874802</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>28.30186433653486</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.04379891551735053</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.6922027430107043</v>
       </c>
-      <c r="N24" t="n">
-        <v>93.02232643368377</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>99.68885339783279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.113746011779807</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>28.38683567277586</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.004346938217093159</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.004645381936778725</v>
+      </c>
+      <c r="E25">
         <v>1.680240826966114</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1.127397580797081</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>7.618474931960215</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.197970004108459</v>
+      </c>
+      <c r="I25">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="J25">
         <v>1.470963172727963</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>7.408312099692194</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>3.407547961308187</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>20.75470051345889</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N25" t="n">
-        <v>73.46323348203543</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>79.24106925052973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.288055519389498</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>32.82958590162874</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.00234065903997324</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.002501359504419314</v>
+      </c>
+      <c r="E26">
         <v>0.9047450606740609</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1.753729570128792</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>11.85096100527145</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.1675130803994654</v>
+      </c>
+      <c r="I26">
+        <v>4.721172348255968</v>
+      </c>
+      <c r="J26">
         <v>2.288164935354608</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>11.52404104396563</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>3.794769320547754</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>23.11318920817015</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.0729981925289175</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>1.153671238351173</v>
       </c>
-      <c r="N26" t="n">
-        <v>90.57625165505074</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>95.46509778417062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.247689107100938</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>31.80073848021016</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E27">
         <v>1.03399435505607</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1.377930376529765</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>9.311469361284709</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.1522846185449684</v>
+      </c>
+      <c r="I27">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="J27">
         <v>1.400917307359964</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>7.055535333040184</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>4.104546407939407</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>24.99998016393912</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N27" t="n">
-        <v>82.82614370371518</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>87.27058684198468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.376127691655446</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>35.07434391199651</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.003678178491386519</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.003930707792658921</v>
+      </c>
+      <c r="E28">
         <v>1.421742238202096</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>2.317428360527332</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>15.66019847125155</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.2588838515264464</v>
+      </c>
+      <c r="I28">
+        <v>7.296357265486498</v>
+      </c>
+      <c r="J28">
         <v>2.078027339250613</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>10.46571074400961</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>3.63988077685193</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>22.16979373028564</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N28" t="n">
-        <v>95.18826698722617</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>102.7437606335404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.974284528295013</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>50.31999206574437</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.004012558354239838</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.004288044864718823</v>
+      </c>
+      <c r="E29">
         <v>1.550991532584105</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>2.567961156260017</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>17.35319290057605</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.3045692370899369</v>
+      </c>
+      <c r="I29">
+        <v>8.58394972410176</v>
+      </c>
+      <c r="J29">
         <v>2.218119069986611</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>11.17126427731363</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>2.478216699133228</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>15.09432764615192</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.0729981925289175</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>1.153671238351173</v>
       </c>
-      <c r="N29" t="n">
-        <v>105.9590318652793</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>114.8478263129815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2.238501045092858</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>57.05426609684766</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.004681318079946479</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.005002719008838628</v>
+      </c>
+      <c r="E30">
         <v>1.809490121348122</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>2.505327957326846</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>16.92994429324492</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.3502546226534275</v>
+      </c>
+      <c r="I30">
+        <v>9.871542182717025</v>
+      </c>
+      <c r="J30">
         <v>1.44761455093863</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>7.290719844141523</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>1.781218252502007</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>10.84904799567169</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.0729981925289175</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>1.153671238351173</v>
       </c>
-      <c r="N30" t="n">
-        <v>103.1374809060743</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>113.3595991123736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2.099053439005107</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>53.50006591376536</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.0033437986285332</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.00357337072059902</v>
+      </c>
+      <c r="E31">
         <v>1.292492943820088</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>2.69322755412636</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>18.19969011523829</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.4873107793438991</v>
+      </c>
+      <c r="I31">
+        <v>13.73431955856281</v>
+      </c>
+      <c r="J31">
         <v>1.120733845887972</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>5.644428266432147</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>2.865438058372793</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>17.45281634086316</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N31" t="n">
-        <v>105.3619580484919</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>119.5838179584906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.335761279366886</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>34.04549649057795</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.002675038902826559</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.002858696576479215</v>
+      </c>
+      <c r="E32">
         <v>1.03399435505607</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>2.567961156260017</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>17.35319290057605</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.4111684700714149</v>
+      </c>
+      <c r="I32">
+        <v>11.58833212753738</v>
+      </c>
+      <c r="J32">
         <v>0.9806421151519754</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>4.938874733128129</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>3.252659417612361</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>19.8113050355744</v>
       </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
-        <v>85.32256252220668</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>97.32224677748913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.8440249842153403</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>21.51226426602452</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.004012558354239838</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.004288044864718823</v>
+      </c>
+      <c r="E33">
         <v>1.550991532584105</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>1.315297177596594</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>8.888220753953584</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.4873107793438991</v>
+      </c>
+      <c r="I33">
+        <v>13.73431955856281</v>
+      </c>
+      <c r="J33">
         <v>0.537018301154653</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>2.704621877665404</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>2.787993786524882</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>16.98111860192092</v>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
-        <v>57.12556383999424</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>71.34746966441142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.7137515627386245</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>18.19189304235553</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.00234065903997324</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.002501359504419314</v>
+      </c>
+      <c r="E34">
         <v>0.9047450606740609</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.6263319893317114</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>4.23248607331123</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.1522846185449684</v>
+      </c>
+      <c r="I34">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="J34">
         <v>0.4669724357866549</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>2.351845111013394</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>2.400772427285314</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>14.62262990720968</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N34" t="n">
-        <v>44.75910215492218</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>49.20352233598248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.5651297720398361</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>14.40386389985991</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E35">
         <v>1.163243649438078</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.6889651882648827</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>4.655734680642355</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.2131984659629559</v>
+      </c>
+      <c r="I35">
+        <v>6.008764806871233</v>
+      </c>
+      <c r="J35">
         <v>0.6070641665226512</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>3.057398644317413</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>2.555660970981142</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>15.56602538509417</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N35" t="n">
-        <v>43.51142966210214</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>49.7335995498192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.2917390706309547</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>7.43576090934326</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.00234065903997324</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.002501359504419314</v>
+      </c>
+      <c r="E36">
         <v>0.9047450606740609</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.3757991935990269</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>2.539491643986739</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.1065992329814779</v>
+      </c>
+      <c r="I36">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="J36">
         <v>0.2801834614719929</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>1.411107066608037</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>1.239108349566614</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>7.547163823075961</v>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
-        <v>22.02743923799662</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>25.13858157487816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.1779791814541043</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4.536281812618217</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.00300941876567988</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.003216033648539117</v>
+      </c>
+      <c r="E37">
         <v>1.163243649438078</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.1252663978663423</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0.8464972146622459</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.07614230927248422</v>
+      </c>
+      <c r="I37">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="J37">
         <v>0.3035320832613256</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>1.528699322158706</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.7744427184791338</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>4.716977389422476</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.0145996385057835</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.2307342476702346</v>
       </c>
-      <c r="N37" t="n">
-        <v>14.42126307430233</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>16.64359942948311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.08623733534374128</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>2.197992218485115</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.0033437986285332</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.00357337072059902</v>
+      </c>
+      <c r="E38">
         <v>1.292492943820088</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.1252663978663423</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.8464972146622459</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.07614230927248422</v>
+      </c>
+      <c r="I38">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="J38">
         <v>0.2101375961039947</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>1.058330299956028</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.8518869903270468</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>5.188675128364722</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>11.86085992355786</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>14.08321923594785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.06605412919946142</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.683568507775832</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.00100313958855996</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.001072011216179706</v>
+      </c>
+      <c r="E39">
         <v>0.3877478831460263</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="J39">
         <v>0.1167431089466637</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.5879612777533486</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.8518869903270468</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>5.188675128364722</v>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>8.883640165101662</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>8.883709036729282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.06421929227725418</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.636802715893172</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.00133751945141328</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.001429348288239608</v>
+      </c>
+      <c r="E40">
         <v>0.516997177528035</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.03045692370899369</v>
+      </c>
+      <c r="I40">
+        <v>0.8583949724101758</v>
+      </c>
+      <c r="J40">
         <v>0.2101375961039947</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>1.058330299956028</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>1.626329708806181</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>9.905652517787201</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>15.01980682780328</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>15.90875055275928</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.141282443009959</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>3.600965974964977</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.0006687597257066399</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.0007146741441198039</v>
+      </c>
+      <c r="E41">
         <v>0.2584985887640175</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.2505327957326846</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>1.692994429324492</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.06091384741798739</v>
+      </c>
+      <c r="I41">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="J41">
         <v>0.4202751922079893</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>2.116660599912056</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>3.097770873916535</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>18.8679095576899</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>30.44755921524832</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>32.22530892190507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.3137571136974416</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>7.996950411935206</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E42">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.5636987903985403</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>3.809237465980107</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.2131984659629559</v>
+      </c>
+      <c r="I42">
+        <v>6.008764806871233</v>
+      </c>
+      <c r="J42">
         <v>0.5837155447333185</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>2.939806388766743</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>3.94965786424358</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>24.05658468605463</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N42" t="n">
-        <v>45.48157808363078</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>51.70367909972021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1.044022208735932</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>26.60973558123468</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.0016718993142666</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.00178668536029951</v>
+      </c>
+      <c r="E43">
         <v>0.6462464719100438</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.7515983871980538</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>5.078983287973477</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.6852807834523582</v>
+      </c>
+      <c r="I43">
+        <v>19.31388687922896</v>
+      </c>
+      <c r="J43">
         <v>1.517660416306628</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>7.643496610793533</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>6.040653204137241</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>36.7924236374953</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>86.12649170509917</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>106.1257741538265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1.888047192951271</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>48.1219998472592</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.002006279177119919</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.002144022432359411</v>
+      </c>
+      <c r="E44">
         <v>0.7754957662920525</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>1.878995967995134</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>12.69745821993369</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.5482246267618865</v>
+      </c>
+      <c r="I44">
+        <v>15.45110950338317</v>
+      </c>
+      <c r="J44">
         <v>1.867889743146619</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>9.407380444053578</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>5.49854330120185</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>33.49053946489957</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44">
         <v>0.08759783103470106</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44">
         <v>1.384405486021409</v>
       </c>
-      <c r="N44" t="n">
-        <v>117.1003595439662</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>133.0998314173665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>2.066026374405375</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>52.65828165987742</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.0033437986285332</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.00357337072059902</v>
+      </c>
+      <c r="E45">
         <v>1.292492943820088</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>1.753729570128792</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>11.85096100527145</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.3654830845079244</v>
+      </c>
+      <c r="I45">
+        <v>10.30073966892211</v>
+      </c>
+      <c r="J45">
         <v>1.494311794517295</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>7.525904355242864</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>4.027102136091495</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>24.52828242499688</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N45" t="n">
-        <v>108.1817716076843</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>118.8482239332064</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1.555941710031757</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>39.65739151649741</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.005015697942799798</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.005360056080898528</v>
+      </c>
+      <c r="E46">
         <v>1.938739415730131</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>1.816362769061963</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>12.27420961260257</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.3350261607989307</v>
+      </c>
+      <c r="I46">
+        <v>9.442344696511936</v>
+      </c>
+      <c r="J46">
         <v>1.797843877778621</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>9.05460367740157</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>5.575987573049765</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>33.96223720384183</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N46" t="n">
-        <v>108.6196685986425</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>118.3973838140915</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.177965304057061</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>30.02363838866903</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.0033437986285332</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.00357337072059902</v>
+      </c>
+      <c r="E47">
         <v>1.292492943820088</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1.753729570128792</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>11.85096100527145</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.2436553896719496</v>
+      </c>
+      <c r="I47">
+        <v>6.867159779281407</v>
+      </c>
+      <c r="J47">
         <v>2.218119069986611</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>11.17126427731363</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>5.49854330120185</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>33.49053946489957</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.0729981925289175</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>1.153671238351173</v>
       </c>
-      <c r="N47" t="n">
-        <v>99.7072665548567</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>106.8183112959021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.144938239457331</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>29.1818541347811</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.00234065903997324</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.002501359504419314</v>
+      </c>
+      <c r="E48">
         <v>0.9047450606740609</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1.377930376529765</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>9.311469361284709</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.2588838515264464</v>
+      </c>
+      <c r="I48">
+        <v>7.296357265486498</v>
+      </c>
+      <c r="J48">
         <v>2.12472458282928</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>10.70089525511094</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>3.94965786424358</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>24.05658468605463</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.05839855402313401</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.9229369906809386</v>
       </c>
-      <c r="N48" t="n">
-        <v>83.73647576470944</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>91.29187758218684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.181634977901476</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>30.11716997243435</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.005350077805653119</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.005717393152958431</v>
+      </c>
+      <c r="E49">
         <v>2.06798871011214</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>1.377930376529765</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>9.311469361284709</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.197970004108459</v>
+      </c>
+      <c r="I49">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="J49">
         <v>1.751146634199955</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>8.81941916630023</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>3.175215145764448</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>19.33960729663216</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.02919927701156701</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.4614684953404693</v>
       </c>
-      <c r="N49" t="n">
-        <v>77.63759949131692</v>
+      <c r="P49">
+        <v>83.41550413143884</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.363283833199995</v>
+        <v>2.620443775192806</v>
       </c>
       <c r="C2">
-        <v>34.74698336881789</v>
+        <v>66.78911174485354</v>
       </c>
       <c r="D2">
-        <v>0.003930707792658921</v>
+        <v>0.007555432343973136</v>
       </c>
       <c r="E2">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="F2">
-        <v>1.127397580797081</v>
+        <v>2.16703367326864</v>
       </c>
       <c r="G2">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="H2">
-        <v>0.1827415422539622</v>
+        <v>0.3512576949911488</v>
       </c>
       <c r="I2">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="J2">
-        <v>2.451605287879938</v>
+        <v>4.712367050356049</v>
       </c>
       <c r="K2">
-        <v>12.34718683282032</v>
+        <v>23.73321540919355</v>
       </c>
       <c r="L2">
-        <v>4.414323495331063</v>
+        <v>8.485017017971678</v>
       </c>
       <c r="M2">
-        <v>26.88677111970811</v>
+        <v>51.68056005644495</v>
       </c>
       <c r="N2">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O2">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P2">
-        <v>98.20547854557643</v>
+        <v>188.7662192402996</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.354109648588958</v>
+        <v>2.602809564054227</v>
       </c>
       <c r="C3">
-        <v>34.51315440940457</v>
+        <v>66.3396560803525</v>
       </c>
       <c r="D3">
-        <v>0.00357337072059902</v>
+        <v>0.006868574858157397</v>
       </c>
       <c r="E3">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="F3">
-        <v>2.380061559460503</v>
+        <v>4.574848865789353</v>
       </c>
       <c r="G3">
-        <v>16.08344707858267</v>
+        <v>30.91488929476071</v>
       </c>
       <c r="H3">
-        <v>0.1827415422539622</v>
+        <v>0.3512576949911488</v>
       </c>
       <c r="I3">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="J3">
-        <v>1.984632852093283</v>
+        <v>3.814773326478706</v>
       </c>
       <c r="K3">
-        <v>9.995341721806925</v>
+        <v>19.21260295029954</v>
       </c>
       <c r="L3">
-        <v>3.794769320547754</v>
+        <v>7.294137436501968</v>
       </c>
       <c r="M3">
-        <v>23.11318920817015</v>
+        <v>44.42714811869829</v>
       </c>
       <c r="N3">
-        <v>0.04379891551735053</v>
+        <v>0.08418833461718271</v>
       </c>
       <c r="O3">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="P3">
-        <v>100.5838851484386</v>
+        <v>193.337887021849</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.434842473166079</v>
+        <v>2.757990622073719</v>
       </c>
       <c r="C4">
-        <v>36.57084925224171</v>
+        <v>70.29486592796158</v>
       </c>
       <c r="D4">
-        <v>0.00714674144119804</v>
+        <v>0.01373714971631479</v>
       </c>
       <c r="E4">
-        <v>2.584985887640175</v>
+        <v>4.968745328937104</v>
       </c>
       <c r="F4">
-        <v>1.878995967995134</v>
+        <v>3.611722788781067</v>
       </c>
       <c r="G4">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="H4">
-        <v>0.2284269278174527</v>
+        <v>0.4390721187389361</v>
       </c>
       <c r="I4">
-        <v>6.437962293076318</v>
+        <v>12.37476584477545</v>
       </c>
       <c r="J4">
-        <v>1.797843877778621</v>
+        <v>3.455735836927768</v>
       </c>
       <c r="K4">
-        <v>9.05460367740157</v>
+        <v>17.40435796674194</v>
       </c>
       <c r="L4">
-        <v>3.484992233156102</v>
+        <v>6.698697645767115</v>
       </c>
       <c r="M4">
-        <v>21.22639825240114</v>
+        <v>40.80044214982495</v>
       </c>
       <c r="N4">
-        <v>0.1021974695404845</v>
+        <v>0.1964394474400929</v>
       </c>
       <c r="O4">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="P4">
-        <v>99.12184300728133</v>
+        <v>190.5276144032174</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.884377519106857</v>
+        <v>3.62206696786408</v>
       </c>
       <c r="C5">
-        <v>48.02846826349389</v>
+        <v>92.31819348851224</v>
       </c>
       <c r="D5">
-        <v>0.002501359504419314</v>
+        <v>0.004808002400710178</v>
       </c>
       <c r="E5">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="F5">
-        <v>3.069026747725387</v>
+        <v>5.89914722167574</v>
       </c>
       <c r="G5">
-        <v>20.73918175922503</v>
+        <v>39.86393619587565</v>
       </c>
       <c r="H5">
-        <v>0.3197976989444338</v>
+        <v>0.6147009662345104</v>
       </c>
       <c r="I5">
-        <v>9.013147210306851</v>
+        <v>17.32467218268562</v>
       </c>
       <c r="J5">
-        <v>1.867889743146619</v>
+        <v>3.59037489550937</v>
       </c>
       <c r="K5">
-        <v>9.407380444053578</v>
+        <v>18.08244983557604</v>
       </c>
       <c r="L5">
-        <v>2.013551068045747</v>
+        <v>3.870358639776555</v>
       </c>
       <c r="M5">
-        <v>12.26414121249844</v>
+        <v>23.57358879767664</v>
       </c>
       <c r="N5">
-        <v>0.04379891551735053</v>
+        <v>0.08418833461718271</v>
       </c>
       <c r="O5">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="P5">
-        <v>110.2502097452534</v>
+        <v>211.9180678336906</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>2.43849826961345</v>
+        <v>4.687173320634239</v>
       </c>
       <c r="C6">
-        <v>62.15173741205781</v>
+        <v>119.4653156243746</v>
       </c>
       <c r="D6">
-        <v>0.00178668536029951</v>
+        <v>0.003434287429078699</v>
       </c>
       <c r="E6">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="F6">
-        <v>2.630594355193187</v>
+        <v>5.056411904293491</v>
       </c>
       <c r="G6">
-        <v>17.77644150790717</v>
+        <v>34.16908816789342</v>
       </c>
       <c r="H6">
-        <v>0.3807115463624212</v>
+        <v>0.7317868645648934</v>
       </c>
       <c r="I6">
-        <v>10.7299371551272</v>
+        <v>20.62460974129241</v>
       </c>
       <c r="J6">
-        <v>1.564357659885293</v>
+        <v>3.006938974989098</v>
       </c>
       <c r="K6">
-        <v>7.878681121894872</v>
+        <v>15.14405173729494</v>
       </c>
       <c r="L6">
-        <v>2.168439611741573</v>
+        <v>4.168078535143982</v>
       </c>
       <c r="M6">
-        <v>13.20753669038294</v>
+        <v>25.3869417821133</v>
       </c>
       <c r="N6">
-        <v>0.04379891551735053</v>
+        <v>0.08418833461718271</v>
       </c>
       <c r="O6">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="P6">
-        <v>122.3109701459643</v>
+        <v>235.1007270470332</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>2.067861211327584</v>
+        <v>3.974751190635654</v>
       </c>
       <c r="C7">
-        <v>52.70504745176011</v>
+        <v>101.3073067785329</v>
       </c>
       <c r="D7">
-        <v>0.00178668536029951</v>
+        <v>0.003434287429078699</v>
       </c>
       <c r="E7">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="F7">
-        <v>1.565829973329278</v>
+        <v>3.009768990650889</v>
       </c>
       <c r="G7">
-        <v>10.58121518327808</v>
+        <v>20.33874295707942</v>
       </c>
       <c r="H7">
-        <v>0.472082317489402</v>
+        <v>0.9074157120604677</v>
       </c>
       <c r="I7">
-        <v>13.30512207235773</v>
+        <v>25.57451607920258</v>
       </c>
       <c r="J7">
-        <v>1.097385224098639</v>
+        <v>2.109345251111755</v>
       </c>
       <c r="K7">
-        <v>5.526836010881476</v>
+        <v>10.62343927840092</v>
       </c>
       <c r="L7">
-        <v>2.013551068045747</v>
+        <v>3.870358639776555</v>
       </c>
       <c r="M7">
-        <v>12.26414121249844</v>
+        <v>23.57358879767664</v>
       </c>
       <c r="N7">
-        <v>0.0729981925289175</v>
+        <v>0.1403138910286378</v>
       </c>
       <c r="O7">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="P7">
-        <v>103.4737743132169</v>
+        <v>198.8927039194169</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.464199863921395</v>
+        <v>2.814420097717171</v>
       </c>
       <c r="C8">
-        <v>37.31910192236428</v>
+        <v>71.73312405436494</v>
       </c>
       <c r="D8">
-        <v>0.004288044864718823</v>
+        <v>0.008242289829788878</v>
       </c>
       <c r="E8">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="F8">
-        <v>1.06476438186391</v>
+        <v>2.046642913642605</v>
       </c>
       <c r="G8">
-        <v>7.195226324629091</v>
+        <v>13.830345210814</v>
       </c>
       <c r="H8">
-        <v>0.2893407752354401</v>
+        <v>0.5561580170693191</v>
       </c>
       <c r="I8">
-        <v>8.154752237896671</v>
+        <v>15.67470340338222</v>
       </c>
       <c r="J8">
-        <v>0.6304127883119839</v>
+        <v>1.211751527234412</v>
       </c>
       <c r="K8">
-        <v>3.174990899868082</v>
+        <v>6.102826819506914</v>
       </c>
       <c r="L8">
-        <v>3.330103689460275</v>
+        <v>6.400977750399687</v>
       </c>
       <c r="M8">
-        <v>20.28300277451665</v>
+        <v>38.98708916538829</v>
       </c>
       <c r="N8">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O8">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P8">
-        <v>84.95184300786863</v>
+        <v>163.2906682965619</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.9100791134148012</v>
+        <v>1.749313744947013</v>
       </c>
       <c r="C9">
-        <v>23.19583277380036</v>
+        <v>44.58600191850251</v>
       </c>
       <c r="D9">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E9">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F9">
-        <v>1.127397580797081</v>
+        <v>2.16703367326864</v>
       </c>
       <c r="G9">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="H9">
-        <v>0.4416253937804084</v>
+        <v>0.8488727628952761</v>
       </c>
       <c r="I9">
-        <v>12.44672709994755</v>
+        <v>23.92454729989919</v>
       </c>
       <c r="J9">
-        <v>0.6537614101013167</v>
+        <v>1.256631213428279</v>
       </c>
       <c r="K9">
-        <v>3.292583155418753</v>
+        <v>6.328857442451612</v>
       </c>
       <c r="L9">
-        <v>3.562436505004014</v>
+        <v>6.847557593450827</v>
       </c>
       <c r="M9">
-        <v>21.69809599134339</v>
+        <v>41.70711864204328</v>
       </c>
       <c r="N9">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O9">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P9">
-        <v>75.96998763046832</v>
+        <v>146.026143888505</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,43 +880,43 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.7394392796495264</v>
+        <v>1.421317417769448</v>
       </c>
       <c r="C10">
-        <v>18.8466141287128</v>
+        <v>36.22612655878328</v>
       </c>
       <c r="D10">
-        <v>0.003930707792658921</v>
+        <v>0.007555432343973136</v>
       </c>
       <c r="E10">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="F10">
-        <v>0.5010655914653692</v>
+        <v>0.9631260770082845</v>
       </c>
       <c r="G10">
-        <v>3.385988858648984</v>
+        <v>6.508397746265412</v>
       </c>
       <c r="H10">
-        <v>0.1218276948359748</v>
+        <v>0.2341717966607659</v>
       </c>
       <c r="I10">
-        <v>3.433579889640703</v>
+        <v>6.599875117213567</v>
       </c>
       <c r="J10">
-        <v>0.3969265704186565</v>
+        <v>0.762954665295741</v>
       </c>
       <c r="K10">
-        <v>1.999068344361385</v>
+        <v>3.842520590059909</v>
       </c>
       <c r="L10">
-        <v>2.168439611741573</v>
+        <v>4.168078535143982</v>
       </c>
       <c r="M10">
-        <v>13.20753669038294</v>
+        <v>25.3869417821133</v>
       </c>
       <c r="P10">
-        <v>46.22615960585266</v>
+        <v>88.85387564957307</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,43 +924,43 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.4862317843849244</v>
+        <v>0.9346131903446744</v>
       </c>
       <c r="C11">
-        <v>12.39293484890543</v>
+        <v>23.82115021855475</v>
       </c>
       <c r="D11">
-        <v>0.001072011216179706</v>
+        <v>0.00206057245744722</v>
       </c>
       <c r="E11">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="F11">
-        <v>0.1878995967995135</v>
+        <v>0.3611722788781067</v>
       </c>
       <c r="G11">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="H11">
-        <v>0.197970004108459</v>
+        <v>0.3805291695737446</v>
       </c>
       <c r="I11">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="J11">
-        <v>0.2801834614719929</v>
+        <v>0.5385562343264056</v>
       </c>
       <c r="K11">
-        <v>1.411107066608037</v>
+        <v>2.712367475336406</v>
       </c>
       <c r="L11">
-        <v>2.323328155437401</v>
+        <v>4.465798430511411</v>
       </c>
       <c r="M11">
-        <v>14.15093216826743</v>
+        <v>27.20029476654997</v>
       </c>
       <c r="P11">
-        <v>38.6687201230049</v>
+        <v>74.32730035619507</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -968,49 +968,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.2752255383310891</v>
+        <v>0.5290263341573632</v>
       </c>
       <c r="C12">
-        <v>7.014868782399303</v>
+        <v>13.483669935031</v>
       </c>
       <c r="D12">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E12">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F12">
-        <v>0.1252663978663423</v>
+        <v>0.2407815192520711</v>
       </c>
       <c r="G12">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="H12">
-        <v>0.1218276948359748</v>
+        <v>0.2341717966607659</v>
       </c>
       <c r="I12">
-        <v>3.433579889640703</v>
+        <v>6.599875117213567</v>
       </c>
       <c r="J12">
-        <v>0.1400917307359965</v>
+        <v>0.2692781171632028</v>
       </c>
       <c r="K12">
-        <v>0.7055535333040184</v>
+        <v>1.356183737668203</v>
       </c>
       <c r="L12">
-        <v>0.6969984466312206</v>
+        <v>1.339739529153422</v>
       </c>
       <c r="M12">
-        <v>4.245279650480229</v>
+        <v>8.160088429964988</v>
       </c>
       <c r="N12">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O12">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P12">
-        <v>19.01698244814976</v>
+        <v>36.55360099315013</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,43 +1018,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.1669701599208607</v>
+        <v>0.3209426427221336</v>
       </c>
       <c r="C13">
-        <v>4.255687061322244</v>
+        <v>8.180093093918806</v>
       </c>
       <c r="D13">
-        <v>0.001429348288239608</v>
+        <v>0.002747429943262959</v>
       </c>
       <c r="E13">
-        <v>0.516997177528035</v>
+        <v>0.9937490657874202</v>
       </c>
       <c r="F13">
-        <v>0.1252663978663423</v>
+        <v>0.2407815192520711</v>
       </c>
       <c r="G13">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="H13">
-        <v>0.07614230927248422</v>
+        <v>0.1463573729129787</v>
       </c>
       <c r="I13">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="J13">
-        <v>0.1400917307359965</v>
+        <v>0.2692781171632028</v>
       </c>
       <c r="K13">
-        <v>0.7055535333040184</v>
+        <v>1.356183737668203</v>
       </c>
       <c r="L13">
-        <v>0.6195541747833069</v>
+        <v>1.190879581469709</v>
       </c>
       <c r="M13">
-        <v>3.773581911537981</v>
+        <v>7.253411937746658</v>
       </c>
       <c r="P13">
-        <v>13.37375845024719</v>
+        <v>25.70644588340928</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1062,43 +1062,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.09724635687698482</v>
+        <v>0.186922638068935</v>
       </c>
       <c r="C14">
-        <v>2.478586969781088</v>
+        <v>4.764230043710953</v>
       </c>
       <c r="D14">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E14">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F14">
-        <v>0.1878995967995135</v>
+        <v>0.3611722788781067</v>
       </c>
       <c r="G14">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="H14">
-        <v>0.06091384741798739</v>
+        <v>0.117085898330383</v>
       </c>
       <c r="I14">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="J14">
-        <v>0.2101375961039947</v>
+        <v>0.4039171757448041</v>
       </c>
       <c r="K14">
-        <v>1.058330299956028</v>
+        <v>2.034275606502304</v>
       </c>
       <c r="L14">
-        <v>1.161664077718701</v>
+        <v>2.232899215255705</v>
       </c>
       <c r="M14">
-        <v>7.075466084133715</v>
+        <v>13.60014738327498</v>
       </c>
       <c r="P14">
-        <v>16.09442038432615</v>
+        <v>30.93598169681852</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1106,43 +1106,43 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.04587092305518152</v>
+        <v>0.08817105569289377</v>
       </c>
       <c r="C15">
-        <v>1.169144797066551</v>
+        <v>2.247278322505166</v>
       </c>
       <c r="D15">
-        <v>0.00178668536029951</v>
+        <v>0.003434287429078699</v>
       </c>
       <c r="E15">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="F15">
-        <v>0.1878995967995135</v>
+        <v>0.3611722788781067</v>
       </c>
       <c r="G15">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="H15">
-        <v>0.01522846185449685</v>
+        <v>0.02927147458259574</v>
       </c>
       <c r="I15">
-        <v>0.4291974862050879</v>
+        <v>0.8249843896516958</v>
       </c>
       <c r="J15">
-        <v>0.2101375961039947</v>
+        <v>0.4039171757448041</v>
       </c>
       <c r="K15">
-        <v>1.058330299956028</v>
+        <v>2.034275606502304</v>
       </c>
       <c r="L15">
-        <v>0.5421099029353933</v>
+        <v>1.042019633785995</v>
       </c>
       <c r="M15">
-        <v>3.301884172595734</v>
+        <v>6.346735445528325</v>
       </c>
       <c r="P15">
-        <v>8.877582215835695</v>
+        <v>17.06409515738477</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1150,37 +1150,37 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.02568771691090165</v>
+        <v>0.04937579118802059</v>
       </c>
       <c r="C16">
-        <v>0.6547210863572686</v>
+        <v>1.258475860602893</v>
       </c>
       <c r="D16">
-        <v>0.001072011216179706</v>
+        <v>0.00206057245744722</v>
       </c>
       <c r="E16">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="F16">
-        <v>0.06263319893317115</v>
+        <v>0.1203907596260356</v>
       </c>
       <c r="G16">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="J16">
-        <v>0.07004586536799823</v>
+        <v>0.1346390585816014</v>
       </c>
       <c r="K16">
-        <v>0.3527767666520092</v>
+        <v>0.6780918688341014</v>
       </c>
       <c r="L16">
-        <v>0.9293312621749601</v>
+        <v>1.786319372204564</v>
       </c>
       <c r="M16">
-        <v>5.660372867306971</v>
+        <v>10.88011790661999</v>
       </c>
       <c r="P16">
-        <v>8.567637265396609</v>
+        <v>16.46833270773839</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1188,37 +1188,37 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.1247689107100938</v>
+        <v>0.2398252714846713</v>
       </c>
       <c r="C17">
-        <v>3.180073848021018</v>
+        <v>6.112597037214051</v>
       </c>
       <c r="F17">
-        <v>0.1252663978663423</v>
+        <v>0.2407815192520711</v>
       </c>
       <c r="G17">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="H17">
-        <v>0.06091384741798739</v>
+        <v>0.117085898330383</v>
       </c>
       <c r="I17">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="J17">
-        <v>0.1867889743146618</v>
+        <v>0.3590374895509369</v>
       </c>
       <c r="K17">
-        <v>0.940738044405358</v>
+        <v>1.808244983557604</v>
       </c>
       <c r="L17">
-        <v>1.936106796197834</v>
+        <v>3.721498692092842</v>
       </c>
       <c r="M17">
-        <v>11.79244347355619</v>
+        <v>22.6669123054583</v>
       </c>
       <c r="P17">
-        <v>20.91038745197208</v>
+        <v>40.193020192114</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1226,43 +1226,43 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.3009132552419907</v>
+        <v>0.5784021253453838</v>
       </c>
       <c r="C18">
-        <v>7.669589868756574</v>
+        <v>14.74214579563389</v>
       </c>
       <c r="D18">
-        <v>0.001429348288239608</v>
+        <v>0.002747429943262959</v>
       </c>
       <c r="E18">
-        <v>0.516997177528035</v>
+        <v>0.9937490657874202</v>
       </c>
       <c r="F18">
-        <v>0.2505327957326846</v>
+        <v>0.4815630385041422</v>
       </c>
       <c r="G18">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="H18">
-        <v>0.1827415422539622</v>
+        <v>0.3512576949911488</v>
       </c>
       <c r="I18">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="J18">
-        <v>0.6070641665226512</v>
+        <v>1.166871841040545</v>
       </c>
       <c r="K18">
-        <v>3.057398644317413</v>
+        <v>5.876796196562212</v>
       </c>
       <c r="L18">
-        <v>4.336879223483146</v>
+        <v>8.336157070287964</v>
       </c>
       <c r="M18">
-        <v>26.41507338076588</v>
+        <v>50.7738835642266</v>
       </c>
       <c r="P18">
-        <v>50.18198366667612</v>
+        <v>96.45758537127563</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,49 +1270,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.9504455257033613</v>
+        <v>1.826904273956759</v>
       </c>
       <c r="C19">
-        <v>24.22468019521892</v>
+        <v>46.56360684230705</v>
       </c>
       <c r="D19">
-        <v>0.001072011216179706</v>
+        <v>0.00206057245744722</v>
       </c>
       <c r="E19">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="F19">
-        <v>0.6263319893317114</v>
+        <v>1.203907596260355</v>
       </c>
       <c r="G19">
-        <v>4.23248607331123</v>
+        <v>8.135497182831765</v>
       </c>
       <c r="H19">
-        <v>0.6395953978888675</v>
+        <v>1.229401932469021</v>
       </c>
       <c r="I19">
-        <v>18.0262944206137</v>
+        <v>34.64934436537123</v>
       </c>
       <c r="J19">
-        <v>1.214128333045302</v>
+        <v>2.33374368208109</v>
       </c>
       <c r="K19">
-        <v>6.114797288634826</v>
+        <v>11.75359239312442</v>
       </c>
       <c r="L19">
-        <v>6.195541747833071</v>
+        <v>11.90879581469709</v>
       </c>
       <c r="M19">
-        <v>37.7358191153798</v>
+        <v>72.53411937746661</v>
       </c>
       <c r="N19">
-        <v>0.04379891551735053</v>
+        <v>0.08418833461718271</v>
       </c>
       <c r="O19">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="P19">
-        <v>101.0849416398511</v>
+        <v>194.3009956071389</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1320,49 +1320,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.919239420628795</v>
+        <v>3.689076970190677</v>
       </c>
       <c r="C20">
-        <v>48.91701830926447</v>
+        <v>94.02612501361612</v>
       </c>
       <c r="D20">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E20">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F20">
-        <v>2.066895564794648</v>
+        <v>3.972895067659174</v>
       </c>
       <c r="G20">
-        <v>13.96720404192706</v>
+        <v>26.84714070334483</v>
       </c>
       <c r="H20">
-        <v>0.5329961649073895</v>
+        <v>1.024501610390851</v>
       </c>
       <c r="I20">
-        <v>15.02191201717808</v>
+        <v>28.87445363780936</v>
       </c>
       <c r="J20">
-        <v>2.007981473882615</v>
+        <v>3.859653012672573</v>
       </c>
       <c r="K20">
-        <v>10.1129339773576</v>
+        <v>19.43863357324424</v>
       </c>
       <c r="L20">
-        <v>4.491767767178974</v>
+        <v>8.633876965655393</v>
       </c>
       <c r="M20">
-        <v>27.35846885865036</v>
+        <v>52.58723654866327</v>
       </c>
       <c r="N20">
-        <v>0.08759783103470106</v>
+        <v>0.1683766692343654</v>
       </c>
       <c r="O20">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="P20">
-        <v>128.6460607015505</v>
+        <v>247.2777573963934</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,49 +1370,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>2.108227623616143</v>
+        <v>4.052341719645401</v>
       </c>
       <c r="C21">
-        <v>53.73389487317867</v>
+        <v>103.2849117023374</v>
       </c>
       <c r="D21">
-        <v>0.003930707792658921</v>
+        <v>0.007555432343973136</v>
       </c>
       <c r="E21">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="F21">
-        <v>1.252663978663423</v>
+        <v>2.407815192520711</v>
       </c>
       <c r="G21">
-        <v>8.464972146622459</v>
+        <v>16.27099436566353</v>
       </c>
       <c r="H21">
-        <v>0.395940008216918</v>
+        <v>0.7610583391474892</v>
       </c>
       <c r="I21">
-        <v>11.15913464133229</v>
+        <v>21.4495941309441</v>
       </c>
       <c r="J21">
-        <v>1.751146634199955</v>
+        <v>3.365976464540035</v>
       </c>
       <c r="K21">
-        <v>8.81941916630023</v>
+        <v>16.95229672085254</v>
       </c>
       <c r="L21">
-        <v>4.181990679787321</v>
+        <v>8.038437174920537</v>
       </c>
       <c r="M21">
-        <v>25.47167790288137</v>
+        <v>48.96053057978995</v>
       </c>
       <c r="N21">
-        <v>0.08759783103470106</v>
+        <v>0.1683766692343654</v>
       </c>
       <c r="O21">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="P21">
-        <v>120.2367439178496</v>
+        <v>231.113741303172</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1420,49 +1420,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.647683556142121</v>
+        <v>3.167104320488748</v>
       </c>
       <c r="C22">
-        <v>41.9956811106305</v>
+        <v>80.72223734438555</v>
       </c>
       <c r="D22">
-        <v>0.002501359504419314</v>
+        <v>0.004808002400710178</v>
       </c>
       <c r="E22">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="F22">
-        <v>1.753729570128792</v>
+        <v>3.370941269528995</v>
       </c>
       <c r="G22">
-        <v>11.85096100527145</v>
+        <v>22.77939211192894</v>
       </c>
       <c r="H22">
-        <v>0.395940008216918</v>
+        <v>0.7610583391474892</v>
       </c>
       <c r="I22">
-        <v>11.15913464133229</v>
+        <v>21.4495941309441</v>
       </c>
       <c r="J22">
-        <v>2.054678717461281</v>
+        <v>3.949412385060307</v>
       </c>
       <c r="K22">
-        <v>10.34811848845894</v>
+        <v>19.89069481913365</v>
       </c>
       <c r="L22">
-        <v>5.266210485658108</v>
+        <v>10.12247644249253</v>
       </c>
       <c r="M22">
-        <v>32.07544624807284</v>
+        <v>61.65400147084659</v>
       </c>
       <c r="N22">
-        <v>0.0729981925289175</v>
+        <v>0.1403138910286378</v>
       </c>
       <c r="O22">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="P22">
-        <v>120.6814996824318</v>
+        <v>231.9686311261114</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.161451771757197</v>
+        <v>2.232491130144072</v>
       </c>
       <c r="C23">
-        <v>29.60274626172506</v>
+        <v>56.90108712583078</v>
       </c>
       <c r="D23">
-        <v>0.006074730225018334</v>
+        <v>0.01167657725886757</v>
       </c>
       <c r="E23">
-        <v>2.197238004494149</v>
+        <v>4.223433529596536</v>
       </c>
       <c r="F23">
-        <v>1.440563575462936</v>
+        <v>2.768987471398817</v>
       </c>
       <c r="G23">
-        <v>9.734717968615827</v>
+        <v>18.71164352051306</v>
       </c>
       <c r="H23">
-        <v>0.1522846185449684</v>
+        <v>0.2927147458259574</v>
       </c>
       <c r="I23">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="J23">
-        <v>2.521651153247936</v>
+        <v>4.847006108937649</v>
       </c>
       <c r="K23">
-        <v>12.69996359947233</v>
+        <v>24.41130727802766</v>
       </c>
       <c r="L23">
-        <v>5.188766213810193</v>
+        <v>9.973616494808816</v>
       </c>
       <c r="M23">
-        <v>31.60374850913059</v>
+        <v>60.74732497862828</v>
       </c>
       <c r="N23">
-        <v>0.08759783103470106</v>
+        <v>0.1683766692343654</v>
       </c>
       <c r="O23">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="P23">
-        <v>102.0731845855932</v>
+        <v>196.2005524070384</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.183469814823683</v>
+        <v>2.27481323687666</v>
       </c>
       <c r="C24">
-        <v>30.16393576431701</v>
+        <v>57.97978072063328</v>
       </c>
       <c r="D24">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E24">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F24">
-        <v>1.691096371195621</v>
+        <v>3.250550509902961</v>
       </c>
       <c r="G24">
-        <v>11.42771239794032</v>
+        <v>21.96584239364577</v>
       </c>
       <c r="H24">
-        <v>0.2284269278174527</v>
+        <v>0.4390721187389361</v>
       </c>
       <c r="I24">
-        <v>6.437962293076318</v>
+        <v>12.37476584477545</v>
       </c>
       <c r="J24">
-        <v>2.334862178933274</v>
+        <v>4.487968619386712</v>
       </c>
       <c r="K24">
-        <v>11.75922555506697</v>
+        <v>22.60306229447005</v>
       </c>
       <c r="L24">
-        <v>4.646656310874802</v>
+        <v>8.931596861022822</v>
       </c>
       <c r="M24">
-        <v>28.30186433653486</v>
+        <v>54.40058953309994</v>
       </c>
       <c r="N24">
-        <v>0.04379891551735053</v>
+        <v>0.08418833461718271</v>
       </c>
       <c r="O24">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="P24">
-        <v>99.68885339783279</v>
+        <v>191.6174966509241</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.113746011779807</v>
+        <v>2.140793232223464</v>
       </c>
       <c r="C25">
-        <v>28.38683567277586</v>
+        <v>54.56391767042543</v>
       </c>
       <c r="D25">
-        <v>0.004645381936778725</v>
+        <v>0.008929147315604614</v>
       </c>
       <c r="E25">
-        <v>1.680240826966114</v>
+        <v>3.229684463809117</v>
       </c>
       <c r="F25">
-        <v>1.127397580797081</v>
+        <v>2.16703367326864</v>
       </c>
       <c r="G25">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="H25">
-        <v>0.197970004108459</v>
+        <v>0.3805291695737446</v>
       </c>
       <c r="I25">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="J25">
-        <v>1.470963172727963</v>
+        <v>2.827420230213629</v>
       </c>
       <c r="K25">
-        <v>7.408312099692194</v>
+        <v>14.23992924551613</v>
       </c>
       <c r="L25">
-        <v>3.407547961308187</v>
+        <v>6.5498376980834</v>
       </c>
       <c r="M25">
-        <v>20.75470051345889</v>
+        <v>39.89376565760662</v>
       </c>
       <c r="N25">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O25">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P25">
-        <v>79.24106925052973</v>
+        <v>152.3136720324553</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.288055519389498</v>
+        <v>2.475843243856459</v>
       </c>
       <c r="C26">
-        <v>32.82958590162874</v>
+        <v>63.10357529594508</v>
       </c>
       <c r="D26">
-        <v>0.002501359504419314</v>
+        <v>0.004808002400710178</v>
       </c>
       <c r="E26">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="F26">
-        <v>1.753729570128792</v>
+        <v>3.370941269528995</v>
       </c>
       <c r="G26">
-        <v>11.85096100527145</v>
+        <v>22.77939211192894</v>
       </c>
       <c r="H26">
-        <v>0.1675130803994654</v>
+        <v>0.3219862204085532</v>
       </c>
       <c r="I26">
-        <v>4.721172348255968</v>
+        <v>9.07482828616866</v>
       </c>
       <c r="J26">
-        <v>2.288164935354608</v>
+        <v>4.398209246998977</v>
       </c>
       <c r="K26">
-        <v>11.52404104396563</v>
+        <v>22.15100104858065</v>
       </c>
       <c r="L26">
-        <v>3.794769320547754</v>
+        <v>7.294137436501968</v>
       </c>
       <c r="M26">
-        <v>23.11318920817015</v>
+        <v>44.42714811869829</v>
       </c>
       <c r="N26">
-        <v>0.0729981925289175</v>
+        <v>0.1403138910286378</v>
       </c>
       <c r="O26">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="P26">
-        <v>95.46509778417062</v>
+        <v>183.498780770771</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.247689107100938</v>
+        <v>2.398252714846712</v>
       </c>
       <c r="C27">
-        <v>31.80073848021016</v>
+        <v>61.12597037214054</v>
       </c>
       <c r="D27">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E27">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F27">
-        <v>1.377930376529765</v>
+        <v>2.648596711772782</v>
       </c>
       <c r="G27">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="H27">
-        <v>0.1522846185449684</v>
+        <v>0.2927147458259574</v>
       </c>
       <c r="I27">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="J27">
-        <v>1.400917307359964</v>
+        <v>2.692781171632027</v>
       </c>
       <c r="K27">
-        <v>7.055535333040184</v>
+        <v>13.56183737668203</v>
       </c>
       <c r="L27">
-        <v>4.104546407939407</v>
+        <v>7.889577227236825</v>
       </c>
       <c r="M27">
-        <v>24.99998016393912</v>
+        <v>48.05385408757162</v>
       </c>
       <c r="N27">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O27">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P27">
-        <v>87.27058684198468</v>
+        <v>167.747654947767</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.376127691655446</v>
+        <v>2.645131670786815</v>
       </c>
       <c r="C28">
-        <v>35.07434391199651</v>
+        <v>67.418349675155</v>
       </c>
       <c r="D28">
-        <v>0.003930707792658921</v>
+        <v>0.007555432343973136</v>
       </c>
       <c r="E28">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="F28">
-        <v>2.317428360527332</v>
+        <v>4.454458106163317</v>
       </c>
       <c r="G28">
-        <v>15.66019847125155</v>
+        <v>30.10133957647753</v>
       </c>
       <c r="H28">
-        <v>0.2588838515264464</v>
+        <v>0.4976150679041276</v>
       </c>
       <c r="I28">
-        <v>7.296357265486498</v>
+        <v>14.02473462407883</v>
       </c>
       <c r="J28">
-        <v>2.078027339250613</v>
+        <v>3.994292071254173</v>
       </c>
       <c r="K28">
-        <v>10.46571074400961</v>
+        <v>20.11672544207834</v>
       </c>
       <c r="L28">
-        <v>3.63988077685193</v>
+        <v>6.996417541134544</v>
       </c>
       <c r="M28">
-        <v>22.16979373028564</v>
+        <v>42.61379513426163</v>
       </c>
       <c r="N28">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O28">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P28">
-        <v>102.7437606335404</v>
+        <v>197.4895039722543</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.974284528295013</v>
+        <v>3.794882237022151</v>
       </c>
       <c r="C29">
-        <v>50.31999206574437</v>
+        <v>96.72285900062236</v>
       </c>
       <c r="D29">
-        <v>0.004288044864718823</v>
+        <v>0.008242289829788878</v>
       </c>
       <c r="E29">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="F29">
-        <v>2.567961156260017</v>
+        <v>4.936021144667457</v>
       </c>
       <c r="G29">
-        <v>17.35319290057605</v>
+        <v>33.35553844961024</v>
       </c>
       <c r="H29">
-        <v>0.3045692370899369</v>
+        <v>0.5854294916519147</v>
       </c>
       <c r="I29">
-        <v>8.58394972410176</v>
+        <v>16.49968779303393</v>
       </c>
       <c r="J29">
-        <v>2.218119069986611</v>
+        <v>4.263570188417375</v>
       </c>
       <c r="K29">
-        <v>11.17126427731363</v>
+        <v>21.47290917974655</v>
       </c>
       <c r="L29">
-        <v>2.478216699133228</v>
+        <v>4.763518325878837</v>
       </c>
       <c r="M29">
-        <v>15.09432764615192</v>
+        <v>29.01364775098663</v>
       </c>
       <c r="N29">
-        <v>0.0729981925289175</v>
+        <v>0.1403138910286378</v>
       </c>
       <c r="O29">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="P29">
-        <v>114.8478263129815</v>
+        <v>220.7554026734553</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>2.238501045092858</v>
+        <v>4.302747517813222</v>
       </c>
       <c r="C30">
-        <v>57.05426609684766</v>
+        <v>109.6671821382521</v>
       </c>
       <c r="D30">
-        <v>0.005002719008838628</v>
+        <v>0.009616004801420356</v>
       </c>
       <c r="E30">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="F30">
-        <v>2.505327957326846</v>
+        <v>4.815630385041421</v>
       </c>
       <c r="G30">
-        <v>16.92994429324492</v>
+        <v>32.54198873132706</v>
       </c>
       <c r="H30">
-        <v>0.3502546226534275</v>
+        <v>0.6732439153997017</v>
       </c>
       <c r="I30">
-        <v>9.871542182717025</v>
+        <v>18.97464096198901</v>
       </c>
       <c r="J30">
-        <v>1.44761455093863</v>
+        <v>2.782540544019761</v>
       </c>
       <c r="K30">
-        <v>7.290719844141523</v>
+        <v>14.01389862257143</v>
       </c>
       <c r="L30">
-        <v>1.781218252502007</v>
+        <v>3.423778796725414</v>
       </c>
       <c r="M30">
-        <v>10.84904799567169</v>
+        <v>20.85355932102164</v>
       </c>
       <c r="N30">
-        <v>0.0729981925289175</v>
+        <v>0.1403138910286378</v>
       </c>
       <c r="O30">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="P30">
-        <v>113.3595991123736</v>
+        <v>217.894798293844</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>2.099053439005107</v>
+        <v>4.034707508506825</v>
       </c>
       <c r="C31">
-        <v>53.50006591376536</v>
+        <v>102.8354560378365</v>
       </c>
       <c r="D31">
-        <v>0.00357337072059902</v>
+        <v>0.006868574858157397</v>
       </c>
       <c r="E31">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="F31">
-        <v>2.69322755412636</v>
+        <v>5.17680266391953</v>
       </c>
       <c r="G31">
-        <v>18.19969011523829</v>
+        <v>34.98263788617659</v>
       </c>
       <c r="H31">
-        <v>0.4873107793438991</v>
+        <v>0.9366871866430636</v>
       </c>
       <c r="I31">
-        <v>13.73431955856281</v>
+        <v>26.39950046885427</v>
       </c>
       <c r="J31">
-        <v>1.120733845887972</v>
+        <v>2.154224937305623</v>
       </c>
       <c r="K31">
-        <v>5.644428266432147</v>
+        <v>10.84946990134562</v>
       </c>
       <c r="L31">
-        <v>2.865438058372793</v>
+        <v>5.507818064297407</v>
       </c>
       <c r="M31">
-        <v>17.45281634086316</v>
+        <v>33.5470302120783</v>
       </c>
       <c r="N31">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O31">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P31">
-        <v>119.5838179584906</v>
+        <v>229.8587159561407</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,43 +1920,43 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.335761279366886</v>
+        <v>2.567541141777069</v>
       </c>
       <c r="C32">
-        <v>34.04549649057795</v>
+        <v>65.44074475135045</v>
       </c>
       <c r="D32">
-        <v>0.002858696576479215</v>
+        <v>0.005494859886525918</v>
       </c>
       <c r="E32">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="F32">
-        <v>2.567961156260017</v>
+        <v>4.936021144667457</v>
       </c>
       <c r="G32">
-        <v>17.35319290057605</v>
+        <v>33.35553844961024</v>
       </c>
       <c r="H32">
-        <v>0.4111684700714149</v>
+        <v>0.7903298137300847</v>
       </c>
       <c r="I32">
-        <v>11.58833212753738</v>
+        <v>22.2745785205958</v>
       </c>
       <c r="J32">
-        <v>0.9806421151519754</v>
+        <v>1.884946820142419</v>
       </c>
       <c r="K32">
-        <v>4.938874733128129</v>
+        <v>9.49328616367742</v>
       </c>
       <c r="L32">
-        <v>3.252659417612361</v>
+        <v>6.252117802715977</v>
       </c>
       <c r="M32">
-        <v>19.8113050355744</v>
+        <v>38.08041267316995</v>
       </c>
       <c r="P32">
-        <v>97.32224677748913</v>
+        <v>187.0685102728982</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1964,43 +1964,43 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.8440249842153403</v>
+        <v>1.622347424749248</v>
       </c>
       <c r="C33">
-        <v>21.51226426602452</v>
+        <v>41.34992113409506</v>
       </c>
       <c r="D33">
-        <v>0.004288044864718823</v>
+        <v>0.008242289829788878</v>
       </c>
       <c r="E33">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="F33">
-        <v>1.315297177596594</v>
+        <v>2.528205952146746</v>
       </c>
       <c r="G33">
-        <v>8.888220753953584</v>
+        <v>17.08454408394671</v>
       </c>
       <c r="H33">
-        <v>0.4873107793438991</v>
+        <v>0.9366871866430636</v>
       </c>
       <c r="I33">
-        <v>13.73431955856281</v>
+        <v>26.39950046885427</v>
       </c>
       <c r="J33">
-        <v>0.537018301154653</v>
+        <v>1.032232782458944</v>
       </c>
       <c r="K33">
-        <v>2.704621877665404</v>
+        <v>5.198704327728112</v>
       </c>
       <c r="L33">
-        <v>2.787993786524882</v>
+        <v>5.35895811661369</v>
       </c>
       <c r="M33">
-        <v>16.98111860192092</v>
+        <v>32.64035371985995</v>
       </c>
       <c r="P33">
-        <v>71.34746966441142</v>
+        <v>137.1409446842878</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.7137515627386245</v>
+        <v>1.371941626581427</v>
       </c>
       <c r="C34">
-        <v>18.19189304235553</v>
+        <v>34.96765069818039</v>
       </c>
       <c r="D34">
-        <v>0.002501359504419314</v>
+        <v>0.004808002400710178</v>
       </c>
       <c r="E34">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="F34">
-        <v>0.6263319893317114</v>
+        <v>1.203907596260355</v>
       </c>
       <c r="G34">
-        <v>4.23248607331123</v>
+        <v>8.135497182831765</v>
       </c>
       <c r="H34">
-        <v>0.1522846185449684</v>
+        <v>0.2927147458259574</v>
       </c>
       <c r="I34">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="J34">
-        <v>0.4669724357866549</v>
+        <v>0.8975937238773425</v>
       </c>
       <c r="K34">
-        <v>2.351845111013394</v>
+        <v>4.520612458894011</v>
       </c>
       <c r="L34">
-        <v>2.400772427285314</v>
+        <v>4.614658378195125</v>
       </c>
       <c r="M34">
-        <v>14.62262990720968</v>
+        <v>28.1069712587683</v>
       </c>
       <c r="N34">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O34">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P34">
-        <v>49.20352233598248</v>
+        <v>94.57683035838549</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,49 +2058,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.5651297720398361</v>
+        <v>1.086267406136453</v>
       </c>
       <c r="C35">
-        <v>14.40386389985991</v>
+        <v>27.68646893326365</v>
       </c>
       <c r="D35">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E35">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F35">
-        <v>0.6889651882648827</v>
+        <v>1.324298355886391</v>
       </c>
       <c r="G35">
-        <v>4.655734680642355</v>
+        <v>8.949046901114942</v>
       </c>
       <c r="H35">
-        <v>0.2131984659629559</v>
+        <v>0.4098006441563404</v>
       </c>
       <c r="I35">
-        <v>6.008764806871233</v>
+        <v>11.54978145512375</v>
       </c>
       <c r="J35">
-        <v>0.6070641665226512</v>
+        <v>1.166871841040545</v>
       </c>
       <c r="K35">
-        <v>3.057398644317413</v>
+        <v>5.876796196562212</v>
       </c>
       <c r="L35">
-        <v>2.555660970981142</v>
+        <v>4.912378273562554</v>
       </c>
       <c r="M35">
-        <v>15.56602538509417</v>
+        <v>29.92032424320497</v>
       </c>
       <c r="N35">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O35">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P35">
-        <v>49.7335995498192</v>
+        <v>95.59572129037097</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2108,43 +2108,43 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.2917390706309547</v>
+        <v>0.5607679142068049</v>
       </c>
       <c r="C36">
-        <v>7.43576090934326</v>
+        <v>14.29269013113286</v>
       </c>
       <c r="D36">
-        <v>0.002501359504419314</v>
+        <v>0.004808002400710178</v>
       </c>
       <c r="E36">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="F36">
-        <v>0.3757991935990269</v>
+        <v>0.7223445577562133</v>
       </c>
       <c r="G36">
-        <v>2.539491643986739</v>
+        <v>4.88129830969906</v>
       </c>
       <c r="H36">
-        <v>0.1065992329814779</v>
+        <v>0.2049003220781702</v>
       </c>
       <c r="I36">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="J36">
-        <v>0.2801834614719929</v>
+        <v>0.5385562343264056</v>
       </c>
       <c r="K36">
-        <v>1.411107066608037</v>
+        <v>2.712367475336406</v>
       </c>
       <c r="L36">
-        <v>1.239108349566614</v>
+        <v>2.381759162939419</v>
       </c>
       <c r="M36">
-        <v>7.547163823075961</v>
+        <v>14.50682387549332</v>
       </c>
       <c r="P36">
-        <v>25.13858157487816</v>
+        <v>48.32026757805922</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2152,49 +2152,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.1779791814541043</v>
+        <v>0.3421036960884279</v>
       </c>
       <c r="C37">
-        <v>4.536281812618217</v>
+        <v>8.719439891320045</v>
       </c>
       <c r="D37">
-        <v>0.003216033648539117</v>
+        <v>0.006181717372341658</v>
       </c>
       <c r="E37">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="F37">
-        <v>0.1252663978663423</v>
+        <v>0.2407815192520711</v>
       </c>
       <c r="G37">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="H37">
-        <v>0.07614230927248422</v>
+        <v>0.1463573729129787</v>
       </c>
       <c r="I37">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="J37">
-        <v>0.3035320832613256</v>
+        <v>0.5834359205202724</v>
       </c>
       <c r="K37">
-        <v>1.528699322158706</v>
+        <v>2.938398098281106</v>
       </c>
       <c r="L37">
-        <v>0.7744427184791338</v>
+        <v>1.488599476837137</v>
       </c>
       <c r="M37">
-        <v>4.716977389422476</v>
+        <v>9.066764922183326</v>
       </c>
       <c r="N37">
-        <v>0.0145996385057835</v>
+        <v>0.02806277820572756</v>
       </c>
       <c r="O37">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="P37">
-        <v>16.64359942948311</v>
+        <v>31.9915893225394</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2202,43 +2202,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.08623733534374128</v>
+        <v>0.1657615847026404</v>
       </c>
       <c r="C38">
-        <v>2.197992218485115</v>
+        <v>4.224883246309711</v>
       </c>
       <c r="D38">
-        <v>0.00357337072059902</v>
+        <v>0.006868574858157397</v>
       </c>
       <c r="E38">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="F38">
-        <v>0.1252663978663423</v>
+        <v>0.2407815192520711</v>
       </c>
       <c r="G38">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="H38">
-        <v>0.07614230927248422</v>
+        <v>0.1463573729129787</v>
       </c>
       <c r="I38">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="J38">
-        <v>0.2101375961039947</v>
+        <v>0.4039171757448041</v>
       </c>
       <c r="K38">
-        <v>1.058330299956028</v>
+        <v>2.034275606502304</v>
       </c>
       <c r="L38">
-        <v>0.8518869903270468</v>
+        <v>1.63745942452085</v>
       </c>
       <c r="M38">
-        <v>5.188675128364722</v>
+        <v>9.973441414401655</v>
       </c>
       <c r="P38">
-        <v>14.08321923594785</v>
+        <v>27.07013996849856</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2246,31 +2246,31 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.06605412919946142</v>
+        <v>0.1269663201977672</v>
       </c>
       <c r="C39">
-        <v>1.683568507775832</v>
+        <v>3.236080784407438</v>
       </c>
       <c r="D39">
-        <v>0.001072011216179706</v>
+        <v>0.00206057245744722</v>
       </c>
       <c r="E39">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="J39">
-        <v>0.1167431089466637</v>
+        <v>0.2243984309693356</v>
       </c>
       <c r="K39">
-        <v>0.5879612777533486</v>
+        <v>1.130153114723503</v>
       </c>
       <c r="L39">
-        <v>0.8518869903270468</v>
+        <v>1.63745942452085</v>
       </c>
       <c r="M39">
-        <v>5.188675128364722</v>
+        <v>9.973441414401655</v>
       </c>
       <c r="P39">
-        <v>8.883709036729282</v>
+        <v>17.07587186101856</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,37 +2278,37 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.06421929227725418</v>
+        <v>0.1234394779700514</v>
       </c>
       <c r="C40">
-        <v>1.636802715893172</v>
+        <v>3.146189651507232</v>
       </c>
       <c r="D40">
-        <v>0.001429348288239608</v>
+        <v>0.002747429943262959</v>
       </c>
       <c r="E40">
-        <v>0.516997177528035</v>
+        <v>0.9937490657874202</v>
       </c>
       <c r="H40">
-        <v>0.03045692370899369</v>
+        <v>0.05854294916519148</v>
       </c>
       <c r="I40">
-        <v>0.8583949724101758</v>
+        <v>1.649968779303392</v>
       </c>
       <c r="J40">
-        <v>0.2101375961039947</v>
+        <v>0.4039171757448041</v>
       </c>
       <c r="K40">
-        <v>1.058330299956028</v>
+        <v>2.034275606502304</v>
       </c>
       <c r="L40">
-        <v>1.626329708806181</v>
+        <v>3.126058901357988</v>
       </c>
       <c r="M40">
-        <v>9.905652517787201</v>
+        <v>19.04020633658498</v>
       </c>
       <c r="P40">
-        <v>15.90875055275928</v>
+        <v>30.57909537386662</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2316,43 +2316,43 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.141282443009959</v>
+        <v>0.2715668515341132</v>
       </c>
       <c r="C41">
-        <v>3.600965974964977</v>
+        <v>6.921617233315914</v>
       </c>
       <c r="D41">
-        <v>0.0007146741441198039</v>
+        <v>0.00137371497163148</v>
       </c>
       <c r="E41">
-        <v>0.2584985887640175</v>
+        <v>0.4968745328937101</v>
       </c>
       <c r="F41">
-        <v>0.2505327957326846</v>
+        <v>0.4815630385041422</v>
       </c>
       <c r="G41">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="H41">
-        <v>0.06091384741798739</v>
+        <v>0.117085898330383</v>
       </c>
       <c r="I41">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="J41">
-        <v>0.4202751922079893</v>
+        <v>0.8078343514896081</v>
       </c>
       <c r="K41">
-        <v>2.116660599912056</v>
+        <v>4.068551213004609</v>
       </c>
       <c r="L41">
-        <v>3.097770873916535</v>
+        <v>5.954397907348547</v>
       </c>
       <c r="M41">
-        <v>18.8679095576899</v>
+        <v>36.2670596887333</v>
       </c>
       <c r="P41">
-        <v>32.22530892190507</v>
+        <v>61.94206086186545</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2360,49 +2360,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.3137571136974416</v>
+        <v>0.603090020939394</v>
       </c>
       <c r="C42">
-        <v>7.996950411935206</v>
+        <v>15.37138372593534</v>
       </c>
       <c r="D42">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E42">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F42">
-        <v>0.5636987903985403</v>
+        <v>1.08351683663432</v>
       </c>
       <c r="G42">
-        <v>3.809237465980107</v>
+        <v>7.32194746454859</v>
       </c>
       <c r="H42">
-        <v>0.2131984659629559</v>
+        <v>0.4098006441563404</v>
       </c>
       <c r="I42">
-        <v>6.008764806871233</v>
+        <v>11.54978145512375</v>
       </c>
       <c r="J42">
-        <v>0.5837155447333185</v>
+        <v>1.121992154846678</v>
       </c>
       <c r="K42">
-        <v>2.939806388766743</v>
+        <v>5.650765573617513</v>
       </c>
       <c r="L42">
-        <v>3.94965786424358</v>
+        <v>7.591857331869397</v>
       </c>
       <c r="M42">
-        <v>24.05658468605463</v>
+        <v>46.24050110313495</v>
       </c>
       <c r="N42">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O42">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P42">
-        <v>51.70367909972021</v>
+        <v>99.38252090425262</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2410,43 +2410,43 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.044022208735932</v>
+        <v>2.006773227570263</v>
       </c>
       <c r="C43">
-        <v>26.60973558123468</v>
+        <v>51.14805462021758</v>
       </c>
       <c r="D43">
-        <v>0.00178668536029951</v>
+        <v>0.003434287429078699</v>
       </c>
       <c r="E43">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="F43">
-        <v>0.7515983871980538</v>
+        <v>1.444689115512427</v>
       </c>
       <c r="G43">
-        <v>5.078983287973477</v>
+        <v>9.762596619398121</v>
       </c>
       <c r="H43">
-        <v>0.6852807834523582</v>
+        <v>1.317216356216808</v>
       </c>
       <c r="I43">
-        <v>19.31388687922896</v>
+        <v>37.12429753432632</v>
       </c>
       <c r="J43">
-        <v>1.517660416306628</v>
+        <v>2.917179602601362</v>
       </c>
       <c r="K43">
-        <v>7.643496610793533</v>
+        <v>14.69199049140553</v>
       </c>
       <c r="L43">
-        <v>6.040653204137241</v>
+        <v>11.61107591932967</v>
       </c>
       <c r="M43">
-        <v>36.7924236374953</v>
+        <v>70.72076639302992</v>
       </c>
       <c r="P43">
-        <v>106.1257741538265</v>
+        <v>203.9902604992714</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,49 +2454,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.888047192951271</v>
+        <v>3.629120652319509</v>
       </c>
       <c r="C44">
-        <v>48.1219998472592</v>
+        <v>92.49797575431268</v>
       </c>
       <c r="D44">
-        <v>0.002144022432359411</v>
+        <v>0.004121144914894439</v>
       </c>
       <c r="E44">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="F44">
-        <v>1.878995967995134</v>
+        <v>3.611722788781067</v>
       </c>
       <c r="G44">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="H44">
-        <v>0.5482246267618865</v>
+        <v>1.053773084973446</v>
       </c>
       <c r="I44">
-        <v>15.45110950338317</v>
+        <v>29.69943802746107</v>
       </c>
       <c r="J44">
-        <v>1.867889743146619</v>
+        <v>3.59037489550937</v>
       </c>
       <c r="K44">
-        <v>9.407380444053578</v>
+        <v>18.08244983557604</v>
       </c>
       <c r="L44">
-        <v>5.49854330120185</v>
+        <v>10.56905628554367</v>
       </c>
       <c r="M44">
-        <v>33.49053946489957</v>
+        <v>64.37403094750158</v>
       </c>
       <c r="N44">
-        <v>0.08759783103470106</v>
+        <v>0.1683766692343654</v>
       </c>
       <c r="O44">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="P44">
-        <v>133.0998314173665</v>
+        <v>255.8385981136207</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2504,49 +2504,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>2.066026374405375</v>
+        <v>3.971224348407938</v>
       </c>
       <c r="C45">
-        <v>52.65828165987742</v>
+        <v>101.2174156456327</v>
       </c>
       <c r="D45">
-        <v>0.00357337072059902</v>
+        <v>0.006868574858157397</v>
       </c>
       <c r="E45">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="F45">
-        <v>1.753729570128792</v>
+        <v>3.370941269528995</v>
       </c>
       <c r="G45">
-        <v>11.85096100527145</v>
+        <v>22.77939211192894</v>
       </c>
       <c r="H45">
-        <v>0.3654830845079244</v>
+        <v>0.7025153899822976</v>
       </c>
       <c r="I45">
-        <v>10.30073966892211</v>
+        <v>19.79962535164071</v>
       </c>
       <c r="J45">
-        <v>1.494311794517295</v>
+        <v>2.872299916407495</v>
       </c>
       <c r="K45">
-        <v>7.525904355242864</v>
+        <v>14.46595986846083</v>
       </c>
       <c r="L45">
-        <v>4.027102136091495</v>
+        <v>7.740717279553111</v>
       </c>
       <c r="M45">
-        <v>24.52828242499688</v>
+        <v>47.14717759535328</v>
       </c>
       <c r="N45">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O45">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P45">
-        <v>118.8482239332064</v>
+        <v>228.4447897159236</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2554,49 +2554,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.555941710031757</v>
+        <v>2.99076220910296</v>
       </c>
       <c r="C46">
-        <v>39.65739151649741</v>
+        <v>76.22768069937526</v>
       </c>
       <c r="D46">
-        <v>0.005360056080898528</v>
+        <v>0.0103028622872361</v>
       </c>
       <c r="E46">
-        <v>1.938739415730131</v>
+        <v>3.726558996702827</v>
       </c>
       <c r="F46">
-        <v>1.816362769061963</v>
+        <v>3.491332029155031</v>
       </c>
       <c r="G46">
-        <v>12.27420961260257</v>
+        <v>23.59294183021213</v>
       </c>
       <c r="H46">
-        <v>0.3350261607989307</v>
+        <v>0.6439724408171064</v>
       </c>
       <c r="I46">
-        <v>9.442344696511936</v>
+        <v>18.14965657233732</v>
       </c>
       <c r="J46">
-        <v>1.797843877778621</v>
+        <v>3.455735836927768</v>
       </c>
       <c r="K46">
-        <v>9.05460367740157</v>
+        <v>17.40435796674194</v>
       </c>
       <c r="L46">
-        <v>5.575987573049765</v>
+        <v>10.71791623322738</v>
       </c>
       <c r="M46">
-        <v>33.96223720384183</v>
+        <v>65.2807074397199</v>
       </c>
       <c r="N46">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O46">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P46">
-        <v>118.3973838140915</v>
+        <v>227.5782048163075</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2604,49 +2604,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.177965304057061</v>
+        <v>2.264232710193513</v>
       </c>
       <c r="C47">
-        <v>30.02363838866903</v>
+        <v>57.71010732193264</v>
       </c>
       <c r="D47">
-        <v>0.00357337072059902</v>
+        <v>0.006868574858157397</v>
       </c>
       <c r="E47">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="F47">
-        <v>1.753729570128792</v>
+        <v>3.370941269528995</v>
       </c>
       <c r="G47">
-        <v>11.85096100527145</v>
+        <v>22.77939211192894</v>
       </c>
       <c r="H47">
-        <v>0.2436553896719496</v>
+        <v>0.4683435933215318</v>
       </c>
       <c r="I47">
-        <v>6.867159779281407</v>
+        <v>13.19975023442713</v>
       </c>
       <c r="J47">
-        <v>2.218119069986611</v>
+        <v>4.263570188417375</v>
       </c>
       <c r="K47">
-        <v>11.17126427731363</v>
+        <v>21.47290917974655</v>
       </c>
       <c r="L47">
-        <v>5.49854330120185</v>
+        <v>10.56905628554367</v>
       </c>
       <c r="M47">
-        <v>33.49053946489957</v>
+        <v>64.37403094750158</v>
       </c>
       <c r="N47">
-        <v>0.0729981925289175</v>
+        <v>0.1403138910286378</v>
       </c>
       <c r="O47">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="P47">
-        <v>106.8183112959021</v>
+        <v>205.3214247064944</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2654,49 +2654,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.144938239457331</v>
+        <v>2.200749550094632</v>
       </c>
       <c r="C48">
-        <v>29.1818541347811</v>
+        <v>56.09206692972894</v>
       </c>
       <c r="D48">
-        <v>0.002501359504419314</v>
+        <v>0.004808002400710178</v>
       </c>
       <c r="E48">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="F48">
-        <v>1.377930376529765</v>
+        <v>2.648596711772782</v>
       </c>
       <c r="G48">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="H48">
-        <v>0.2588838515264464</v>
+        <v>0.4976150679041276</v>
       </c>
       <c r="I48">
-        <v>7.296357265486498</v>
+        <v>14.02473462407883</v>
       </c>
       <c r="J48">
-        <v>2.12472458282928</v>
+        <v>4.08405144364191</v>
       </c>
       <c r="K48">
-        <v>10.70089525511094</v>
+        <v>20.56878668796775</v>
       </c>
       <c r="L48">
-        <v>3.94965786424358</v>
+        <v>7.591857331869397</v>
       </c>
       <c r="M48">
-        <v>24.05658468605463</v>
+        <v>46.24050110313495</v>
       </c>
       <c r="N48">
-        <v>0.05839855402313401</v>
+        <v>0.1122511128229102</v>
       </c>
       <c r="O48">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="P48">
-        <v>91.29187758218684</v>
+        <v>175.4772018196525</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2704,49 +2704,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.181634977901476</v>
+        <v>2.271286394648946</v>
       </c>
       <c r="C49">
-        <v>30.11716997243435</v>
+        <v>57.88988958773307</v>
       </c>
       <c r="D49">
-        <v>0.005717393152958431</v>
+        <v>0.01098971977305184</v>
       </c>
       <c r="E49">
-        <v>2.06798871011214</v>
+        <v>3.974996263149681</v>
       </c>
       <c r="F49">
-        <v>1.377930376529765</v>
+        <v>2.648596711772782</v>
       </c>
       <c r="G49">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="H49">
-        <v>0.197970004108459</v>
+        <v>0.3805291695737446</v>
       </c>
       <c r="I49">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="J49">
-        <v>1.751146634199955</v>
+        <v>3.365976464540035</v>
       </c>
       <c r="K49">
-        <v>8.81941916630023</v>
+        <v>16.95229672085254</v>
       </c>
       <c r="L49">
-        <v>3.175215145764448</v>
+        <v>6.103257855032262</v>
       </c>
       <c r="M49">
-        <v>19.33960729663216</v>
+        <v>37.1737361809516</v>
       </c>
       <c r="N49">
-        <v>0.02919927701156701</v>
+        <v>0.05612555641145512</v>
       </c>
       <c r="O49">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="P49">
-        <v>83.41550413143884</v>
+        <v>160.3375857855799</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.053075535825146</v>
+        <v>0.6138858937523332</v>
       </c>
       <c r="C2">
-        <v>26.84048415914674</v>
+        <v>15.64654580440183</v>
       </c>
       <c r="D2">
-        <v>0.003036295241035934</v>
+        <v>0.001769995365317071</v>
       </c>
       <c r="E2">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="F2">
-        <v>0.8708639995378648</v>
+        <v>0.5076664555445538</v>
       </c>
       <c r="G2">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="H2">
-        <v>0.1411596344356953</v>
+        <v>0.08228840705088596</v>
       </c>
       <c r="I2">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="J2">
-        <v>1.893754982853365</v>
+        <v>1.103956393105218</v>
       </c>
       <c r="K2">
-        <v>9.537647313974981</v>
+        <v>5.55993083729394</v>
       </c>
       <c r="L2">
-        <v>3.409866652082079</v>
+        <v>1.987767226640095</v>
       </c>
       <c r="M2">
-        <v>20.76882320025357</v>
+        <v>12.10709693534162</v>
       </c>
       <c r="N2">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O2">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P2">
-        <v>75.85932175077458</v>
+        <v>44.22186818339729</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.045988890227399</v>
+        <v>0.6097547639155071</v>
       </c>
       <c r="C3">
-        <v>26.65986178930054</v>
+        <v>15.54125276399535</v>
       </c>
       <c r="D3">
-        <v>0.002760268400941758</v>
+        <v>0.001609086695742792</v>
       </c>
       <c r="E3">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="F3">
-        <v>1.838490665691048</v>
+        <v>1.071740295038502</v>
       </c>
       <c r="G3">
-        <v>12.42374055770758</v>
+        <v>7.242366588679145</v>
       </c>
       <c r="H3">
-        <v>0.1411596344356953</v>
+        <v>0.08228840705088596</v>
       </c>
       <c r="I3">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="J3">
-        <v>1.533039748024153</v>
+        <v>0.8936789848946999</v>
       </c>
       <c r="K3">
-        <v>7.720952587503555</v>
+        <v>4.500896392095095</v>
       </c>
       <c r="L3">
-        <v>2.931288876351259</v>
+        <v>1.708782352725696</v>
       </c>
       <c r="M3">
-        <v>17.85390064583202</v>
+        <v>10.40785526020595</v>
       </c>
       <c r="N3">
-        <v>0.03383269521998933</v>
+        <v>0.0197226254305674</v>
       </c>
       <c r="O3">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="P3">
-        <v>77.69653403681782</v>
+        <v>45.29286325247055</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.108351371487569</v>
+        <v>0.6461087064795752</v>
       </c>
       <c r="C4">
-        <v>28.24933864394717</v>
+        <v>16.46783151957231</v>
       </c>
       <c r="D4">
-        <v>0.005520536801883516</v>
+        <v>0.003218173391485584</v>
       </c>
       <c r="E4">
-        <v>1.996785506021453</v>
+        <v>1.164017597308629</v>
       </c>
       <c r="F4">
-        <v>1.451439999229775</v>
+        <v>0.8461107592409225</v>
       </c>
       <c r="G4">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="H4">
-        <v>0.1764495430446192</v>
+        <v>0.1028605088136075</v>
       </c>
       <c r="I4">
-        <v>4.973036741358356</v>
+        <v>2.899010565505026</v>
       </c>
       <c r="J4">
-        <v>1.388753654092468</v>
+        <v>0.8095680216104925</v>
       </c>
       <c r="K4">
-        <v>6.994274696914984</v>
+        <v>4.077282614015557</v>
       </c>
       <c r="L4">
-        <v>2.691999988485851</v>
+        <v>1.569289915768496</v>
       </c>
       <c r="M4">
-        <v>16.39643936862124</v>
+        <v>9.558234422638119</v>
       </c>
       <c r="N4">
-        <v>0.07894295551330842</v>
+        <v>0.04601945933799063</v>
       </c>
       <c r="O4">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="P4">
-        <v>76.56717214334903</v>
+        <v>44.63450655178175</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.455597005777152</v>
+        <v>0.8485340684840461</v>
       </c>
       <c r="C5">
-        <v>37.09983476641145</v>
+        <v>21.62719049948948</v>
       </c>
       <c r="D5">
-        <v>0.001932187880659231</v>
+        <v>0.001126360687019954</v>
       </c>
       <c r="E5">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="F5">
-        <v>2.370685332075299</v>
+        <v>1.381980906760173</v>
       </c>
       <c r="G5">
-        <v>16.02008650862293</v>
+        <v>9.338841127507319</v>
       </c>
       <c r="H5">
-        <v>0.2470293602624668</v>
+        <v>0.1440047123390505</v>
       </c>
       <c r="I5">
-        <v>6.962251437901697</v>
+        <v>4.058614791707037</v>
       </c>
       <c r="J5">
-        <v>1.44286093931685</v>
+        <v>0.8411096328420706</v>
       </c>
       <c r="K5">
-        <v>7.266778905885699</v>
+        <v>4.236137780795384</v>
       </c>
       <c r="L5">
-        <v>1.555377771125158</v>
+        <v>0.9067008402217975</v>
       </c>
       <c r="M5">
-        <v>9.473498301870054</v>
+        <v>5.522535444190913</v>
       </c>
       <c r="N5">
-        <v>0.03383269521998933</v>
+        <v>0.0197226254305674</v>
       </c>
       <c r="O5">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="P5">
-        <v>85.16333567148315</v>
+        <v>49.64560343019794</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.883630399881049</v>
+        <v>1.098054310628332</v>
       </c>
       <c r="C6">
-        <v>48.00942590512253</v>
+        <v>27.98689014004042</v>
       </c>
       <c r="D6">
-        <v>0.001380134200470879</v>
+        <v>0.000804543347871396</v>
       </c>
       <c r="E6">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="F6">
-        <v>2.032015998921684</v>
+        <v>1.184555062937292</v>
       </c>
       <c r="G6">
-        <v>13.7315027216768</v>
+        <v>8.004720966434846</v>
       </c>
       <c r="H6">
-        <v>0.294082571741032</v>
+        <v>0.1714341813560123</v>
       </c>
       <c r="I6">
-        <v>8.288394568930594</v>
+        <v>4.83168427584171</v>
       </c>
       <c r="J6">
-        <v>1.208396036677861</v>
+        <v>0.704429317505234</v>
       </c>
       <c r="K6">
-        <v>6.085927333679273</v>
+        <v>3.547765391416134</v>
       </c>
       <c r="L6">
-        <v>1.675022215057863</v>
+        <v>0.9764470587003975</v>
       </c>
       <c r="M6">
-        <v>10.20222894047544</v>
+        <v>5.947345862974831</v>
       </c>
       <c r="N6">
-        <v>0.03383269521998933</v>
+        <v>0.0197226254305674</v>
       </c>
       <c r="O6">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="P6">
-        <v>94.47973143011619</v>
+        <v>55.07655661662587</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.597329917732085</v>
+        <v>0.9311566652205644</v>
       </c>
       <c r="C7">
-        <v>40.71228216333566</v>
+        <v>23.73305130761891</v>
       </c>
       <c r="D7">
-        <v>0.001380134200470879</v>
+        <v>0.000804543347871396</v>
       </c>
       <c r="E7">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="F7">
-        <v>1.209533332691479</v>
+        <v>0.7050922993674358</v>
       </c>
       <c r="G7">
-        <v>8.173513524807616</v>
+        <v>4.764714860973121</v>
       </c>
       <c r="H7">
-        <v>0.3646623889588796</v>
+        <v>0.2125783848814553</v>
       </c>
       <c r="I7">
-        <v>10.27760926547393</v>
+        <v>5.99128850204372</v>
       </c>
       <c r="J7">
-        <v>0.8476808018486492</v>
+        <v>0.4941519092947163</v>
       </c>
       <c r="K7">
-        <v>4.269232607207848</v>
+        <v>2.488730946217288</v>
       </c>
       <c r="L7">
-        <v>1.555377771125158</v>
+        <v>0.9067008402217975</v>
       </c>
       <c r="M7">
-        <v>9.473498301870054</v>
+        <v>5.522535444190913</v>
       </c>
       <c r="N7">
-        <v>0.05638782536664885</v>
+        <v>0.03287104238427901</v>
       </c>
       <c r="O7">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="P7">
-        <v>79.92884363116757</v>
+        <v>46.59417861289767</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.131028637400359</v>
+        <v>0.659328321957418</v>
       </c>
       <c r="C8">
-        <v>28.82733022745505</v>
+        <v>16.80476924887302</v>
       </c>
       <c r="D8">
-        <v>0.003312322081130111</v>
+        <v>0.00193090403489135</v>
       </c>
       <c r="E8">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="F8">
-        <v>0.8224826662302055</v>
+        <v>0.4794627635698563</v>
       </c>
       <c r="G8">
-        <v>5.557989196869178</v>
+        <v>3.240006105461723</v>
       </c>
       <c r="H8">
-        <v>0.2235027545231842</v>
+        <v>0.1302899778305694</v>
       </c>
       <c r="I8">
-        <v>6.299179872387251</v>
+        <v>3.672080049639699</v>
       </c>
       <c r="J8">
-        <v>0.4869655670194367</v>
+        <v>0.2838745010841988</v>
       </c>
       <c r="K8">
-        <v>2.452537880736423</v>
+        <v>1.429696501018442</v>
       </c>
       <c r="L8">
-        <v>2.572355544553147</v>
+        <v>1.499543697289896</v>
       </c>
       <c r="M8">
-        <v>15.66770873001585</v>
+        <v>9.133424003854202</v>
       </c>
       <c r="N8">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O8">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P8">
-        <v>65.62148352104823</v>
+        <v>38.25376403707618</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.7029952432964638</v>
+        <v>0.4098080798131321</v>
       </c>
       <c r="C9">
-        <v>17.91773908874399</v>
+        <v>10.44506960832208</v>
       </c>
       <c r="D9">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E9">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F9">
-        <v>0.8708639995378648</v>
+        <v>0.5076664555445538</v>
       </c>
       <c r="G9">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="H9">
-        <v>0.341135783219597</v>
+        <v>0.1988636503729744</v>
       </c>
       <c r="I9">
-        <v>9.614537699959488</v>
+        <v>5.604753759976382</v>
       </c>
       <c r="J9">
-        <v>0.5050013287608973</v>
+        <v>0.2943883714947246</v>
       </c>
       <c r="K9">
-        <v>2.543372617059995</v>
+        <v>1.482648223278385</v>
       </c>
       <c r="L9">
-        <v>2.751822210452202</v>
+        <v>1.604163025007795</v>
       </c>
       <c r="M9">
-        <v>16.76080468792394</v>
+        <v>9.770639632030079</v>
       </c>
       <c r="N9">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O9">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P9">
-        <v>58.68340361874499</v>
+        <v>34.20923993898933</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,43 +880,43 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.5711836351783766</v>
+        <v>0.3329690648481701</v>
       </c>
       <c r="C10">
-        <v>14.5581630096045</v>
+        <v>8.48661905676169</v>
       </c>
       <c r="D10">
-        <v>0.003036295241035934</v>
+        <v>0.001769995365317071</v>
       </c>
       <c r="E10">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="F10">
-        <v>0.3870506664612734</v>
+        <v>0.2256295357975794</v>
       </c>
       <c r="G10">
-        <v>2.615524327938437</v>
+        <v>1.524708755511399</v>
       </c>
       <c r="H10">
-        <v>0.09410642295713023</v>
+        <v>0.05485893803392396</v>
       </c>
       <c r="I10">
-        <v>2.65228626205779</v>
+        <v>1.546138968269347</v>
       </c>
       <c r="J10">
-        <v>0.3066079496048305</v>
+        <v>0.17873579697894</v>
       </c>
       <c r="K10">
-        <v>1.544190517500711</v>
+        <v>0.9001792784190192</v>
       </c>
       <c r="L10">
-        <v>1.675022215057863</v>
+        <v>0.9764470587003975</v>
       </c>
       <c r="M10">
-        <v>10.20222894047544</v>
+        <v>5.947345862974831</v>
       </c>
       <c r="P10">
-        <v>35.70763227038918</v>
+        <v>20.81561199018036</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,43 +924,43 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.3755922166805701</v>
+        <v>0.2189498813517741</v>
       </c>
       <c r="C11">
-        <v>9.57298560184911</v>
+        <v>5.580531141543046</v>
       </c>
       <c r="D11">
-        <v>0.0008280805202825277</v>
+        <v>0.0004827260087228376</v>
       </c>
       <c r="E11">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="F11">
-        <v>0.1451439999229775</v>
+        <v>0.08461107592409228</v>
       </c>
       <c r="G11">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="H11">
-        <v>0.1529229373053366</v>
+        <v>0.08914577430512644</v>
       </c>
       <c r="I11">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="J11">
-        <v>0.2164291408975274</v>
+        <v>0.1261664449263106</v>
       </c>
       <c r="K11">
-        <v>1.090016835882855</v>
+        <v>0.6354206671193077</v>
       </c>
       <c r="L11">
-        <v>1.794666658990567</v>
+        <v>1.046193277178997</v>
       </c>
       <c r="M11">
-        <v>10.93095957908083</v>
+        <v>6.372156281758746</v>
       </c>
       <c r="P11">
-        <v>29.86984967585411</v>
+        <v>17.41250151646688</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -968,49 +968,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.2125993679323982</v>
+        <v>0.1239338951047779</v>
       </c>
       <c r="C12">
-        <v>5.418671095386287</v>
+        <v>3.158791212194177</v>
       </c>
       <c r="D12">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E12">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F12">
-        <v>0.09676266661531835</v>
+        <v>0.05640738394939485</v>
       </c>
       <c r="G12">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="H12">
-        <v>0.09410642295713023</v>
+        <v>0.05485893803392396</v>
       </c>
       <c r="I12">
-        <v>2.65228626205779</v>
+        <v>1.546138968269347</v>
       </c>
       <c r="J12">
-        <v>0.1082145704487637</v>
+        <v>0.06308322246315529</v>
       </c>
       <c r="K12">
-        <v>0.5450084179414274</v>
+        <v>0.3177103335596538</v>
       </c>
       <c r="L12">
-        <v>0.53839999769717</v>
+        <v>0.3138579831536992</v>
       </c>
       <c r="M12">
-        <v>3.279287873724248</v>
+        <v>1.911646884527624</v>
       </c>
       <c r="N12">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O12">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P12">
-        <v>14.68976488509772</v>
+        <v>8.563335808987196</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,43 +1018,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.1289769498789884</v>
+        <v>0.07518656303023194</v>
       </c>
       <c r="C13">
-        <v>3.287327131201015</v>
+        <v>1.916333335397802</v>
       </c>
       <c r="D13">
-        <v>0.001104107360376703</v>
+        <v>0.0006436346782971166</v>
       </c>
       <c r="E13">
-        <v>0.3993571012042905</v>
+        <v>0.2328035194617259</v>
       </c>
       <c r="F13">
-        <v>0.09676266661531835</v>
+        <v>0.05640738394939485</v>
       </c>
       <c r="G13">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="H13">
-        <v>0.05881651434820639</v>
+        <v>0.03428683627120249</v>
       </c>
       <c r="I13">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="J13">
-        <v>0.1082145704487637</v>
+        <v>0.06308322246315529</v>
       </c>
       <c r="K13">
-        <v>0.5450084179414274</v>
+        <v>0.3177103335596538</v>
       </c>
       <c r="L13">
-        <v>0.4785777757308178</v>
+        <v>0.2789848739143992</v>
       </c>
       <c r="M13">
-        <v>2.914922554421553</v>
+        <v>1.699241675135666</v>
       </c>
       <c r="P13">
-        <v>10.33062778492149</v>
+        <v>6.02219542190772</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1062,43 +1062,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.07511844333611407</v>
+        <v>0.04378997627035485</v>
       </c>
       <c r="C14">
-        <v>1.914597120369823</v>
+        <v>1.116106228308609</v>
       </c>
       <c r="D14">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E14">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F14">
-        <v>0.1451439999229775</v>
+        <v>0.08461107592409228</v>
       </c>
       <c r="G14">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="H14">
-        <v>0.04705321147856512</v>
+        <v>0.02742946901696198</v>
       </c>
       <c r="I14">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="J14">
-        <v>0.1623218556731456</v>
+        <v>0.09462483369473292</v>
       </c>
       <c r="K14">
-        <v>0.8175126269121409</v>
+        <v>0.4765655003394806</v>
       </c>
       <c r="L14">
-        <v>0.8973333294952837</v>
+        <v>0.5230966385894984</v>
       </c>
       <c r="M14">
-        <v>5.465479789540416</v>
+        <v>3.186078140879373</v>
       </c>
       <c r="P14">
-        <v>12.43221694358127</v>
+        <v>7.247307861684586</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1106,43 +1106,43 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.03543322798873304</v>
+        <v>0.02065564918412966</v>
       </c>
       <c r="C15">
-        <v>0.9031118492310479</v>
+        <v>0.526465202032363</v>
       </c>
       <c r="D15">
-        <v>0.001380134200470879</v>
+        <v>0.000804543347871396</v>
       </c>
       <c r="E15">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="F15">
-        <v>0.1451439999229775</v>
+        <v>0.08461107592409228</v>
       </c>
       <c r="G15">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="H15">
-        <v>0.01176330286964128</v>
+        <v>0.006857367254240495</v>
       </c>
       <c r="I15">
-        <v>0.3315357827572237</v>
+        <v>0.1932673710336684</v>
       </c>
       <c r="J15">
-        <v>0.1623218556731456</v>
+        <v>0.09462483369473292</v>
       </c>
       <c r="K15">
-        <v>0.8175126269121409</v>
+        <v>0.4765655003394806</v>
       </c>
       <c r="L15">
-        <v>0.4187555537644657</v>
+        <v>0.2441117646750994</v>
       </c>
       <c r="M15">
-        <v>2.55055723511886</v>
+        <v>1.486836465743708</v>
       </c>
       <c r="P15">
-        <v>6.857533567920983</v>
+        <v>3.997569955873318</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1150,37 +1150,37 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.0198426076736905</v>
+        <v>0.0115671635431126</v>
       </c>
       <c r="C16">
-        <v>0.505742635569387</v>
+        <v>0.2948205131381231</v>
       </c>
       <c r="D16">
-        <v>0.0008280805202825277</v>
+        <v>0.0004827260087228376</v>
       </c>
       <c r="E16">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="F16">
-        <v>0.04838133330765917</v>
+        <v>0.02820369197469743</v>
       </c>
       <c r="G16">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="J16">
-        <v>0.05410728522438184</v>
+        <v>0.03154161123157764</v>
       </c>
       <c r="K16">
-        <v>0.2725042089707137</v>
+        <v>0.1588551667798269</v>
       </c>
       <c r="L16">
-        <v>0.7178666635962268</v>
+        <v>0.4184773108715988</v>
       </c>
       <c r="M16">
-        <v>4.372383831632331</v>
+        <v>2.548862512703499</v>
       </c>
       <c r="P16">
-        <v>6.618115013390195</v>
+        <v>3.858001930286377</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1188,37 +1188,37 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.09637838012935393</v>
+        <v>0.05618336578083266</v>
       </c>
       <c r="C17">
-        <v>2.45646422990845</v>
+        <v>1.431985349528026</v>
       </c>
       <c r="F17">
-        <v>0.09676266661531835</v>
+        <v>0.05640738394939485</v>
       </c>
       <c r="G17">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="H17">
-        <v>0.04705321147856512</v>
+        <v>0.02742946901696198</v>
       </c>
       <c r="I17">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="J17">
-        <v>0.1442860939316849</v>
+        <v>0.08411096328420703</v>
       </c>
       <c r="K17">
-        <v>0.7266778905885698</v>
+        <v>0.4236137780795383</v>
       </c>
       <c r="L17">
-        <v>1.495555549158806</v>
+        <v>0.8718277309824979</v>
       </c>
       <c r="M17">
-        <v>9.109132982567358</v>
+        <v>5.310130234798956</v>
       </c>
       <c r="P17">
-        <v>16.15233521739161</v>
+        <v>9.415934948432938</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1226,43 +1226,43 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.2324419756060888</v>
+        <v>0.1355010586478905</v>
       </c>
       <c r="C18">
-        <v>5.924413730955678</v>
+        <v>3.453611725332301</v>
       </c>
       <c r="D18">
-        <v>0.001104107360376703</v>
+        <v>0.0006436346782971166</v>
       </c>
       <c r="E18">
-        <v>0.3993571012042905</v>
+        <v>0.2328035194617259</v>
       </c>
       <c r="F18">
-        <v>0.1935253332306367</v>
+        <v>0.1128147678987897</v>
       </c>
       <c r="G18">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="H18">
-        <v>0.1411596344356953</v>
+        <v>0.08228840705088596</v>
       </c>
       <c r="I18">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="J18">
-        <v>0.4689298052779761</v>
+        <v>0.2733606306736728</v>
       </c>
       <c r="K18">
-        <v>2.361703144412852</v>
+        <v>1.3767447787585</v>
       </c>
       <c r="L18">
-        <v>3.350044430115725</v>
+        <v>1.952894117400795</v>
       </c>
       <c r="M18">
-        <v>20.40445788095088</v>
+        <v>11.89469172594966</v>
       </c>
       <c r="P18">
-        <v>38.7633287006061</v>
+        <v>22.59691719601224</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,49 +1270,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.7341764839265482</v>
+        <v>0.4279850510951663</v>
       </c>
       <c r="C19">
-        <v>18.71247751606732</v>
+        <v>10.90835898611056</v>
       </c>
       <c r="D19">
-        <v>0.0008280805202825277</v>
+        <v>0.0004827260087228376</v>
       </c>
       <c r="E19">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="F19">
-        <v>0.4838133330765916</v>
+        <v>0.2820369197469743</v>
       </c>
       <c r="G19">
-        <v>3.269405409923047</v>
+        <v>1.905885944389248</v>
       </c>
       <c r="H19">
-        <v>0.4940587205249337</v>
+        <v>0.2880094246781009</v>
       </c>
       <c r="I19">
-        <v>13.92450287580339</v>
+        <v>8.117229583414074</v>
       </c>
       <c r="J19">
-        <v>0.9378596105559522</v>
+        <v>0.5467212613473457</v>
       </c>
       <c r="K19">
-        <v>4.723406288825704</v>
+        <v>2.753489557517</v>
       </c>
       <c r="L19">
-        <v>4.785777757308177</v>
+        <v>2.789848739143994</v>
       </c>
       <c r="M19">
-        <v>29.14922554421555</v>
+        <v>16.99241675135665</v>
       </c>
       <c r="N19">
-        <v>0.03383269521998933</v>
+        <v>0.0197226254305674</v>
       </c>
       <c r="O19">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="P19">
-        <v>78.08357767389694</v>
+        <v>45.51848869051977</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1320,49 +1320,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.48252625904859</v>
+        <v>0.8642323618639851</v>
       </c>
       <c r="C20">
-        <v>37.78619977182705</v>
+        <v>22.02730405303407</v>
       </c>
       <c r="D20">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E20">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F20">
-        <v>1.596583999152752</v>
+        <v>0.9307218351650153</v>
       </c>
       <c r="G20">
-        <v>10.78903785274605</v>
+        <v>6.289423616484522</v>
       </c>
       <c r="H20">
-        <v>0.4117156004374447</v>
+        <v>0.2400078538984174</v>
       </c>
       <c r="I20">
-        <v>11.60375239650283</v>
+        <v>6.764357986178394</v>
       </c>
       <c r="J20">
-        <v>1.551075509765613</v>
+        <v>0.9041928553052256</v>
       </c>
       <c r="K20">
-        <v>7.811787323827126</v>
+        <v>4.553848114355038</v>
       </c>
       <c r="L20">
-        <v>3.469688874048429</v>
+        <v>2.022640335879394</v>
       </c>
       <c r="M20">
-        <v>21.13318851955627</v>
+        <v>12.31950214473358</v>
       </c>
       <c r="N20">
-        <v>0.06766539043997866</v>
+        <v>0.0394452508611348</v>
       </c>
       <c r="O20">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="P20">
-        <v>99.37330437425162</v>
+        <v>57.92924410033892</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,49 +1370,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.628511158362171</v>
+        <v>0.9493336365025989</v>
       </c>
       <c r="C21">
-        <v>41.50702059065897</v>
+        <v>24.19634068540738</v>
       </c>
       <c r="D21">
-        <v>0.003036295241035934</v>
+        <v>0.001769995365317071</v>
       </c>
       <c r="E21">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="F21">
-        <v>0.9676266661531832</v>
+        <v>0.5640738394939486</v>
       </c>
       <c r="G21">
-        <v>6.538810819846093</v>
+        <v>3.811771888778497</v>
       </c>
       <c r="H21">
-        <v>0.3058458746106731</v>
+        <v>0.1782915486102529</v>
       </c>
       <c r="I21">
-        <v>8.619930351687817</v>
+        <v>5.024951646875379</v>
       </c>
       <c r="J21">
-        <v>1.352682130609546</v>
+        <v>0.7885402807894411</v>
       </c>
       <c r="K21">
-        <v>6.812605224267843</v>
+        <v>3.971379169495671</v>
       </c>
       <c r="L21">
-        <v>3.23039998618302</v>
+        <v>1.883147898922195</v>
       </c>
       <c r="M21">
-        <v>19.67572724234549</v>
+        <v>11.46988130716574</v>
       </c>
       <c r="N21">
-        <v>0.06766539043997866</v>
+        <v>0.0394452508611348</v>
       </c>
       <c r="O21">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="P21">
-        <v>92.87748482277009</v>
+        <v>54.14253378815742</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1420,49 +1420,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.272761549355291</v>
+        <v>0.7419509186939365</v>
       </c>
       <c r="C22">
-        <v>32.43977762437923</v>
+        <v>18.91063005700248</v>
       </c>
       <c r="D22">
-        <v>0.001932187880659231</v>
+        <v>0.001126360687019954</v>
       </c>
       <c r="E22">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="F22">
-        <v>1.354677332614456</v>
+        <v>0.7897033752915282</v>
       </c>
       <c r="G22">
-        <v>9.154335147784533</v>
+        <v>5.336480644289897</v>
       </c>
       <c r="H22">
-        <v>0.3058458746106731</v>
+        <v>0.1782915486102529</v>
       </c>
       <c r="I22">
-        <v>8.619930351687817</v>
+        <v>5.024951646875379</v>
       </c>
       <c r="J22">
-        <v>1.587147033248534</v>
+        <v>0.9252205961262773</v>
       </c>
       <c r="K22">
-        <v>7.99345679647427</v>
+        <v>4.659751558874922</v>
       </c>
       <c r="L22">
-        <v>4.067911093711952</v>
+        <v>2.371371428272393</v>
       </c>
       <c r="M22">
-        <v>24.7768417125832</v>
+        <v>14.44355423865316</v>
       </c>
       <c r="N22">
-        <v>0.05638782536664885</v>
+        <v>0.03287104238427901</v>
       </c>
       <c r="O22">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="P22">
-        <v>93.22103867684849</v>
+        <v>54.34280704262797</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.8971693326747201</v>
+        <v>0.5230010373421625</v>
       </c>
       <c r="C23">
-        <v>22.86679202253013</v>
+        <v>13.33009891545942</v>
       </c>
       <c r="D23">
-        <v>0.004692456281600988</v>
+        <v>0.002735447382762747</v>
       </c>
       <c r="E23">
-        <v>1.697267680118234</v>
+        <v>0.9894149577123353</v>
       </c>
       <c r="F23">
-        <v>1.11277066607616</v>
+        <v>0.6486849154180407</v>
       </c>
       <c r="G23">
-        <v>7.51963244282301</v>
+        <v>4.383537672095271</v>
       </c>
       <c r="H23">
-        <v>0.1176330286964128</v>
+        <v>0.06857367254240498</v>
       </c>
       <c r="I23">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="J23">
-        <v>1.947862268077747</v>
+        <v>1.135498004336795</v>
       </c>
       <c r="K23">
-        <v>9.810151522945693</v>
+        <v>5.718786004073768</v>
       </c>
       <c r="L23">
-        <v>4.008088871745599</v>
+        <v>2.336498319033094</v>
       </c>
       <c r="M23">
-        <v>24.41247639328052</v>
+        <v>14.2311490292612</v>
       </c>
       <c r="N23">
-        <v>0.06766539043997866</v>
+        <v>0.0394452508611348</v>
       </c>
       <c r="O23">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="P23">
-        <v>78.84695096731453</v>
+        <v>45.9634938972252</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.9141772821093123</v>
+        <v>0.5329157489505447</v>
       </c>
       <c r="C24">
-        <v>23.30028571016102</v>
+        <v>13.58280221243497</v>
       </c>
       <c r="D24">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E24">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F24">
-        <v>1.306295999306797</v>
+        <v>0.7614996833168306</v>
       </c>
       <c r="G24">
-        <v>8.827394606792224</v>
+        <v>5.145892049850972</v>
       </c>
       <c r="H24">
-        <v>0.1764495430446192</v>
+        <v>0.1028605088136075</v>
       </c>
       <c r="I24">
-        <v>4.973036741358356</v>
+        <v>2.899010565505026</v>
       </c>
       <c r="J24">
-        <v>1.803576174146062</v>
+        <v>1.051387041052588</v>
       </c>
       <c r="K24">
-        <v>9.083473632357123</v>
+        <v>5.29517222599423</v>
       </c>
       <c r="L24">
-        <v>3.589333317981135</v>
+        <v>2.092386554357994</v>
       </c>
       <c r="M24">
-        <v>21.86191915816167</v>
+        <v>12.74431256351749</v>
       </c>
       <c r="N24">
-        <v>0.03383269521998933</v>
+        <v>0.0197226254305674</v>
       </c>
       <c r="O24">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="P24">
-        <v>77.00516220551154</v>
+        <v>44.88983099111991</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.8603187755664382</v>
+        <v>0.5015191621906678</v>
       </c>
       <c r="C25">
-        <v>21.92755569932984</v>
+        <v>12.78257510534577</v>
       </c>
       <c r="D25">
-        <v>0.003588348921224285</v>
+        <v>0.00209181270446563</v>
       </c>
       <c r="E25">
-        <v>1.297910578913944</v>
+        <v>0.7566114382506091</v>
       </c>
       <c r="F25">
-        <v>0.8708639995378648</v>
+        <v>0.5076664555445538</v>
       </c>
       <c r="G25">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="H25">
-        <v>0.1529229373053366</v>
+        <v>0.08914577430512644</v>
       </c>
       <c r="I25">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="J25">
-        <v>1.136252989712019</v>
+        <v>0.6623738358631306</v>
       </c>
       <c r="K25">
-        <v>5.722588388384987</v>
+        <v>3.335958502376365</v>
       </c>
       <c r="L25">
-        <v>2.632177766519498</v>
+        <v>1.534416806529196</v>
       </c>
       <c r="M25">
-        <v>16.03207404931855</v>
+        <v>9.34582921324616</v>
       </c>
       <c r="N25">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O25">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P25">
-        <v>61.21016726537925</v>
+        <v>35.68220603377147</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.9949650419236236</v>
+        <v>0.5800106290903601</v>
       </c>
       <c r="C26">
-        <v>25.35938072640782</v>
+        <v>14.78314287306875</v>
       </c>
       <c r="D26">
-        <v>0.001932187880659231</v>
+        <v>0.001126360687019954</v>
       </c>
       <c r="E26">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="F26">
-        <v>1.354677332614456</v>
+        <v>0.7897033752915282</v>
       </c>
       <c r="G26">
-        <v>9.154335147784533</v>
+        <v>5.336480644289897</v>
       </c>
       <c r="H26">
-        <v>0.1293963315660541</v>
+        <v>0.07543103979664546</v>
       </c>
       <c r="I26">
-        <v>3.64689361032946</v>
+        <v>2.125941081370352</v>
       </c>
       <c r="J26">
-        <v>1.767504650663141</v>
+        <v>1.030359300231536</v>
       </c>
       <c r="K26">
-        <v>8.901804159709979</v>
+        <v>5.189268781474344</v>
       </c>
       <c r="L26">
-        <v>2.931288876351259</v>
+        <v>1.708782352725696</v>
       </c>
       <c r="M26">
-        <v>17.85390064583202</v>
+        <v>10.40785526020595</v>
       </c>
       <c r="N26">
-        <v>0.05638782536664885</v>
+        <v>0.03287104238427901</v>
       </c>
       <c r="O26">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="P26">
-        <v>73.74250068358087</v>
+        <v>42.98787636748282</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.9637838012935385</v>
+        <v>0.5618336578083265</v>
       </c>
       <c r="C27">
-        <v>24.56464229908451</v>
+        <v>14.31985349528027</v>
       </c>
       <c r="D27">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E27">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F27">
-        <v>1.064389332768502</v>
+        <v>0.6204812234433433</v>
       </c>
       <c r="G27">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="H27">
-        <v>0.1176330286964128</v>
+        <v>0.06857367254240498</v>
       </c>
       <c r="I27">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="J27">
-        <v>1.082145704487637</v>
+        <v>0.6308322246315529</v>
       </c>
       <c r="K27">
-        <v>5.450084179414276</v>
+        <v>3.177103335596539</v>
       </c>
       <c r="L27">
-        <v>3.170577764216669</v>
+        <v>1.848274789682894</v>
       </c>
       <c r="M27">
-        <v>19.3113619230428</v>
+        <v>11.25747609777379</v>
       </c>
       <c r="N27">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O27">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P27">
-        <v>67.41260899770076</v>
+        <v>39.29789299710929</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.06299683966199</v>
+        <v>0.6196694755238893</v>
       </c>
       <c r="C28">
-        <v>27.09335547693144</v>
+        <v>15.79395606097088</v>
       </c>
       <c r="D28">
-        <v>0.003036295241035934</v>
+        <v>0.001769995365317071</v>
       </c>
       <c r="E28">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="F28">
-        <v>1.790109332383389</v>
+        <v>1.043536603063805</v>
       </c>
       <c r="G28">
-        <v>12.09680001671527</v>
+        <v>7.05177799424022</v>
       </c>
       <c r="H28">
-        <v>0.1999761487839017</v>
+        <v>0.1165752433220884</v>
       </c>
       <c r="I28">
-        <v>5.636108306872804</v>
+        <v>3.285545307572363</v>
       </c>
       <c r="J28">
-        <v>1.605182794989995</v>
+        <v>0.9357344665368031</v>
       </c>
       <c r="K28">
-        <v>8.08429153279784</v>
+        <v>4.712703281134864</v>
       </c>
       <c r="L28">
-        <v>2.811644432418556</v>
+        <v>1.639036134247096</v>
       </c>
       <c r="M28">
-        <v>17.12517000722663</v>
+        <v>9.983044841422036</v>
       </c>
       <c r="N28">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O28">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P28">
-        <v>79.36494084866295</v>
+        <v>46.26545389007328</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.52504613263507</v>
+        <v>0.8890191408849397</v>
       </c>
       <c r="C29">
-        <v>38.86993399090428</v>
+        <v>22.65906229547289</v>
       </c>
       <c r="D29">
-        <v>0.003312322081130111</v>
+        <v>0.00193090403489135</v>
       </c>
       <c r="E29">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="F29">
-        <v>1.983634665614025</v>
+        <v>1.156351370962595</v>
       </c>
       <c r="G29">
-        <v>13.40456218068449</v>
+        <v>7.814132371995921</v>
       </c>
       <c r="H29">
-        <v>0.2352660573928256</v>
+        <v>0.13714734508481</v>
       </c>
       <c r="I29">
-        <v>6.630715655144473</v>
+        <v>3.865347420673368</v>
       </c>
       <c r="J29">
-        <v>1.713397365438759</v>
+        <v>0.9988176889999585</v>
       </c>
       <c r="K29">
-        <v>8.629299950739266</v>
+        <v>5.030413614694518</v>
       </c>
       <c r="L29">
-        <v>1.914311102923271</v>
+        <v>1.115939495657597</v>
       </c>
       <c r="M29">
-        <v>11.65969021768621</v>
+        <v>6.796966700542666</v>
       </c>
       <c r="N29">
-        <v>0.05638782536664885</v>
+        <v>0.03287104238427901</v>
       </c>
       <c r="O29">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="P29">
-        <v>88.71478799026704</v>
+        <v>51.71590741758205</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.729141525850172</v>
+        <v>1.007995680185527</v>
       </c>
       <c r="C30">
-        <v>44.07185824247514</v>
+        <v>25.69150185917932</v>
       </c>
       <c r="D30">
-        <v>0.003864375761318462</v>
+        <v>0.002252721374039908</v>
       </c>
       <c r="E30">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="F30">
-        <v>1.935253332306366</v>
+        <v>1.128147678987897</v>
       </c>
       <c r="G30">
-        <v>13.07762163969219</v>
+        <v>7.623543777556994</v>
       </c>
       <c r="H30">
-        <v>0.2705559660017494</v>
+        <v>0.1577194468475314</v>
       </c>
       <c r="I30">
-        <v>7.625323003416145</v>
+        <v>4.445149533774374</v>
       </c>
       <c r="J30">
-        <v>1.118217227970558</v>
+        <v>0.6518599654526046</v>
       </c>
       <c r="K30">
-        <v>5.631753652061417</v>
+        <v>3.283006780116423</v>
       </c>
       <c r="L30">
-        <v>1.375911105226101</v>
+        <v>0.8020815125038976</v>
       </c>
       <c r="M30">
-        <v>8.380402343961968</v>
+        <v>4.88531981601504</v>
       </c>
       <c r="N30">
-        <v>0.05638782536664885</v>
+        <v>0.03287104238427901</v>
       </c>
       <c r="O30">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="P30">
-        <v>87.5651993143485</v>
+        <v>51.0457596003024</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.621424512764424</v>
+        <v>0.9452025066657729</v>
       </c>
       <c r="C31">
-        <v>41.32639822081276</v>
+        <v>24.09104764500093</v>
       </c>
       <c r="D31">
-        <v>0.002760268400941758</v>
+        <v>0.001609086695742792</v>
       </c>
       <c r="E31">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="F31">
-        <v>2.080397332229344</v>
+        <v>1.21275875491199</v>
       </c>
       <c r="G31">
-        <v>14.0584432626691</v>
+        <v>8.195309560873769</v>
       </c>
       <c r="H31">
-        <v>0.3764256918285209</v>
+        <v>0.2194357521356959</v>
       </c>
       <c r="I31">
-        <v>10.60914504823116</v>
+        <v>6.184555873077388</v>
       </c>
       <c r="J31">
-        <v>0.8657165635901095</v>
+        <v>0.5046657797052423</v>
       </c>
       <c r="K31">
-        <v>4.360067343531419</v>
+        <v>2.541682668477231</v>
       </c>
       <c r="L31">
-        <v>2.213422212755033</v>
+        <v>1.290305041854096</v>
       </c>
       <c r="M31">
-        <v>13.48151681419969</v>
+        <v>7.858992747502455</v>
       </c>
       <c r="N31">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O31">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P31">
-        <v>92.37312884218737</v>
+        <v>53.8485216196317</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,43 +1920,43 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.031815599031907</v>
+        <v>0.6014925042418555</v>
       </c>
       <c r="C32">
-        <v>26.29861704960812</v>
+        <v>15.33066668318241</v>
       </c>
       <c r="D32">
-        <v>0.002208214720753407</v>
+        <v>0.001287269356594233</v>
       </c>
       <c r="E32">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="F32">
-        <v>1.983634665614025</v>
+        <v>1.156351370962595</v>
       </c>
       <c r="G32">
-        <v>13.40456218068449</v>
+        <v>7.814132371995921</v>
       </c>
       <c r="H32">
-        <v>0.3176091774803145</v>
+        <v>0.1851489158644934</v>
       </c>
       <c r="I32">
-        <v>8.95146613444504</v>
+        <v>5.218219017909045</v>
       </c>
       <c r="J32">
-        <v>0.7575019931413461</v>
+        <v>0.441582557242087</v>
       </c>
       <c r="K32">
-        <v>3.815058925589992</v>
+        <v>2.223972334917576</v>
       </c>
       <c r="L32">
-        <v>2.512533322586793</v>
+        <v>1.464670588050595</v>
       </c>
       <c r="M32">
-        <v>15.30334341071316</v>
+        <v>8.921018794462247</v>
       </c>
       <c r="P32">
-        <v>75.17706487602453</v>
+        <v>43.82414944710887</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1964,43 +1964,43 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.6519713949926885</v>
+        <v>0.3800639449879857</v>
       </c>
       <c r="C33">
-        <v>16.61725802585128</v>
+        <v>9.686959717395476</v>
       </c>
       <c r="D33">
-        <v>0.003312322081130111</v>
+        <v>0.00193090403489135</v>
       </c>
       <c r="E33">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="F33">
-        <v>1.016007999460842</v>
+        <v>0.592277531468646</v>
       </c>
       <c r="G33">
-        <v>6.865751360838398</v>
+        <v>4.002360483217423</v>
       </c>
       <c r="H33">
-        <v>0.3764256918285209</v>
+        <v>0.2194357521356959</v>
       </c>
       <c r="I33">
-        <v>10.60914504823116</v>
+        <v>6.184555873077388</v>
       </c>
       <c r="J33">
-        <v>0.4148225200535943</v>
+        <v>0.2418190194420952</v>
       </c>
       <c r="K33">
-        <v>2.089198935442139</v>
+        <v>1.217889611978672</v>
       </c>
       <c r="L33">
-        <v>2.15359999078868</v>
+        <v>1.255431932614797</v>
       </c>
       <c r="M33">
-        <v>13.11715149489699</v>
+        <v>7.646587538110498</v>
       </c>
       <c r="P33">
-        <v>55.1127160880783</v>
+        <v>32.12772286684874</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.5513410275046859</v>
+        <v>0.3214019013050573</v>
       </c>
       <c r="C34">
-        <v>14.05242037403511</v>
+        <v>8.191798543623568</v>
       </c>
       <c r="D34">
-        <v>0.001932187880659231</v>
+        <v>0.001126360687019954</v>
       </c>
       <c r="E34">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="F34">
-        <v>0.4838133330765916</v>
+        <v>0.2820369197469743</v>
       </c>
       <c r="G34">
-        <v>3.269405409923047</v>
+        <v>1.905885944389248</v>
       </c>
       <c r="H34">
-        <v>0.1176330286964128</v>
+        <v>0.06857367254240498</v>
       </c>
       <c r="I34">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="J34">
-        <v>0.3607152348292124</v>
+        <v>0.2102774082105177</v>
       </c>
       <c r="K34">
-        <v>1.816694726471425</v>
+        <v>1.059034445198846</v>
       </c>
       <c r="L34">
-        <v>1.85448888095692</v>
+        <v>1.081066386418297</v>
       </c>
       <c r="M34">
-        <v>11.29532489838352</v>
+        <v>6.584561491150704</v>
       </c>
       <c r="N34">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O34">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P34">
-        <v>38.0075112655194</v>
+        <v>22.15631664470588</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,49 +2058,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.436537368821191</v>
+        <v>0.2544775979484772</v>
       </c>
       <c r="C35">
-        <v>11.12633798252651</v>
+        <v>6.486051289038711</v>
       </c>
       <c r="D35">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E35">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F35">
-        <v>0.5321946663842508</v>
+        <v>0.3102406117216717</v>
       </c>
       <c r="G35">
-        <v>3.59634595091535</v>
+        <v>2.096474538828173</v>
       </c>
       <c r="H35">
-        <v>0.1646862401749778</v>
+        <v>0.09600314155936693</v>
       </c>
       <c r="I35">
-        <v>4.641500958601131</v>
+        <v>2.705743194471358</v>
       </c>
       <c r="J35">
-        <v>0.4689298052779761</v>
+        <v>0.2733606306736728</v>
       </c>
       <c r="K35">
-        <v>2.361703144412852</v>
+        <v>1.3767447787585</v>
       </c>
       <c r="L35">
-        <v>1.974133324889623</v>
+        <v>1.150812604896897</v>
       </c>
       <c r="M35">
-        <v>12.02405553698891</v>
+        <v>7.009371909934623</v>
       </c>
       <c r="N35">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O35">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P35">
-        <v>38.41697210734535</v>
+        <v>22.39501009668504</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2108,43 +2108,43 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.2253553300083421</v>
+        <v>0.1313699288110645</v>
       </c>
       <c r="C36">
-        <v>5.743791361109465</v>
+        <v>3.348318684925828</v>
       </c>
       <c r="D36">
-        <v>0.001932187880659231</v>
+        <v>0.001126360687019954</v>
       </c>
       <c r="E36">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="F36">
-        <v>0.290287999845955</v>
+        <v>0.1692221518481846</v>
       </c>
       <c r="G36">
-        <v>1.961643245953828</v>
+        <v>1.143531566633549</v>
       </c>
       <c r="H36">
-        <v>0.08234312008748891</v>
+        <v>0.04800157077968346</v>
       </c>
       <c r="I36">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="J36">
-        <v>0.2164291408975274</v>
+        <v>0.1261664449263106</v>
       </c>
       <c r="K36">
-        <v>1.090016835882855</v>
+        <v>0.6354206671193077</v>
       </c>
       <c r="L36">
-        <v>0.9571555514616356</v>
+        <v>0.5579697478287985</v>
       </c>
       <c r="M36">
-        <v>5.829845108843107</v>
+        <v>3.398483350271333</v>
       </c>
       <c r="P36">
-        <v>19.41842528837894</v>
+        <v>11.31988823012478</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2152,49 +2152,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.1374809245962842</v>
+        <v>0.08014391883442298</v>
       </c>
       <c r="C37">
-        <v>3.504073975016468</v>
+        <v>2.042684983885568</v>
       </c>
       <c r="D37">
-        <v>0.002484241560847582</v>
+        <v>0.001448178026168513</v>
       </c>
       <c r="E37">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="F37">
-        <v>0.09676266661531835</v>
+        <v>0.05640738394939485</v>
       </c>
       <c r="G37">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="H37">
-        <v>0.05881651434820639</v>
+        <v>0.03428683627120249</v>
       </c>
       <c r="I37">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="J37">
-        <v>0.2344649026389881</v>
+        <v>0.1366803153368364</v>
       </c>
       <c r="K37">
-        <v>1.180851572206426</v>
+        <v>0.6883723893792499</v>
       </c>
       <c r="L37">
-        <v>0.5982222196635221</v>
+        <v>0.3487310923929992</v>
       </c>
       <c r="M37">
-        <v>3.643653193026943</v>
+        <v>2.124052093919582</v>
       </c>
       <c r="N37">
-        <v>0.01127756507332977</v>
+        <v>0.006574208476855805</v>
       </c>
       <c r="O37">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="P37">
-        <v>12.85643309223546</v>
+        <v>7.494602856869043</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2202,43 +2202,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.06661446861881809</v>
+        <v>0.03883262046616374</v>
       </c>
       <c r="C38">
-        <v>1.697850276554371</v>
+        <v>0.9897545798208428</v>
       </c>
       <c r="D38">
-        <v>0.002760268400941758</v>
+        <v>0.001609086695742792</v>
       </c>
       <c r="E38">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="F38">
-        <v>0.09676266661531835</v>
+        <v>0.05640738394939485</v>
       </c>
       <c r="G38">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="H38">
-        <v>0.05881651434820639</v>
+        <v>0.03428683627120249</v>
       </c>
       <c r="I38">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="J38">
-        <v>0.1623218556731456</v>
+        <v>0.09462483369473292</v>
       </c>
       <c r="K38">
-        <v>0.8175126269121409</v>
+        <v>0.4765655003394806</v>
       </c>
       <c r="L38">
-        <v>0.6580444416298745</v>
+        <v>0.383604201632299</v>
       </c>
       <c r="M38">
-        <v>4.008018512329637</v>
+        <v>2.33645730331154</v>
       </c>
       <c r="P38">
-        <v>10.87865437986391</v>
+        <v>6.341665188881906</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2246,31 +2246,31 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.05102384830377558</v>
+        <v>0.02974413482514669</v>
       </c>
       <c r="C39">
-        <v>1.300481062892709</v>
+        <v>0.7581098909266024</v>
       </c>
       <c r="D39">
-        <v>0.0008280805202825277</v>
+        <v>0.0004827260087228376</v>
       </c>
       <c r="E39">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="J39">
-        <v>0.0901788087073031</v>
+        <v>0.05256935205262941</v>
       </c>
       <c r="K39">
-        <v>0.4541736816178562</v>
+        <v>0.2647586112997115</v>
       </c>
       <c r="L39">
-        <v>0.6580444416298745</v>
+        <v>0.383604201632299</v>
       </c>
       <c r="M39">
-        <v>4.008018512329637</v>
+        <v>2.33645730331154</v>
       </c>
       <c r="P39">
-        <v>6.862266261904656</v>
+        <v>4.000328859652947</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,37 +2278,37 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.04960651918422625</v>
+        <v>0.0289179088577815</v>
       </c>
       <c r="C40">
-        <v>1.264356588923467</v>
+        <v>0.7370512828453083</v>
       </c>
       <c r="D40">
-        <v>0.001104107360376703</v>
+        <v>0.0006436346782971166</v>
       </c>
       <c r="E40">
-        <v>0.3993571012042905</v>
+        <v>0.2328035194617259</v>
       </c>
       <c r="H40">
-        <v>0.02352660573928256</v>
+        <v>0.01371473450848099</v>
       </c>
       <c r="I40">
-        <v>0.6630715655144475</v>
+        <v>0.3865347420673367</v>
       </c>
       <c r="J40">
-        <v>0.1623218556731456</v>
+        <v>0.09462483369473292</v>
       </c>
       <c r="K40">
-        <v>0.8175126269121409</v>
+        <v>0.4765655003394806</v>
       </c>
       <c r="L40">
-        <v>1.256266661293397</v>
+        <v>0.7323352940252976</v>
       </c>
       <c r="M40">
-        <v>7.651671705356581</v>
+        <v>4.460509397231124</v>
       </c>
       <c r="P40">
-        <v>12.28879533716135</v>
+        <v>7.163700847709565</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2316,43 +2316,43 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.1091343422052978</v>
+        <v>0.06361939948711931</v>
       </c>
       <c r="C41">
-        <v>2.781584495631629</v>
+        <v>1.621512822259678</v>
       </c>
       <c r="D41">
-        <v>0.0005520536801883517</v>
+        <v>0.0003218173391485583</v>
       </c>
       <c r="E41">
-        <v>0.1996785506021452</v>
+        <v>0.116401759730863</v>
       </c>
       <c r="F41">
-        <v>0.1935253332306367</v>
+        <v>0.1128147678987897</v>
       </c>
       <c r="G41">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="H41">
-        <v>0.04705321147856512</v>
+        <v>0.02742946901696198</v>
       </c>
       <c r="I41">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="J41">
-        <v>0.3246437113462912</v>
+        <v>0.1892496673894658</v>
       </c>
       <c r="K41">
-        <v>1.635025253824282</v>
+        <v>0.9531310006789613</v>
       </c>
       <c r="L41">
-        <v>2.392888878654088</v>
+        <v>1.394924369571997</v>
       </c>
       <c r="M41">
-        <v>14.57461277210777</v>
+        <v>8.496208375678327</v>
       </c>
       <c r="P41">
-        <v>24.89260389775901</v>
+        <v>14.51103731094168</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2360,49 +2360,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.242363279442934</v>
+        <v>0.1412846404194468</v>
       </c>
       <c r="C42">
-        <v>6.177285048740369</v>
+        <v>3.601021981901364</v>
       </c>
       <c r="D42">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E42">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F42">
-        <v>0.4354319997689324</v>
+        <v>0.2538332277722769</v>
       </c>
       <c r="G42">
-        <v>2.942464868930741</v>
+        <v>1.715297349950324</v>
       </c>
       <c r="H42">
-        <v>0.1646862401749778</v>
+        <v>0.09600314155936693</v>
       </c>
       <c r="I42">
-        <v>4.641500958601131</v>
+        <v>2.705743194471358</v>
       </c>
       <c r="J42">
-        <v>0.4508940435365155</v>
+        <v>0.262846760263147</v>
       </c>
       <c r="K42">
-        <v>2.270868408089281</v>
+        <v>1.323793056498558</v>
       </c>
       <c r="L42">
-        <v>3.050933320283964</v>
+        <v>1.778528571204295</v>
       </c>
       <c r="M42">
-        <v>18.5826312844374</v>
+        <v>10.83266567898987</v>
       </c>
       <c r="N42">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O42">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P42">
-        <v>39.9387700830174</v>
+        <v>23.28213573831712</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2410,43 +2410,43 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.8064602690235643</v>
+        <v>0.4701225754307907</v>
       </c>
       <c r="C43">
-        <v>20.55482568849866</v>
+        <v>11.98234799825657</v>
       </c>
       <c r="D43">
-        <v>0.001380134200470879</v>
+        <v>0.000804543347871396</v>
       </c>
       <c r="E43">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="F43">
-        <v>0.58057599969191</v>
+        <v>0.3384443036963691</v>
       </c>
       <c r="G43">
-        <v>3.923286491907657</v>
+        <v>2.287063133267099</v>
       </c>
       <c r="H43">
-        <v>0.5293486291338573</v>
+        <v>0.3085815264408223</v>
       </c>
       <c r="I43">
-        <v>14.91911022407507</v>
+        <v>8.697031696515078</v>
       </c>
       <c r="J43">
-        <v>1.17232451319494</v>
+        <v>0.6834015766841821</v>
       </c>
       <c r="K43">
-        <v>5.904257861032131</v>
+        <v>3.44186194689625</v>
       </c>
       <c r="L43">
-        <v>4.666133313375473</v>
+        <v>2.720102520665393</v>
       </c>
       <c r="M43">
-        <v>28.42049490561015</v>
+        <v>16.56760633257274</v>
       </c>
       <c r="P43">
-        <v>81.97739440624925</v>
+        <v>47.78837255310032</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,49 +2454,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.458431664016252</v>
+        <v>0.8501865204187758</v>
       </c>
       <c r="C44">
-        <v>37.17208371434995</v>
+        <v>21.66930771565206</v>
       </c>
       <c r="D44">
-        <v>0.001656161040565055</v>
+        <v>0.0009654520174456751</v>
       </c>
       <c r="E44">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="F44">
-        <v>1.451439999229775</v>
+        <v>0.8461107592409225</v>
       </c>
       <c r="G44">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="H44">
-        <v>0.4234789033070859</v>
+        <v>0.2468652211526578</v>
       </c>
       <c r="I44">
-        <v>11.93528817926005</v>
+        <v>6.957625357212062</v>
       </c>
       <c r="J44">
-        <v>1.44286093931685</v>
+        <v>0.8411096328420706</v>
       </c>
       <c r="K44">
-        <v>7.266778905885699</v>
+        <v>4.236137780795384</v>
       </c>
       <c r="L44">
-        <v>4.247377759611012</v>
+        <v>2.475990755990294</v>
       </c>
       <c r="M44">
-        <v>25.8699376704913</v>
+        <v>15.08076986682904</v>
       </c>
       <c r="N44">
-        <v>0.06766539043997866</v>
+        <v>0.0394452508611348</v>
       </c>
       <c r="O44">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="P44">
-        <v>102.8136422325766</v>
+        <v>59.9347743867423</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2504,49 +2504,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.595912588612537</v>
+        <v>0.9303304392531994</v>
       </c>
       <c r="C45">
-        <v>40.67615768936641</v>
+        <v>23.7119926995376</v>
       </c>
       <c r="D45">
-        <v>0.002760268400941758</v>
+        <v>0.001609086695742792</v>
       </c>
       <c r="E45">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="F45">
-        <v>1.354677332614456</v>
+        <v>0.7897033752915282</v>
       </c>
       <c r="G45">
-        <v>9.154335147784533</v>
+        <v>5.336480644289897</v>
       </c>
       <c r="H45">
-        <v>0.2823192688713906</v>
+        <v>0.1645768141017719</v>
       </c>
       <c r="I45">
-        <v>7.956858786173368</v>
+        <v>4.638416904808042</v>
       </c>
       <c r="J45">
-        <v>1.154288751453479</v>
+        <v>0.6728877062736562</v>
       </c>
       <c r="K45">
-        <v>5.813423124708558</v>
+        <v>3.388910224636307</v>
       </c>
       <c r="L45">
-        <v>3.110755542250316</v>
+        <v>1.813401680443595</v>
       </c>
       <c r="M45">
-        <v>18.94699660374011</v>
+        <v>11.04507088838183</v>
       </c>
       <c r="N45">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O45">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P45">
-        <v>91.80491549331512</v>
+        <v>53.51728407052165</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2554,49 +2554,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.201895093377825</v>
+        <v>0.7006396203256776</v>
       </c>
       <c r="C46">
-        <v>30.63355392591717</v>
+        <v>17.85769965293774</v>
       </c>
       <c r="D46">
-        <v>0.004140402601412637</v>
+        <v>0.002413630043614188</v>
       </c>
       <c r="E46">
-        <v>1.497589129516089</v>
+        <v>0.873013197981472</v>
       </c>
       <c r="F46">
-        <v>1.403058665922115</v>
+        <v>0.8179070672662252</v>
       </c>
       <c r="G46">
-        <v>9.481275688776835</v>
+        <v>5.527069238728821</v>
       </c>
       <c r="H46">
-        <v>0.2587926631321081</v>
+        <v>0.1508620795932909</v>
       </c>
       <c r="I46">
-        <v>7.29378722065892</v>
+        <v>4.251882162740705</v>
       </c>
       <c r="J46">
-        <v>1.388753654092468</v>
+        <v>0.8095680216104925</v>
       </c>
       <c r="K46">
-        <v>6.994274696914984</v>
+        <v>4.077282614015557</v>
       </c>
       <c r="L46">
-        <v>4.30719998157736</v>
+        <v>2.510863865229593</v>
       </c>
       <c r="M46">
-        <v>26.23430298979399</v>
+        <v>15.293175076221</v>
       </c>
       <c r="N46">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O46">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P46">
-        <v>91.45666174860956</v>
+        <v>53.31427103484836</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2604,49 +2604,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.9099252947506641</v>
+        <v>0.5304370710484488</v>
       </c>
       <c r="C47">
-        <v>23.19191228825332</v>
+        <v>13.51962638819108</v>
       </c>
       <c r="D47">
-        <v>0.002760268400941758</v>
+        <v>0.001609086695742792</v>
       </c>
       <c r="E47">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="F47">
-        <v>1.354677332614456</v>
+        <v>0.7897033752915282</v>
       </c>
       <c r="G47">
-        <v>9.154335147784533</v>
+        <v>5.336480644289897</v>
       </c>
       <c r="H47">
-        <v>0.1882128459142605</v>
+        <v>0.1097178760678479</v>
       </c>
       <c r="I47">
-        <v>5.30457252411558</v>
+        <v>3.092277936538694</v>
       </c>
       <c r="J47">
-        <v>1.713397365438759</v>
+        <v>0.9988176889999585</v>
       </c>
       <c r="K47">
-        <v>8.629299950739266</v>
+        <v>5.030413614694518</v>
       </c>
       <c r="L47">
-        <v>4.247377759611012</v>
+        <v>2.475990755990294</v>
       </c>
       <c r="M47">
-        <v>25.8699376704913</v>
+        <v>15.08076986682904</v>
       </c>
       <c r="N47">
-        <v>0.05638782536664885</v>
+        <v>0.03287104238427901</v>
       </c>
       <c r="O47">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="P47">
-        <v>82.51234824653518</v>
+        <v>48.10022161348407</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2654,49 +2654,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.8844133705987766</v>
+        <v>0.515565003635876</v>
       </c>
       <c r="C48">
-        <v>22.54167175680696</v>
+        <v>13.14057144272778</v>
       </c>
       <c r="D48">
-        <v>0.001932187880659231</v>
+        <v>0.001126360687019954</v>
       </c>
       <c r="E48">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="F48">
-        <v>1.064389332768502</v>
+        <v>0.6204812234433433</v>
       </c>
       <c r="G48">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="H48">
-        <v>0.1999761487839017</v>
+        <v>0.1165752433220884</v>
       </c>
       <c r="I48">
-        <v>5.636108306872804</v>
+        <v>3.285545307572363</v>
       </c>
       <c r="J48">
-        <v>1.641254318472916</v>
+        <v>0.9567622073578553</v>
       </c>
       <c r="K48">
-        <v>8.265961005444982</v>
+        <v>4.81860672565475</v>
       </c>
       <c r="L48">
-        <v>3.050933320283964</v>
+        <v>1.778528571204295</v>
       </c>
       <c r="M48">
-        <v>18.5826312844374</v>
+        <v>10.83266567898987</v>
       </c>
       <c r="N48">
-        <v>0.04511026029331908</v>
+        <v>0.02629683390742322</v>
       </c>
       <c r="O48">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="P48">
-        <v>70.51887549761737</v>
+        <v>41.10867780946378</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2704,49 +2704,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.9127599529897631</v>
+        <v>0.5320895229831797</v>
       </c>
       <c r="C49">
-        <v>23.2641612361918</v>
+        <v>13.56174360435366</v>
       </c>
       <c r="D49">
-        <v>0.004416429441506813</v>
+        <v>0.002574538713188467</v>
       </c>
       <c r="E49">
-        <v>1.597428404817162</v>
+        <v>0.9312140778469037</v>
       </c>
       <c r="F49">
-        <v>1.064389332768502</v>
+        <v>0.6204812234433433</v>
       </c>
       <c r="G49">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="H49">
-        <v>0.1529229373053366</v>
+        <v>0.08914577430512644</v>
       </c>
       <c r="I49">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="J49">
-        <v>1.352682130609546</v>
+        <v>0.7885402807894411</v>
       </c>
       <c r="K49">
-        <v>6.812605224267843</v>
+        <v>3.971379169495671</v>
       </c>
       <c r="L49">
-        <v>2.45271110062044</v>
+        <v>1.429797478811296</v>
       </c>
       <c r="M49">
-        <v>14.93897809141046</v>
+        <v>8.708613585070287</v>
       </c>
       <c r="N49">
-        <v>0.02255513014665954</v>
+        <v>0.01314841695371161</v>
       </c>
       <c r="O49">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="P49">
-        <v>64.43473073626112</v>
+        <v>37.56195156098322</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.6138858937523332</v>
+        <v>1.053075535825146</v>
       </c>
       <c r="C2">
-        <v>15.64654580440183</v>
+        <v>26.84048415914674</v>
       </c>
       <c r="D2">
-        <v>0.001769995365317071</v>
+        <v>0.003036295241035934</v>
       </c>
       <c r="E2">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="F2">
-        <v>0.5076664555445538</v>
+        <v>0.8708639995378648</v>
       </c>
       <c r="G2">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="H2">
-        <v>0.08228840705088596</v>
+        <v>0.1411596344356953</v>
       </c>
       <c r="I2">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="J2">
-        <v>1.103956393105218</v>
+        <v>1.893754982853365</v>
       </c>
       <c r="K2">
-        <v>5.55993083729394</v>
+        <v>9.537647313974981</v>
       </c>
       <c r="L2">
-        <v>1.987767226640095</v>
+        <v>3.409866652082079</v>
       </c>
       <c r="M2">
-        <v>12.10709693534162</v>
+        <v>20.76882320025357</v>
       </c>
       <c r="N2">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O2">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P2">
-        <v>44.22186818339729</v>
+        <v>75.85932175077458</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.6097547639155071</v>
+        <v>1.045988890227399</v>
       </c>
       <c r="C3">
-        <v>15.54125276399535</v>
+        <v>26.65986178930054</v>
       </c>
       <c r="D3">
-        <v>0.001609086695742792</v>
+        <v>0.002760268400941758</v>
       </c>
       <c r="E3">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="F3">
-        <v>1.071740295038502</v>
+        <v>1.838490665691048</v>
       </c>
       <c r="G3">
-        <v>7.242366588679145</v>
+        <v>12.42374055770758</v>
       </c>
       <c r="H3">
-        <v>0.08228840705088596</v>
+        <v>0.1411596344356953</v>
       </c>
       <c r="I3">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="J3">
-        <v>0.8936789848946999</v>
+        <v>1.533039748024153</v>
       </c>
       <c r="K3">
-        <v>4.500896392095095</v>
+        <v>7.720952587503555</v>
       </c>
       <c r="L3">
-        <v>1.708782352725696</v>
+        <v>2.931288876351259</v>
       </c>
       <c r="M3">
-        <v>10.40785526020595</v>
+        <v>17.85390064583202</v>
       </c>
       <c r="N3">
-        <v>0.0197226254305674</v>
+        <v>0.03383269521998933</v>
       </c>
       <c r="O3">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="P3">
-        <v>45.29286325247055</v>
+        <v>77.69653403681782</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>0.6461087064795752</v>
+        <v>1.108351371487569</v>
       </c>
       <c r="C4">
-        <v>16.46783151957231</v>
+        <v>28.24933864394717</v>
       </c>
       <c r="D4">
-        <v>0.003218173391485584</v>
+        <v>0.005520536801883516</v>
       </c>
       <c r="E4">
-        <v>1.164017597308629</v>
+        <v>1.996785506021453</v>
       </c>
       <c r="F4">
-        <v>0.8461107592409225</v>
+        <v>1.451439999229775</v>
       </c>
       <c r="G4">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="H4">
-        <v>0.1028605088136075</v>
+        <v>0.1764495430446192</v>
       </c>
       <c r="I4">
-        <v>2.899010565505026</v>
+        <v>4.973036741358356</v>
       </c>
       <c r="J4">
-        <v>0.8095680216104925</v>
+        <v>1.388753654092468</v>
       </c>
       <c r="K4">
-        <v>4.077282614015557</v>
+        <v>6.994274696914984</v>
       </c>
       <c r="L4">
-        <v>1.569289915768496</v>
+        <v>2.691999988485851</v>
       </c>
       <c r="M4">
-        <v>9.558234422638119</v>
+        <v>16.39643936862124</v>
       </c>
       <c r="N4">
-        <v>0.04601945933799063</v>
+        <v>0.07894295551330842</v>
       </c>
       <c r="O4">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="P4">
-        <v>44.63450655178175</v>
+        <v>76.56717214334903</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>0.8485340684840461</v>
+        <v>1.455597005777152</v>
       </c>
       <c r="C5">
-        <v>21.62719049948948</v>
+        <v>37.09983476641145</v>
       </c>
       <c r="D5">
-        <v>0.001126360687019954</v>
+        <v>0.001932187880659231</v>
       </c>
       <c r="E5">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="F5">
-        <v>1.381980906760173</v>
+        <v>2.370685332075299</v>
       </c>
       <c r="G5">
-        <v>9.338841127507319</v>
+        <v>16.02008650862293</v>
       </c>
       <c r="H5">
-        <v>0.1440047123390505</v>
+        <v>0.2470293602624668</v>
       </c>
       <c r="I5">
-        <v>4.058614791707037</v>
+        <v>6.962251437901697</v>
       </c>
       <c r="J5">
-        <v>0.8411096328420706</v>
+        <v>1.44286093931685</v>
       </c>
       <c r="K5">
-        <v>4.236137780795384</v>
+        <v>7.266778905885699</v>
       </c>
       <c r="L5">
-        <v>0.9067008402217975</v>
+        <v>1.555377771125158</v>
       </c>
       <c r="M5">
-        <v>5.522535444190913</v>
+        <v>9.473498301870054</v>
       </c>
       <c r="N5">
-        <v>0.0197226254305674</v>
+        <v>0.03383269521998933</v>
       </c>
       <c r="O5">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="P5">
-        <v>49.64560343019794</v>
+        <v>85.16333567148315</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.098054310628332</v>
+        <v>1.883630399881049</v>
       </c>
       <c r="C6">
-        <v>27.98689014004042</v>
+        <v>48.00942590512253</v>
       </c>
       <c r="D6">
-        <v>0.000804543347871396</v>
+        <v>0.001380134200470879</v>
       </c>
       <c r="E6">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="F6">
-        <v>1.184555062937292</v>
+        <v>2.032015998921684</v>
       </c>
       <c r="G6">
-        <v>8.004720966434846</v>
+        <v>13.7315027216768</v>
       </c>
       <c r="H6">
-        <v>0.1714341813560123</v>
+        <v>0.294082571741032</v>
       </c>
       <c r="I6">
-        <v>4.83168427584171</v>
+        <v>8.288394568930594</v>
       </c>
       <c r="J6">
-        <v>0.704429317505234</v>
+        <v>1.208396036677861</v>
       </c>
       <c r="K6">
-        <v>3.547765391416134</v>
+        <v>6.085927333679273</v>
       </c>
       <c r="L6">
-        <v>0.9764470587003975</v>
+        <v>1.675022215057863</v>
       </c>
       <c r="M6">
-        <v>5.947345862974831</v>
+        <v>10.20222894047544</v>
       </c>
       <c r="N6">
-        <v>0.0197226254305674</v>
+        <v>0.03383269521998933</v>
       </c>
       <c r="O6">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="P6">
-        <v>55.07655661662587</v>
+        <v>94.47973143011619</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>0.9311566652205644</v>
+        <v>1.597329917732085</v>
       </c>
       <c r="C7">
-        <v>23.73305130761891</v>
+        <v>40.71228216333566</v>
       </c>
       <c r="D7">
-        <v>0.000804543347871396</v>
+        <v>0.001380134200470879</v>
       </c>
       <c r="E7">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="F7">
-        <v>0.7050922993674358</v>
+        <v>1.209533332691479</v>
       </c>
       <c r="G7">
-        <v>4.764714860973121</v>
+        <v>8.173513524807616</v>
       </c>
       <c r="H7">
-        <v>0.2125783848814553</v>
+        <v>0.3646623889588796</v>
       </c>
       <c r="I7">
-        <v>5.99128850204372</v>
+        <v>10.27760926547393</v>
       </c>
       <c r="J7">
-        <v>0.4941519092947163</v>
+        <v>0.8476808018486492</v>
       </c>
       <c r="K7">
-        <v>2.488730946217288</v>
+        <v>4.269232607207848</v>
       </c>
       <c r="L7">
-        <v>0.9067008402217975</v>
+        <v>1.555377771125158</v>
       </c>
       <c r="M7">
-        <v>5.522535444190913</v>
+        <v>9.473498301870054</v>
       </c>
       <c r="N7">
-        <v>0.03287104238427901</v>
+        <v>0.05638782536664885</v>
       </c>
       <c r="O7">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="P7">
-        <v>46.59417861289767</v>
+        <v>79.92884363116757</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.659328321957418</v>
+        <v>1.131028637400359</v>
       </c>
       <c r="C8">
-        <v>16.80476924887302</v>
+        <v>28.82733022745505</v>
       </c>
       <c r="D8">
-        <v>0.00193090403489135</v>
+        <v>0.003312322081130111</v>
       </c>
       <c r="E8">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="F8">
-        <v>0.4794627635698563</v>
+        <v>0.8224826662302055</v>
       </c>
       <c r="G8">
-        <v>3.240006105461723</v>
+        <v>5.557989196869178</v>
       </c>
       <c r="H8">
-        <v>0.1302899778305694</v>
+        <v>0.2235027545231842</v>
       </c>
       <c r="I8">
-        <v>3.672080049639699</v>
+        <v>6.299179872387251</v>
       </c>
       <c r="J8">
-        <v>0.2838745010841988</v>
+        <v>0.4869655670194367</v>
       </c>
       <c r="K8">
-        <v>1.429696501018442</v>
+        <v>2.452537880736423</v>
       </c>
       <c r="L8">
-        <v>1.499543697289896</v>
+        <v>2.572355544553147</v>
       </c>
       <c r="M8">
-        <v>9.133424003854202</v>
+        <v>15.66770873001585</v>
       </c>
       <c r="N8">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O8">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P8">
-        <v>38.25376403707618</v>
+        <v>65.62148352104823</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.4098080798131321</v>
+        <v>0.7029952432964638</v>
       </c>
       <c r="C9">
-        <v>10.44506960832208</v>
+        <v>17.91773908874399</v>
       </c>
       <c r="D9">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E9">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F9">
-        <v>0.5076664555445538</v>
+        <v>0.8708639995378648</v>
       </c>
       <c r="G9">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="H9">
-        <v>0.1988636503729744</v>
+        <v>0.341135783219597</v>
       </c>
       <c r="I9">
-        <v>5.604753759976382</v>
+        <v>9.614537699959488</v>
       </c>
       <c r="J9">
-        <v>0.2943883714947246</v>
+        <v>0.5050013287608973</v>
       </c>
       <c r="K9">
-        <v>1.482648223278385</v>
+        <v>2.543372617059995</v>
       </c>
       <c r="L9">
-        <v>1.604163025007795</v>
+        <v>2.751822210452202</v>
       </c>
       <c r="M9">
-        <v>9.770639632030079</v>
+        <v>16.76080468792394</v>
       </c>
       <c r="N9">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O9">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P9">
-        <v>34.20923993898933</v>
+        <v>58.68340361874499</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,43 +880,43 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.3329690648481701</v>
+        <v>0.5711836351783766</v>
       </c>
       <c r="C10">
-        <v>8.48661905676169</v>
+        <v>14.5581630096045</v>
       </c>
       <c r="D10">
-        <v>0.001769995365317071</v>
+        <v>0.003036295241035934</v>
       </c>
       <c r="E10">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="F10">
-        <v>0.2256295357975794</v>
+        <v>0.3870506664612734</v>
       </c>
       <c r="G10">
-        <v>1.524708755511399</v>
+        <v>2.615524327938437</v>
       </c>
       <c r="H10">
-        <v>0.05485893803392396</v>
+        <v>0.09410642295713023</v>
       </c>
       <c r="I10">
-        <v>1.546138968269347</v>
+        <v>2.65228626205779</v>
       </c>
       <c r="J10">
-        <v>0.17873579697894</v>
+        <v>0.3066079496048305</v>
       </c>
       <c r="K10">
-        <v>0.9001792784190192</v>
+        <v>1.544190517500711</v>
       </c>
       <c r="L10">
-        <v>0.9764470587003975</v>
+        <v>1.675022215057863</v>
       </c>
       <c r="M10">
-        <v>5.947345862974831</v>
+        <v>10.20222894047544</v>
       </c>
       <c r="P10">
-        <v>20.81561199018036</v>
+        <v>35.70763227038918</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,43 +924,43 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.2189498813517741</v>
+        <v>0.3755922166805701</v>
       </c>
       <c r="C11">
-        <v>5.580531141543046</v>
+        <v>9.57298560184911</v>
       </c>
       <c r="D11">
-        <v>0.0004827260087228376</v>
+        <v>0.0008280805202825277</v>
       </c>
       <c r="E11">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="F11">
-        <v>0.08461107592409228</v>
+        <v>0.1451439999229775</v>
       </c>
       <c r="G11">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="H11">
-        <v>0.08914577430512644</v>
+        <v>0.1529229373053366</v>
       </c>
       <c r="I11">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="J11">
-        <v>0.1261664449263106</v>
+        <v>0.2164291408975274</v>
       </c>
       <c r="K11">
-        <v>0.6354206671193077</v>
+        <v>1.090016835882855</v>
       </c>
       <c r="L11">
-        <v>1.046193277178997</v>
+        <v>1.794666658990567</v>
       </c>
       <c r="M11">
-        <v>6.372156281758746</v>
+        <v>10.93095957908083</v>
       </c>
       <c r="P11">
-        <v>17.41250151646688</v>
+        <v>29.86984967585411</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -968,49 +968,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.1239338951047779</v>
+        <v>0.2125993679323982</v>
       </c>
       <c r="C12">
-        <v>3.158791212194177</v>
+        <v>5.418671095386287</v>
       </c>
       <c r="D12">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E12">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F12">
-        <v>0.05640738394939485</v>
+        <v>0.09676266661531835</v>
       </c>
       <c r="G12">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="H12">
-        <v>0.05485893803392396</v>
+        <v>0.09410642295713023</v>
       </c>
       <c r="I12">
-        <v>1.546138968269347</v>
+        <v>2.65228626205779</v>
       </c>
       <c r="J12">
-        <v>0.06308322246315529</v>
+        <v>0.1082145704487637</v>
       </c>
       <c r="K12">
-        <v>0.3177103335596538</v>
+        <v>0.5450084179414274</v>
       </c>
       <c r="L12">
-        <v>0.3138579831536992</v>
+        <v>0.53839999769717</v>
       </c>
       <c r="M12">
-        <v>1.911646884527624</v>
+        <v>3.279287873724248</v>
       </c>
       <c r="N12">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O12">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P12">
-        <v>8.563335808987196</v>
+        <v>14.68976488509772</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,43 +1018,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.07518656303023194</v>
+        <v>0.1289769498789884</v>
       </c>
       <c r="C13">
-        <v>1.916333335397802</v>
+        <v>3.287327131201015</v>
       </c>
       <c r="D13">
-        <v>0.0006436346782971166</v>
+        <v>0.001104107360376703</v>
       </c>
       <c r="E13">
-        <v>0.2328035194617259</v>
+        <v>0.3993571012042905</v>
       </c>
       <c r="F13">
-        <v>0.05640738394939485</v>
+        <v>0.09676266661531835</v>
       </c>
       <c r="G13">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="H13">
-        <v>0.03428683627120249</v>
+        <v>0.05881651434820639</v>
       </c>
       <c r="I13">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="J13">
-        <v>0.06308322246315529</v>
+        <v>0.1082145704487637</v>
       </c>
       <c r="K13">
-        <v>0.3177103335596538</v>
+        <v>0.5450084179414274</v>
       </c>
       <c r="L13">
-        <v>0.2789848739143992</v>
+        <v>0.4785777757308178</v>
       </c>
       <c r="M13">
-        <v>1.699241675135666</v>
+        <v>2.914922554421553</v>
       </c>
       <c r="P13">
-        <v>6.02219542190772</v>
+        <v>10.33062778492149</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1062,43 +1062,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.04378997627035485</v>
+        <v>0.07511844333611407</v>
       </c>
       <c r="C14">
-        <v>1.116106228308609</v>
+        <v>1.914597120369823</v>
       </c>
       <c r="D14">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E14">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F14">
-        <v>0.08461107592409228</v>
+        <v>0.1451439999229775</v>
       </c>
       <c r="G14">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="H14">
-        <v>0.02742946901696198</v>
+        <v>0.04705321147856512</v>
       </c>
       <c r="I14">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="J14">
-        <v>0.09462483369473292</v>
+        <v>0.1623218556731456</v>
       </c>
       <c r="K14">
-        <v>0.4765655003394806</v>
+        <v>0.8175126269121409</v>
       </c>
       <c r="L14">
-        <v>0.5230966385894984</v>
+        <v>0.8973333294952837</v>
       </c>
       <c r="M14">
-        <v>3.186078140879373</v>
+        <v>5.465479789540416</v>
       </c>
       <c r="P14">
-        <v>7.247307861684586</v>
+        <v>12.43221694358127</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1106,43 +1106,43 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.02065564918412966</v>
+        <v>0.03543322798873304</v>
       </c>
       <c r="C15">
-        <v>0.526465202032363</v>
+        <v>0.9031118492310479</v>
       </c>
       <c r="D15">
-        <v>0.000804543347871396</v>
+        <v>0.001380134200470879</v>
       </c>
       <c r="E15">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="F15">
-        <v>0.08461107592409228</v>
+        <v>0.1451439999229775</v>
       </c>
       <c r="G15">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="H15">
-        <v>0.006857367254240495</v>
+        <v>0.01176330286964128</v>
       </c>
       <c r="I15">
-        <v>0.1932673710336684</v>
+        <v>0.3315357827572237</v>
       </c>
       <c r="J15">
-        <v>0.09462483369473292</v>
+        <v>0.1623218556731456</v>
       </c>
       <c r="K15">
-        <v>0.4765655003394806</v>
+        <v>0.8175126269121409</v>
       </c>
       <c r="L15">
-        <v>0.2441117646750994</v>
+        <v>0.4187555537644657</v>
       </c>
       <c r="M15">
-        <v>1.486836465743708</v>
+        <v>2.55055723511886</v>
       </c>
       <c r="P15">
-        <v>3.997569955873318</v>
+        <v>6.857533567920983</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1150,37 +1150,37 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.0115671635431126</v>
+        <v>0.0198426076736905</v>
       </c>
       <c r="C16">
-        <v>0.2948205131381231</v>
+        <v>0.505742635569387</v>
       </c>
       <c r="D16">
-        <v>0.0004827260087228376</v>
+        <v>0.0008280805202825277</v>
       </c>
       <c r="E16">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="F16">
-        <v>0.02820369197469743</v>
+        <v>0.04838133330765917</v>
       </c>
       <c r="G16">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="J16">
-        <v>0.03154161123157764</v>
+        <v>0.05410728522438184</v>
       </c>
       <c r="K16">
-        <v>0.1588551667798269</v>
+        <v>0.2725042089707137</v>
       </c>
       <c r="L16">
-        <v>0.4184773108715988</v>
+        <v>0.7178666635962268</v>
       </c>
       <c r="M16">
-        <v>2.548862512703499</v>
+        <v>4.372383831632331</v>
       </c>
       <c r="P16">
-        <v>3.858001930286377</v>
+        <v>6.618115013390195</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1188,37 +1188,37 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.05618336578083266</v>
+        <v>0.09637838012935393</v>
       </c>
       <c r="C17">
-        <v>1.431985349528026</v>
+        <v>2.45646422990845</v>
       </c>
       <c r="F17">
-        <v>0.05640738394939485</v>
+        <v>0.09676266661531835</v>
       </c>
       <c r="G17">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="H17">
-        <v>0.02742946901696198</v>
+        <v>0.04705321147856512</v>
       </c>
       <c r="I17">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="J17">
-        <v>0.08411096328420703</v>
+        <v>0.1442860939316849</v>
       </c>
       <c r="K17">
-        <v>0.4236137780795383</v>
+        <v>0.7266778905885698</v>
       </c>
       <c r="L17">
-        <v>0.8718277309824979</v>
+        <v>1.495555549158806</v>
       </c>
       <c r="M17">
-        <v>5.310130234798956</v>
+        <v>9.109132982567358</v>
       </c>
       <c r="P17">
-        <v>9.415934948432938</v>
+        <v>16.15233521739161</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1226,43 +1226,43 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.1355010586478905</v>
+        <v>0.2324419756060888</v>
       </c>
       <c r="C18">
-        <v>3.453611725332301</v>
+        <v>5.924413730955678</v>
       </c>
       <c r="D18">
-        <v>0.0006436346782971166</v>
+        <v>0.001104107360376703</v>
       </c>
       <c r="E18">
-        <v>0.2328035194617259</v>
+        <v>0.3993571012042905</v>
       </c>
       <c r="F18">
-        <v>0.1128147678987897</v>
+        <v>0.1935253332306367</v>
       </c>
       <c r="G18">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="H18">
-        <v>0.08228840705088596</v>
+        <v>0.1411596344356953</v>
       </c>
       <c r="I18">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="J18">
-        <v>0.2733606306736728</v>
+        <v>0.4689298052779761</v>
       </c>
       <c r="K18">
-        <v>1.3767447787585</v>
+        <v>2.361703144412852</v>
       </c>
       <c r="L18">
-        <v>1.952894117400795</v>
+        <v>3.350044430115725</v>
       </c>
       <c r="M18">
-        <v>11.89469172594966</v>
+        <v>20.40445788095088</v>
       </c>
       <c r="P18">
-        <v>22.59691719601224</v>
+        <v>38.7633287006061</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,49 +1270,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.4279850510951663</v>
+        <v>0.7341764839265482</v>
       </c>
       <c r="C19">
-        <v>10.90835898611056</v>
+        <v>18.71247751606732</v>
       </c>
       <c r="D19">
-        <v>0.0004827260087228376</v>
+        <v>0.0008280805202825277</v>
       </c>
       <c r="E19">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="F19">
-        <v>0.2820369197469743</v>
+        <v>0.4838133330765916</v>
       </c>
       <c r="G19">
-        <v>1.905885944389248</v>
+        <v>3.269405409923047</v>
       </c>
       <c r="H19">
-        <v>0.2880094246781009</v>
+        <v>0.4940587205249337</v>
       </c>
       <c r="I19">
-        <v>8.117229583414074</v>
+        <v>13.92450287580339</v>
       </c>
       <c r="J19">
-        <v>0.5467212613473457</v>
+        <v>0.9378596105559522</v>
       </c>
       <c r="K19">
-        <v>2.753489557517</v>
+        <v>4.723406288825704</v>
       </c>
       <c r="L19">
-        <v>2.789848739143994</v>
+        <v>4.785777757308177</v>
       </c>
       <c r="M19">
-        <v>16.99241675135665</v>
+        <v>29.14922554421555</v>
       </c>
       <c r="N19">
-        <v>0.0197226254305674</v>
+        <v>0.03383269521998933</v>
       </c>
       <c r="O19">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="P19">
-        <v>45.51848869051977</v>
+        <v>78.08357767389694</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1320,49 +1320,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>0.8642323618639851</v>
+        <v>1.48252625904859</v>
       </c>
       <c r="C20">
-        <v>22.02730405303407</v>
+        <v>37.78619977182705</v>
       </c>
       <c r="D20">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E20">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F20">
-        <v>0.9307218351650153</v>
+        <v>1.596583999152752</v>
       </c>
       <c r="G20">
-        <v>6.289423616484522</v>
+        <v>10.78903785274605</v>
       </c>
       <c r="H20">
-        <v>0.2400078538984174</v>
+        <v>0.4117156004374447</v>
       </c>
       <c r="I20">
-        <v>6.764357986178394</v>
+        <v>11.60375239650283</v>
       </c>
       <c r="J20">
-        <v>0.9041928553052256</v>
+        <v>1.551075509765613</v>
       </c>
       <c r="K20">
-        <v>4.553848114355038</v>
+        <v>7.811787323827126</v>
       </c>
       <c r="L20">
-        <v>2.022640335879394</v>
+        <v>3.469688874048429</v>
       </c>
       <c r="M20">
-        <v>12.31950214473358</v>
+        <v>21.13318851955627</v>
       </c>
       <c r="N20">
-        <v>0.0394452508611348</v>
+        <v>0.06766539043997866</v>
       </c>
       <c r="O20">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="P20">
-        <v>57.92924410033892</v>
+        <v>99.37330437425162</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,49 +1370,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>0.9493336365025989</v>
+        <v>1.628511158362171</v>
       </c>
       <c r="C21">
-        <v>24.19634068540738</v>
+        <v>41.50702059065897</v>
       </c>
       <c r="D21">
-        <v>0.001769995365317071</v>
+        <v>0.003036295241035934</v>
       </c>
       <c r="E21">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="F21">
-        <v>0.5640738394939486</v>
+        <v>0.9676266661531832</v>
       </c>
       <c r="G21">
-        <v>3.811771888778497</v>
+        <v>6.538810819846093</v>
       </c>
       <c r="H21">
-        <v>0.1782915486102529</v>
+        <v>0.3058458746106731</v>
       </c>
       <c r="I21">
-        <v>5.024951646875379</v>
+        <v>8.619930351687817</v>
       </c>
       <c r="J21">
-        <v>0.7885402807894411</v>
+        <v>1.352682130609546</v>
       </c>
       <c r="K21">
-        <v>3.971379169495671</v>
+        <v>6.812605224267843</v>
       </c>
       <c r="L21">
-        <v>1.883147898922195</v>
+        <v>3.23039998618302</v>
       </c>
       <c r="M21">
-        <v>11.46988130716574</v>
+        <v>19.67572724234549</v>
       </c>
       <c r="N21">
-        <v>0.0394452508611348</v>
+        <v>0.06766539043997866</v>
       </c>
       <c r="O21">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="P21">
-        <v>54.14253378815742</v>
+        <v>92.87748482277009</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1420,49 +1420,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>0.7419509186939365</v>
+        <v>1.272761549355291</v>
       </c>
       <c r="C22">
-        <v>18.91063005700248</v>
+        <v>32.43977762437923</v>
       </c>
       <c r="D22">
-        <v>0.001126360687019954</v>
+        <v>0.001932187880659231</v>
       </c>
       <c r="E22">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="F22">
-        <v>0.7897033752915282</v>
+        <v>1.354677332614456</v>
       </c>
       <c r="G22">
-        <v>5.336480644289897</v>
+        <v>9.154335147784533</v>
       </c>
       <c r="H22">
-        <v>0.1782915486102529</v>
+        <v>0.3058458746106731</v>
       </c>
       <c r="I22">
-        <v>5.024951646875379</v>
+        <v>8.619930351687817</v>
       </c>
       <c r="J22">
-        <v>0.9252205961262773</v>
+        <v>1.587147033248534</v>
       </c>
       <c r="K22">
-        <v>4.659751558874922</v>
+        <v>7.99345679647427</v>
       </c>
       <c r="L22">
-        <v>2.371371428272393</v>
+        <v>4.067911093711952</v>
       </c>
       <c r="M22">
-        <v>14.44355423865316</v>
+        <v>24.7768417125832</v>
       </c>
       <c r="N22">
-        <v>0.03287104238427901</v>
+        <v>0.05638782536664885</v>
       </c>
       <c r="O22">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="P22">
-        <v>54.34280704262797</v>
+        <v>93.22103867684849</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.5230010373421625</v>
+        <v>0.8971693326747201</v>
       </c>
       <c r="C23">
-        <v>13.33009891545942</v>
+        <v>22.86679202253013</v>
       </c>
       <c r="D23">
-        <v>0.002735447382762747</v>
+        <v>0.004692456281600988</v>
       </c>
       <c r="E23">
-        <v>0.9894149577123353</v>
+        <v>1.697267680118234</v>
       </c>
       <c r="F23">
-        <v>0.6486849154180407</v>
+        <v>1.11277066607616</v>
       </c>
       <c r="G23">
-        <v>4.383537672095271</v>
+        <v>7.51963244282301</v>
       </c>
       <c r="H23">
-        <v>0.06857367254240498</v>
+        <v>0.1176330286964128</v>
       </c>
       <c r="I23">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="J23">
-        <v>1.135498004336795</v>
+        <v>1.947862268077747</v>
       </c>
       <c r="K23">
-        <v>5.718786004073768</v>
+        <v>9.810151522945693</v>
       </c>
       <c r="L23">
-        <v>2.336498319033094</v>
+        <v>4.008088871745599</v>
       </c>
       <c r="M23">
-        <v>14.2311490292612</v>
+        <v>24.41247639328052</v>
       </c>
       <c r="N23">
-        <v>0.0394452508611348</v>
+        <v>0.06766539043997866</v>
       </c>
       <c r="O23">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="P23">
-        <v>45.9634938972252</v>
+        <v>78.84695096731453</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.5329157489505447</v>
+        <v>0.9141772821093123</v>
       </c>
       <c r="C24">
-        <v>13.58280221243497</v>
+        <v>23.30028571016102</v>
       </c>
       <c r="D24">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E24">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F24">
-        <v>0.7614996833168306</v>
+        <v>1.306295999306797</v>
       </c>
       <c r="G24">
-        <v>5.145892049850972</v>
+        <v>8.827394606792224</v>
       </c>
       <c r="H24">
-        <v>0.1028605088136075</v>
+        <v>0.1764495430446192</v>
       </c>
       <c r="I24">
-        <v>2.899010565505026</v>
+        <v>4.973036741358356</v>
       </c>
       <c r="J24">
-        <v>1.051387041052588</v>
+        <v>1.803576174146062</v>
       </c>
       <c r="K24">
-        <v>5.29517222599423</v>
+        <v>9.083473632357123</v>
       </c>
       <c r="L24">
-        <v>2.092386554357994</v>
+        <v>3.589333317981135</v>
       </c>
       <c r="M24">
-        <v>12.74431256351749</v>
+        <v>21.86191915816167</v>
       </c>
       <c r="N24">
-        <v>0.0197226254305674</v>
+        <v>0.03383269521998933</v>
       </c>
       <c r="O24">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="P24">
-        <v>44.88983099111991</v>
+        <v>77.00516220551154</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.5015191621906678</v>
+        <v>0.8603187755664382</v>
       </c>
       <c r="C25">
-        <v>12.78257510534577</v>
+        <v>21.92755569932984</v>
       </c>
       <c r="D25">
-        <v>0.00209181270446563</v>
+        <v>0.003588348921224285</v>
       </c>
       <c r="E25">
-        <v>0.7566114382506091</v>
+        <v>1.297910578913944</v>
       </c>
       <c r="F25">
-        <v>0.5076664555445538</v>
+        <v>0.8708639995378648</v>
       </c>
       <c r="G25">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="H25">
-        <v>0.08914577430512644</v>
+        <v>0.1529229373053366</v>
       </c>
       <c r="I25">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="J25">
-        <v>0.6623738358631306</v>
+        <v>1.136252989712019</v>
       </c>
       <c r="K25">
-        <v>3.335958502376365</v>
+        <v>5.722588388384987</v>
       </c>
       <c r="L25">
-        <v>1.534416806529196</v>
+        <v>2.632177766519498</v>
       </c>
       <c r="M25">
-        <v>9.34582921324616</v>
+        <v>16.03207404931855</v>
       </c>
       <c r="N25">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O25">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P25">
-        <v>35.68220603377147</v>
+        <v>61.21016726537925</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.5800106290903601</v>
+        <v>0.9949650419236236</v>
       </c>
       <c r="C26">
-        <v>14.78314287306875</v>
+        <v>25.35938072640782</v>
       </c>
       <c r="D26">
-        <v>0.001126360687019954</v>
+        <v>0.001932187880659231</v>
       </c>
       <c r="E26">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="F26">
-        <v>0.7897033752915282</v>
+        <v>1.354677332614456</v>
       </c>
       <c r="G26">
-        <v>5.336480644289897</v>
+        <v>9.154335147784533</v>
       </c>
       <c r="H26">
-        <v>0.07543103979664546</v>
+        <v>0.1293963315660541</v>
       </c>
       <c r="I26">
-        <v>2.125941081370352</v>
+        <v>3.64689361032946</v>
       </c>
       <c r="J26">
-        <v>1.030359300231536</v>
+        <v>1.767504650663141</v>
       </c>
       <c r="K26">
-        <v>5.189268781474344</v>
+        <v>8.901804159709979</v>
       </c>
       <c r="L26">
-        <v>1.708782352725696</v>
+        <v>2.931288876351259</v>
       </c>
       <c r="M26">
-        <v>10.40785526020595</v>
+        <v>17.85390064583202</v>
       </c>
       <c r="N26">
-        <v>0.03287104238427901</v>
+        <v>0.05638782536664885</v>
       </c>
       <c r="O26">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="P26">
-        <v>42.98787636748282</v>
+        <v>73.74250068358087</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.5618336578083265</v>
+        <v>0.9637838012935385</v>
       </c>
       <c r="C27">
-        <v>14.31985349528027</v>
+        <v>24.56464229908451</v>
       </c>
       <c r="D27">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E27">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F27">
-        <v>0.6204812234433433</v>
+        <v>1.064389332768502</v>
       </c>
       <c r="G27">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="H27">
-        <v>0.06857367254240498</v>
+        <v>0.1176330286964128</v>
       </c>
       <c r="I27">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="J27">
-        <v>0.6308322246315529</v>
+        <v>1.082145704487637</v>
       </c>
       <c r="K27">
-        <v>3.177103335596539</v>
+        <v>5.450084179414276</v>
       </c>
       <c r="L27">
-        <v>1.848274789682894</v>
+        <v>3.170577764216669</v>
       </c>
       <c r="M27">
-        <v>11.25747609777379</v>
+        <v>19.3113619230428</v>
       </c>
       <c r="N27">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O27">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P27">
-        <v>39.29789299710929</v>
+        <v>67.41260899770076</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.6196694755238893</v>
+        <v>1.06299683966199</v>
       </c>
       <c r="C28">
-        <v>15.79395606097088</v>
+        <v>27.09335547693144</v>
       </c>
       <c r="D28">
-        <v>0.001769995365317071</v>
+        <v>0.003036295241035934</v>
       </c>
       <c r="E28">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="F28">
-        <v>1.043536603063805</v>
+        <v>1.790109332383389</v>
       </c>
       <c r="G28">
-        <v>7.05177799424022</v>
+        <v>12.09680001671527</v>
       </c>
       <c r="H28">
-        <v>0.1165752433220884</v>
+        <v>0.1999761487839017</v>
       </c>
       <c r="I28">
-        <v>3.285545307572363</v>
+        <v>5.636108306872804</v>
       </c>
       <c r="J28">
-        <v>0.9357344665368031</v>
+        <v>1.605182794989995</v>
       </c>
       <c r="K28">
-        <v>4.712703281134864</v>
+        <v>8.08429153279784</v>
       </c>
       <c r="L28">
-        <v>1.639036134247096</v>
+        <v>2.811644432418556</v>
       </c>
       <c r="M28">
-        <v>9.983044841422036</v>
+        <v>17.12517000722663</v>
       </c>
       <c r="N28">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O28">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P28">
-        <v>46.26545389007328</v>
+        <v>79.36494084866295</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>0.8890191408849397</v>
+        <v>1.52504613263507</v>
       </c>
       <c r="C29">
-        <v>22.65906229547289</v>
+        <v>38.86993399090428</v>
       </c>
       <c r="D29">
-        <v>0.00193090403489135</v>
+        <v>0.003312322081130111</v>
       </c>
       <c r="E29">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="F29">
-        <v>1.156351370962595</v>
+        <v>1.983634665614025</v>
       </c>
       <c r="G29">
-        <v>7.814132371995921</v>
+        <v>13.40456218068449</v>
       </c>
       <c r="H29">
-        <v>0.13714734508481</v>
+        <v>0.2352660573928256</v>
       </c>
       <c r="I29">
-        <v>3.865347420673368</v>
+        <v>6.630715655144473</v>
       </c>
       <c r="J29">
-        <v>0.9988176889999585</v>
+        <v>1.713397365438759</v>
       </c>
       <c r="K29">
-        <v>5.030413614694518</v>
+        <v>8.629299950739266</v>
       </c>
       <c r="L29">
-        <v>1.115939495657597</v>
+        <v>1.914311102923271</v>
       </c>
       <c r="M29">
-        <v>6.796966700542666</v>
+        <v>11.65969021768621</v>
       </c>
       <c r="N29">
-        <v>0.03287104238427901</v>
+        <v>0.05638782536664885</v>
       </c>
       <c r="O29">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="P29">
-        <v>51.71590741758205</v>
+        <v>88.71478799026704</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.007995680185527</v>
+        <v>1.729141525850172</v>
       </c>
       <c r="C30">
-        <v>25.69150185917932</v>
+        <v>44.07185824247514</v>
       </c>
       <c r="D30">
-        <v>0.002252721374039908</v>
+        <v>0.003864375761318462</v>
       </c>
       <c r="E30">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="F30">
-        <v>1.128147678987897</v>
+        <v>1.935253332306366</v>
       </c>
       <c r="G30">
-        <v>7.623543777556994</v>
+        <v>13.07762163969219</v>
       </c>
       <c r="H30">
-        <v>0.1577194468475314</v>
+        <v>0.2705559660017494</v>
       </c>
       <c r="I30">
-        <v>4.445149533774374</v>
+        <v>7.625323003416145</v>
       </c>
       <c r="J30">
-        <v>0.6518599654526046</v>
+        <v>1.118217227970558</v>
       </c>
       <c r="K30">
-        <v>3.283006780116423</v>
+        <v>5.631753652061417</v>
       </c>
       <c r="L30">
-        <v>0.8020815125038976</v>
+        <v>1.375911105226101</v>
       </c>
       <c r="M30">
-        <v>4.88531981601504</v>
+        <v>8.380402343961968</v>
       </c>
       <c r="N30">
-        <v>0.03287104238427901</v>
+        <v>0.05638782536664885</v>
       </c>
       <c r="O30">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="P30">
-        <v>51.0457596003024</v>
+        <v>87.5651993143485</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>0.9452025066657729</v>
+        <v>1.621424512764424</v>
       </c>
       <c r="C31">
-        <v>24.09104764500093</v>
+        <v>41.32639822081276</v>
       </c>
       <c r="D31">
-        <v>0.001609086695742792</v>
+        <v>0.002760268400941758</v>
       </c>
       <c r="E31">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="F31">
-        <v>1.21275875491199</v>
+        <v>2.080397332229344</v>
       </c>
       <c r="G31">
-        <v>8.195309560873769</v>
+        <v>14.0584432626691</v>
       </c>
       <c r="H31">
-        <v>0.2194357521356959</v>
+        <v>0.3764256918285209</v>
       </c>
       <c r="I31">
-        <v>6.184555873077388</v>
+        <v>10.60914504823116</v>
       </c>
       <c r="J31">
-        <v>0.5046657797052423</v>
+        <v>0.8657165635901095</v>
       </c>
       <c r="K31">
-        <v>2.541682668477231</v>
+        <v>4.360067343531419</v>
       </c>
       <c r="L31">
-        <v>1.290305041854096</v>
+        <v>2.213422212755033</v>
       </c>
       <c r="M31">
-        <v>7.858992747502455</v>
+        <v>13.48151681419969</v>
       </c>
       <c r="N31">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O31">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P31">
-        <v>53.8485216196317</v>
+        <v>92.37312884218737</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,43 +1920,43 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.6014925042418555</v>
+        <v>1.031815599031907</v>
       </c>
       <c r="C32">
-        <v>15.33066668318241</v>
+        <v>26.29861704960812</v>
       </c>
       <c r="D32">
-        <v>0.001287269356594233</v>
+        <v>0.002208214720753407</v>
       </c>
       <c r="E32">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="F32">
-        <v>1.156351370962595</v>
+        <v>1.983634665614025</v>
       </c>
       <c r="G32">
-        <v>7.814132371995921</v>
+        <v>13.40456218068449</v>
       </c>
       <c r="H32">
-        <v>0.1851489158644934</v>
+        <v>0.3176091774803145</v>
       </c>
       <c r="I32">
-        <v>5.218219017909045</v>
+        <v>8.95146613444504</v>
       </c>
       <c r="J32">
-        <v>0.441582557242087</v>
+        <v>0.7575019931413461</v>
       </c>
       <c r="K32">
-        <v>2.223972334917576</v>
+        <v>3.815058925589992</v>
       </c>
       <c r="L32">
-        <v>1.464670588050595</v>
+        <v>2.512533322586793</v>
       </c>
       <c r="M32">
-        <v>8.921018794462247</v>
+        <v>15.30334341071316</v>
       </c>
       <c r="P32">
-        <v>43.82414944710887</v>
+        <v>75.17706487602453</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1964,43 +1964,43 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.3800639449879857</v>
+        <v>0.6519713949926885</v>
       </c>
       <c r="C33">
-        <v>9.686959717395476</v>
+        <v>16.61725802585128</v>
       </c>
       <c r="D33">
-        <v>0.00193090403489135</v>
+        <v>0.003312322081130111</v>
       </c>
       <c r="E33">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="F33">
-        <v>0.592277531468646</v>
+        <v>1.016007999460842</v>
       </c>
       <c r="G33">
-        <v>4.002360483217423</v>
+        <v>6.865751360838398</v>
       </c>
       <c r="H33">
-        <v>0.2194357521356959</v>
+        <v>0.3764256918285209</v>
       </c>
       <c r="I33">
-        <v>6.184555873077388</v>
+        <v>10.60914504823116</v>
       </c>
       <c r="J33">
-        <v>0.2418190194420952</v>
+        <v>0.4148225200535943</v>
       </c>
       <c r="K33">
-        <v>1.217889611978672</v>
+        <v>2.089198935442139</v>
       </c>
       <c r="L33">
-        <v>1.255431932614797</v>
+        <v>2.15359999078868</v>
       </c>
       <c r="M33">
-        <v>7.646587538110498</v>
+        <v>13.11715149489699</v>
       </c>
       <c r="P33">
-        <v>32.12772286684874</v>
+        <v>55.1127160880783</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.3214019013050573</v>
+        <v>0.5513410275046859</v>
       </c>
       <c r="C34">
-        <v>8.191798543623568</v>
+        <v>14.05242037403511</v>
       </c>
       <c r="D34">
-        <v>0.001126360687019954</v>
+        <v>0.001932187880659231</v>
       </c>
       <c r="E34">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="F34">
-        <v>0.2820369197469743</v>
+        <v>0.4838133330765916</v>
       </c>
       <c r="G34">
-        <v>1.905885944389248</v>
+        <v>3.269405409923047</v>
       </c>
       <c r="H34">
-        <v>0.06857367254240498</v>
+        <v>0.1176330286964128</v>
       </c>
       <c r="I34">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="J34">
-        <v>0.2102774082105177</v>
+        <v>0.3607152348292124</v>
       </c>
       <c r="K34">
-        <v>1.059034445198846</v>
+        <v>1.816694726471425</v>
       </c>
       <c r="L34">
-        <v>1.081066386418297</v>
+        <v>1.85448888095692</v>
       </c>
       <c r="M34">
-        <v>6.584561491150704</v>
+        <v>11.29532489838352</v>
       </c>
       <c r="N34">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O34">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P34">
-        <v>22.15631664470588</v>
+        <v>38.0075112655194</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,49 +2058,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.2544775979484772</v>
+        <v>0.436537368821191</v>
       </c>
       <c r="C35">
-        <v>6.486051289038711</v>
+        <v>11.12633798252651</v>
       </c>
       <c r="D35">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E35">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F35">
-        <v>0.3102406117216717</v>
+        <v>0.5321946663842508</v>
       </c>
       <c r="G35">
-        <v>2.096474538828173</v>
+        <v>3.59634595091535</v>
       </c>
       <c r="H35">
-        <v>0.09600314155936693</v>
+        <v>0.1646862401749778</v>
       </c>
       <c r="I35">
-        <v>2.705743194471358</v>
+        <v>4.641500958601131</v>
       </c>
       <c r="J35">
-        <v>0.2733606306736728</v>
+        <v>0.4689298052779761</v>
       </c>
       <c r="K35">
-        <v>1.3767447787585</v>
+        <v>2.361703144412852</v>
       </c>
       <c r="L35">
-        <v>1.150812604896897</v>
+        <v>1.974133324889623</v>
       </c>
       <c r="M35">
-        <v>7.009371909934623</v>
+        <v>12.02405553698891</v>
       </c>
       <c r="N35">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O35">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P35">
-        <v>22.39501009668504</v>
+        <v>38.41697210734535</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2108,43 +2108,43 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.1313699288110645</v>
+        <v>0.2253553300083421</v>
       </c>
       <c r="C36">
-        <v>3.348318684925828</v>
+        <v>5.743791361109465</v>
       </c>
       <c r="D36">
-        <v>0.001126360687019954</v>
+        <v>0.001932187880659231</v>
       </c>
       <c r="E36">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="F36">
-        <v>0.1692221518481846</v>
+        <v>0.290287999845955</v>
       </c>
       <c r="G36">
-        <v>1.143531566633549</v>
+        <v>1.961643245953828</v>
       </c>
       <c r="H36">
-        <v>0.04800157077968346</v>
+        <v>0.08234312008748891</v>
       </c>
       <c r="I36">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="J36">
-        <v>0.1261664449263106</v>
+        <v>0.2164291408975274</v>
       </c>
       <c r="K36">
-        <v>0.6354206671193077</v>
+        <v>1.090016835882855</v>
       </c>
       <c r="L36">
-        <v>0.5579697478287985</v>
+        <v>0.9571555514616356</v>
       </c>
       <c r="M36">
-        <v>3.398483350271333</v>
+        <v>5.829845108843107</v>
       </c>
       <c r="P36">
-        <v>11.31988823012478</v>
+        <v>19.41842528837894</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2152,49 +2152,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.08014391883442298</v>
+        <v>0.1374809245962842</v>
       </c>
       <c r="C37">
-        <v>2.042684983885568</v>
+        <v>3.504073975016468</v>
       </c>
       <c r="D37">
-        <v>0.001448178026168513</v>
+        <v>0.002484241560847582</v>
       </c>
       <c r="E37">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="F37">
-        <v>0.05640738394939485</v>
+        <v>0.09676266661531835</v>
       </c>
       <c r="G37">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="H37">
-        <v>0.03428683627120249</v>
+        <v>0.05881651434820639</v>
       </c>
       <c r="I37">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="J37">
-        <v>0.1366803153368364</v>
+        <v>0.2344649026389881</v>
       </c>
       <c r="K37">
-        <v>0.6883723893792499</v>
+        <v>1.180851572206426</v>
       </c>
       <c r="L37">
-        <v>0.3487310923929992</v>
+        <v>0.5982222196635221</v>
       </c>
       <c r="M37">
-        <v>2.124052093919582</v>
+        <v>3.643653193026943</v>
       </c>
       <c r="N37">
-        <v>0.006574208476855805</v>
+        <v>0.01127756507332977</v>
       </c>
       <c r="O37">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="P37">
-        <v>7.494602856869043</v>
+        <v>12.85643309223546</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2202,43 +2202,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.03883262046616374</v>
+        <v>0.06661446861881809</v>
       </c>
       <c r="C38">
-        <v>0.9897545798208428</v>
+        <v>1.697850276554371</v>
       </c>
       <c r="D38">
-        <v>0.001609086695742792</v>
+        <v>0.002760268400941758</v>
       </c>
       <c r="E38">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="F38">
-        <v>0.05640738394939485</v>
+        <v>0.09676266661531835</v>
       </c>
       <c r="G38">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="H38">
-        <v>0.03428683627120249</v>
+        <v>0.05881651434820639</v>
       </c>
       <c r="I38">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="J38">
-        <v>0.09462483369473292</v>
+        <v>0.1623218556731456</v>
       </c>
       <c r="K38">
-        <v>0.4765655003394806</v>
+        <v>0.8175126269121409</v>
       </c>
       <c r="L38">
-        <v>0.383604201632299</v>
+        <v>0.6580444416298745</v>
       </c>
       <c r="M38">
-        <v>2.33645730331154</v>
+        <v>4.008018512329637</v>
       </c>
       <c r="P38">
-        <v>6.341665188881906</v>
+        <v>10.87865437986391</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2246,31 +2246,31 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.02974413482514669</v>
+        <v>0.05102384830377558</v>
       </c>
       <c r="C39">
-        <v>0.7581098909266024</v>
+        <v>1.300481062892709</v>
       </c>
       <c r="D39">
-        <v>0.0004827260087228376</v>
+        <v>0.0008280805202825277</v>
       </c>
       <c r="E39">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="J39">
-        <v>0.05256935205262941</v>
+        <v>0.0901788087073031</v>
       </c>
       <c r="K39">
-        <v>0.2647586112997115</v>
+        <v>0.4541736816178562</v>
       </c>
       <c r="L39">
-        <v>0.383604201632299</v>
+        <v>0.6580444416298745</v>
       </c>
       <c r="M39">
-        <v>2.33645730331154</v>
+        <v>4.008018512329637</v>
       </c>
       <c r="P39">
-        <v>4.000328859652947</v>
+        <v>6.862266261904656</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,37 +2278,37 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.0289179088577815</v>
+        <v>0.04960651918422625</v>
       </c>
       <c r="C40">
-        <v>0.7370512828453083</v>
+        <v>1.264356588923467</v>
       </c>
       <c r="D40">
-        <v>0.0006436346782971166</v>
+        <v>0.001104107360376703</v>
       </c>
       <c r="E40">
-        <v>0.2328035194617259</v>
+        <v>0.3993571012042905</v>
       </c>
       <c r="H40">
-        <v>0.01371473450848099</v>
+        <v>0.02352660573928256</v>
       </c>
       <c r="I40">
-        <v>0.3865347420673367</v>
+        <v>0.6630715655144475</v>
       </c>
       <c r="J40">
-        <v>0.09462483369473292</v>
+        <v>0.1623218556731456</v>
       </c>
       <c r="K40">
-        <v>0.4765655003394806</v>
+        <v>0.8175126269121409</v>
       </c>
       <c r="L40">
-        <v>0.7323352940252976</v>
+        <v>1.256266661293397</v>
       </c>
       <c r="M40">
-        <v>4.460509397231124</v>
+        <v>7.651671705356581</v>
       </c>
       <c r="P40">
-        <v>7.163700847709565</v>
+        <v>12.28879533716135</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2316,43 +2316,43 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.06361939948711931</v>
+        <v>0.1091343422052978</v>
       </c>
       <c r="C41">
-        <v>1.621512822259678</v>
+        <v>2.781584495631629</v>
       </c>
       <c r="D41">
-        <v>0.0003218173391485583</v>
+        <v>0.0005520536801883517</v>
       </c>
       <c r="E41">
-        <v>0.116401759730863</v>
+        <v>0.1996785506021452</v>
       </c>
       <c r="F41">
-        <v>0.1128147678987897</v>
+        <v>0.1935253332306367</v>
       </c>
       <c r="G41">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="H41">
-        <v>0.02742946901696198</v>
+        <v>0.04705321147856512</v>
       </c>
       <c r="I41">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="J41">
-        <v>0.1892496673894658</v>
+        <v>0.3246437113462912</v>
       </c>
       <c r="K41">
-        <v>0.9531310006789613</v>
+        <v>1.635025253824282</v>
       </c>
       <c r="L41">
-        <v>1.394924369571997</v>
+        <v>2.392888878654088</v>
       </c>
       <c r="M41">
-        <v>8.496208375678327</v>
+        <v>14.57461277210777</v>
       </c>
       <c r="P41">
-        <v>14.51103731094168</v>
+        <v>24.89260389775901</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2360,49 +2360,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.1412846404194468</v>
+        <v>0.242363279442934</v>
       </c>
       <c r="C42">
-        <v>3.601021981901364</v>
+        <v>6.177285048740369</v>
       </c>
       <c r="D42">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E42">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F42">
-        <v>0.2538332277722769</v>
+        <v>0.4354319997689324</v>
       </c>
       <c r="G42">
-        <v>1.715297349950324</v>
+        <v>2.942464868930741</v>
       </c>
       <c r="H42">
-        <v>0.09600314155936693</v>
+        <v>0.1646862401749778</v>
       </c>
       <c r="I42">
-        <v>2.705743194471358</v>
+        <v>4.641500958601131</v>
       </c>
       <c r="J42">
-        <v>0.262846760263147</v>
+        <v>0.4508940435365155</v>
       </c>
       <c r="K42">
-        <v>1.323793056498558</v>
+        <v>2.270868408089281</v>
       </c>
       <c r="L42">
-        <v>1.778528571204295</v>
+        <v>3.050933320283964</v>
       </c>
       <c r="M42">
-        <v>10.83266567898987</v>
+        <v>18.5826312844374</v>
       </c>
       <c r="N42">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O42">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P42">
-        <v>23.28213573831712</v>
+        <v>39.9387700830174</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2410,43 +2410,43 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.4701225754307907</v>
+        <v>0.8064602690235643</v>
       </c>
       <c r="C43">
-        <v>11.98234799825657</v>
+        <v>20.55482568849866</v>
       </c>
       <c r="D43">
-        <v>0.000804543347871396</v>
+        <v>0.001380134200470879</v>
       </c>
       <c r="E43">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="F43">
-        <v>0.3384443036963691</v>
+        <v>0.58057599969191</v>
       </c>
       <c r="G43">
-        <v>2.287063133267099</v>
+        <v>3.923286491907657</v>
       </c>
       <c r="H43">
-        <v>0.3085815264408223</v>
+        <v>0.5293486291338573</v>
       </c>
       <c r="I43">
-        <v>8.697031696515078</v>
+        <v>14.91911022407507</v>
       </c>
       <c r="J43">
-        <v>0.6834015766841821</v>
+        <v>1.17232451319494</v>
       </c>
       <c r="K43">
-        <v>3.44186194689625</v>
+        <v>5.904257861032131</v>
       </c>
       <c r="L43">
-        <v>2.720102520665393</v>
+        <v>4.666133313375473</v>
       </c>
       <c r="M43">
-        <v>16.56760633257274</v>
+        <v>28.42049490561015</v>
       </c>
       <c r="P43">
-        <v>47.78837255310032</v>
+        <v>81.97739440624925</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,49 +2454,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>0.8501865204187758</v>
+        <v>1.458431664016252</v>
       </c>
       <c r="C44">
-        <v>21.66930771565206</v>
+        <v>37.17208371434995</v>
       </c>
       <c r="D44">
-        <v>0.0009654520174456751</v>
+        <v>0.001656161040565055</v>
       </c>
       <c r="E44">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="F44">
-        <v>0.8461107592409225</v>
+        <v>1.451439999229775</v>
       </c>
       <c r="G44">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="H44">
-        <v>0.2468652211526578</v>
+        <v>0.4234789033070859</v>
       </c>
       <c r="I44">
-        <v>6.957625357212062</v>
+        <v>11.93528817926005</v>
       </c>
       <c r="J44">
-        <v>0.8411096328420706</v>
+        <v>1.44286093931685</v>
       </c>
       <c r="K44">
-        <v>4.236137780795384</v>
+        <v>7.266778905885699</v>
       </c>
       <c r="L44">
-        <v>2.475990755990294</v>
+        <v>4.247377759611012</v>
       </c>
       <c r="M44">
-        <v>15.08076986682904</v>
+        <v>25.8699376704913</v>
       </c>
       <c r="N44">
-        <v>0.0394452508611348</v>
+        <v>0.06766539043997866</v>
       </c>
       <c r="O44">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="P44">
-        <v>59.9347743867423</v>
+        <v>102.8136422325766</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2504,49 +2504,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>0.9303304392531994</v>
+        <v>1.595912588612537</v>
       </c>
       <c r="C45">
-        <v>23.7119926995376</v>
+        <v>40.67615768936641</v>
       </c>
       <c r="D45">
-        <v>0.001609086695742792</v>
+        <v>0.002760268400941758</v>
       </c>
       <c r="E45">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="F45">
-        <v>0.7897033752915282</v>
+        <v>1.354677332614456</v>
       </c>
       <c r="G45">
-        <v>5.336480644289897</v>
+        <v>9.154335147784533</v>
       </c>
       <c r="H45">
-        <v>0.1645768141017719</v>
+        <v>0.2823192688713906</v>
       </c>
       <c r="I45">
-        <v>4.638416904808042</v>
+        <v>7.956858786173368</v>
       </c>
       <c r="J45">
-        <v>0.6728877062736562</v>
+        <v>1.154288751453479</v>
       </c>
       <c r="K45">
-        <v>3.388910224636307</v>
+        <v>5.813423124708558</v>
       </c>
       <c r="L45">
-        <v>1.813401680443595</v>
+        <v>3.110755542250316</v>
       </c>
       <c r="M45">
-        <v>11.04507088838183</v>
+        <v>18.94699660374011</v>
       </c>
       <c r="N45">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O45">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P45">
-        <v>53.51728407052165</v>
+        <v>91.80491549331512</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2554,49 +2554,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>0.7006396203256776</v>
+        <v>1.201895093377825</v>
       </c>
       <c r="C46">
-        <v>17.85769965293774</v>
+        <v>30.63355392591717</v>
       </c>
       <c r="D46">
-        <v>0.002413630043614188</v>
+        <v>0.004140402601412637</v>
       </c>
       <c r="E46">
-        <v>0.873013197981472</v>
+        <v>1.497589129516089</v>
       </c>
       <c r="F46">
-        <v>0.8179070672662252</v>
+        <v>1.403058665922115</v>
       </c>
       <c r="G46">
-        <v>5.527069238728821</v>
+        <v>9.481275688776835</v>
       </c>
       <c r="H46">
-        <v>0.1508620795932909</v>
+        <v>0.2587926631321081</v>
       </c>
       <c r="I46">
-        <v>4.251882162740705</v>
+        <v>7.29378722065892</v>
       </c>
       <c r="J46">
-        <v>0.8095680216104925</v>
+        <v>1.388753654092468</v>
       </c>
       <c r="K46">
-        <v>4.077282614015557</v>
+        <v>6.994274696914984</v>
       </c>
       <c r="L46">
-        <v>2.510863865229593</v>
+        <v>4.30719998157736</v>
       </c>
       <c r="M46">
-        <v>15.293175076221</v>
+        <v>26.23430298979399</v>
       </c>
       <c r="N46">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O46">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P46">
-        <v>53.31427103484836</v>
+        <v>91.45666174860956</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2604,49 +2604,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.5304370710484488</v>
+        <v>0.9099252947506641</v>
       </c>
       <c r="C47">
-        <v>13.51962638819108</v>
+        <v>23.19191228825332</v>
       </c>
       <c r="D47">
-        <v>0.001609086695742792</v>
+        <v>0.002760268400941758</v>
       </c>
       <c r="E47">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="F47">
-        <v>0.7897033752915282</v>
+        <v>1.354677332614456</v>
       </c>
       <c r="G47">
-        <v>5.336480644289897</v>
+        <v>9.154335147784533</v>
       </c>
       <c r="H47">
-        <v>0.1097178760678479</v>
+        <v>0.1882128459142605</v>
       </c>
       <c r="I47">
-        <v>3.092277936538694</v>
+        <v>5.30457252411558</v>
       </c>
       <c r="J47">
-        <v>0.9988176889999585</v>
+        <v>1.713397365438759</v>
       </c>
       <c r="K47">
-        <v>5.030413614694518</v>
+        <v>8.629299950739266</v>
       </c>
       <c r="L47">
-        <v>2.475990755990294</v>
+        <v>4.247377759611012</v>
       </c>
       <c r="M47">
-        <v>15.08076986682904</v>
+        <v>25.8699376704913</v>
       </c>
       <c r="N47">
-        <v>0.03287104238427901</v>
+        <v>0.05638782536664885</v>
       </c>
       <c r="O47">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="P47">
-        <v>48.10022161348407</v>
+        <v>82.51234824653518</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2654,49 +2654,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.515565003635876</v>
+        <v>0.8844133705987766</v>
       </c>
       <c r="C48">
-        <v>13.14057144272778</v>
+        <v>22.54167175680696</v>
       </c>
       <c r="D48">
-        <v>0.001126360687019954</v>
+        <v>0.001932187880659231</v>
       </c>
       <c r="E48">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="F48">
-        <v>0.6204812234433433</v>
+        <v>1.064389332768502</v>
       </c>
       <c r="G48">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="H48">
-        <v>0.1165752433220884</v>
+        <v>0.1999761487839017</v>
       </c>
       <c r="I48">
-        <v>3.285545307572363</v>
+        <v>5.636108306872804</v>
       </c>
       <c r="J48">
-        <v>0.9567622073578553</v>
+        <v>1.641254318472916</v>
       </c>
       <c r="K48">
-        <v>4.81860672565475</v>
+        <v>8.265961005444982</v>
       </c>
       <c r="L48">
-        <v>1.778528571204295</v>
+        <v>3.050933320283964</v>
       </c>
       <c r="M48">
-        <v>10.83266567898987</v>
+        <v>18.5826312844374</v>
       </c>
       <c r="N48">
-        <v>0.02629683390742322</v>
+        <v>0.04511026029331908</v>
       </c>
       <c r="O48">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="P48">
-        <v>41.10867780946378</v>
+        <v>70.51887549761737</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2704,49 +2704,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.5320895229831797</v>
+        <v>0.9127599529897631</v>
       </c>
       <c r="C49">
-        <v>13.56174360435366</v>
+        <v>23.2641612361918</v>
       </c>
       <c r="D49">
-        <v>0.002574538713188467</v>
+        <v>0.004416429441506813</v>
       </c>
       <c r="E49">
-        <v>0.9312140778469037</v>
+        <v>1.597428404817162</v>
       </c>
       <c r="F49">
-        <v>0.6204812234433433</v>
+        <v>1.064389332768502</v>
       </c>
       <c r="G49">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="H49">
-        <v>0.08914577430512644</v>
+        <v>0.1529229373053366</v>
       </c>
       <c r="I49">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="J49">
-        <v>0.7885402807894411</v>
+        <v>1.352682130609546</v>
       </c>
       <c r="K49">
-        <v>3.971379169495671</v>
+        <v>6.812605224267843</v>
       </c>
       <c r="L49">
-        <v>1.429797478811296</v>
+        <v>2.45271110062044</v>
       </c>
       <c r="M49">
-        <v>8.708613585070287</v>
+        <v>14.93897809141046</v>
       </c>
       <c r="N49">
-        <v>0.01314841695371161</v>
+        <v>0.02255513014665954</v>
       </c>
       <c r="O49">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="P49">
-        <v>37.56195156098322</v>
+        <v>64.43473073626112</v>
       </c>
     </row>
   </sheetData>
